--- a/resources/fed_rtp_20/templates/Scenario SDF Performance Measures_template.xlsx
+++ b/resources/fed_rtp_20/templates/Scenario SDF Performance Measures_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsc\OneDrive - San Diego Association of Governments\gsc\abm_2_reporting\resources\fed_rtp_20\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\TEMP\gks\abm_2_reporting\resources\fed_rtp_20\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{40DCBA3F-9C21-482E-BBF9-A15DE9B4AB93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{80BBD119-11A0-4D3D-B1EE-DBD2833BC2E2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C6FC23-3D79-4F00-813F-E0DB00176B70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23265" windowHeight="9180" tabRatio="969" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23265" windowHeight="9180" tabRatio="969" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -1696,7 +1696,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -2198,6 +2198,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0"/>
@@ -2210,7 +2223,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="310">
+  <cellXfs count="315">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2750,20 +2763,6 @@
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="34" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2776,6 +2775,26 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2789,6 +2808,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="21" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="60% - Accent3" xfId="2" builtinId="40"/>
@@ -3168,16 +3192,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K265"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C243" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C252" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="G265" sqref="G265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="242" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="242" customWidth="1"/>
     <col min="2" max="2" width="51" style="242" customWidth="1"/>
     <col min="3" max="3" width="3.85546875" style="90" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" style="90" customWidth="1"/>
@@ -3956,10 +3980,10 @@
       <c r="J53" s="255"/>
     </row>
     <row r="54" spans="1:10" s="242" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="297" t="s">
+      <c r="A54" s="299" t="s">
         <v>332</v>
       </c>
-      <c r="B54" s="300" t="s">
+      <c r="B54" s="294" t="s">
         <v>333</v>
       </c>
       <c r="C54" s="254"/>
@@ -3972,10 +3996,10 @@
       <c r="J54" s="255"/>
     </row>
     <row r="55" spans="1:10" s="242" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="297" t="s">
+      <c r="A55" s="299" t="s">
         <v>335</v>
       </c>
-      <c r="B55" s="300" t="s">
+      <c r="B55" s="294" t="s">
         <v>336</v>
       </c>
       <c r="C55" s="254"/>
@@ -6926,20 +6950,20 @@
       <c r="J251" s="274"/>
     </row>
     <row r="252" spans="1:10" s="242" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="291" t="s">
+      <c r="A252" s="98" t="s">
         <v>327</v>
       </c>
-      <c r="B252" s="292" t="s">
+      <c r="B252" s="298" t="s">
         <v>328</v>
       </c>
       <c r="C252" s="256"/>
-      <c r="D252" s="301"/>
-      <c r="E252" s="301"/>
-      <c r="F252" s="301"/>
-      <c r="G252" s="301"/>
-      <c r="H252" s="301"/>
-      <c r="I252" s="301"/>
-      <c r="J252" s="301"/>
+      <c r="D252" s="295"/>
+      <c r="E252" s="295"/>
+      <c r="F252" s="295"/>
+      <c r="G252" s="295"/>
+      <c r="H252" s="295"/>
+      <c r="I252" s="295"/>
+      <c r="J252" s="295"/>
     </row>
     <row r="253" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="23" t="s">
@@ -6996,7 +7020,7 @@
       <c r="I256" s="270"/>
       <c r="J256" s="270"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B257" s="87" t="s">
         <v>44</v>
       </c>
@@ -7009,7 +7033,7 @@
       <c r="I257" s="270"/>
       <c r="J257" s="270"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B258" s="87" t="s">
         <v>45</v>
       </c>
@@ -7022,7 +7046,7 @@
       <c r="I258" s="270"/>
       <c r="J258" s="270"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="58"/>
       <c r="B259" s="87" t="s">
         <v>46</v>
@@ -7036,47 +7060,89 @@
       <c r="I259" s="270"/>
       <c r="J259" s="270"/>
     </row>
-    <row r="260" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A260" s="293" t="s">
+    <row r="260" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A260" s="297" t="s">
         <v>329</v>
       </c>
-      <c r="B260" s="293" t="s">
+      <c r="B260" s="297" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A261" s="294"/>
-      <c r="B261" s="294" t="s">
+      <c r="D260" s="275"/>
+      <c r="F260" s="313"/>
+      <c r="G260" s="313"/>
+      <c r="H260" s="313"/>
+      <c r="I260" s="313"/>
+      <c r="J260" s="313"/>
+      <c r="K260" s="314"/>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B261" s="87" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A262" s="294"/>
-      <c r="B262" s="294" t="s">
+      <c r="C261" s="270"/>
+      <c r="D261" s="275"/>
+      <c r="E261" s="270"/>
+      <c r="F261" s="270"/>
+      <c r="G261" s="270"/>
+      <c r="H261" s="270"/>
+      <c r="I261" s="270"/>
+      <c r="J261" s="270"/>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B262" s="87" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A263" s="294"/>
-      <c r="B263" s="294" t="s">
+      <c r="C262" s="270"/>
+      <c r="D262" s="275"/>
+      <c r="E262" s="270"/>
+      <c r="F262" s="270"/>
+      <c r="G262" s="270"/>
+      <c r="H262" s="270"/>
+      <c r="I262" s="270"/>
+      <c r="J262" s="270"/>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B263" s="87" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A264" s="294"/>
-      <c r="B264" s="294" t="s">
+      <c r="C263" s="270"/>
+      <c r="D263" s="275"/>
+      <c r="E263" s="270"/>
+      <c r="F263" s="270"/>
+      <c r="G263" s="270"/>
+      <c r="H263" s="270"/>
+      <c r="I263" s="270"/>
+      <c r="J263" s="270"/>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B264" s="87" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A265" s="294"/>
-      <c r="B265" s="294" t="s">
+      <c r="C264" s="270"/>
+      <c r="D264" s="275"/>
+      <c r="E264" s="270"/>
+      <c r="F264" s="270"/>
+      <c r="G264" s="270"/>
+      <c r="H264" s="270"/>
+      <c r="I264" s="270"/>
+      <c r="J264" s="270"/>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B265" s="87" t="s">
         <v>29</v>
       </c>
+      <c r="C265" s="270"/>
+      <c r="D265" s="275"/>
+      <c r="E265" s="270"/>
+      <c r="F265" s="270"/>
+      <c r="G265" s="270"/>
+      <c r="H265" s="270"/>
+      <c r="I265" s="270"/>
+      <c r="J265" s="270"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="17" scale="81" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="17" scale="81" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8040,11 +8106,11 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="307"/>
-      <c r="G3" s="308"/>
-      <c r="H3" s="308"/>
-      <c r="I3" s="308"/>
-      <c r="J3" s="309"/>
+      <c r="F3" s="309"/>
+      <c r="G3" s="310"/>
+      <c r="H3" s="310"/>
+      <c r="I3" s="310"/>
+      <c r="J3" s="311"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="87" t="s">
@@ -8283,8 +8349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8326,7 +8392,7 @@
       <c r="C2" s="107" t="s">
         <v>128</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" s="237"/>
     </row>
     <row r="3" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
@@ -8717,7 +8783,7 @@
       <c r="C31" s="116" t="s">
         <v>150</v>
       </c>
-      <c r="D31"/>
+      <c r="D31" s="237"/>
     </row>
     <row r="32" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="118" t="s">
@@ -8950,8 +9016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8959,7 +9025,7 @@
     <col min="1" max="1" width="9.140625" style="240" customWidth="1"/>
     <col min="2" max="2" width="40.5703125" style="138" customWidth="1"/>
     <col min="3" max="3" width="40.5703125" style="240" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="240" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="239" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="240" customWidth="1"/>
     <col min="6" max="9" width="15.5703125" style="240" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" style="240" customWidth="1"/>
@@ -8977,7 +9043,7 @@
       <c r="C1" s="197" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="197"/>
+      <c r="D1" s="312"/>
       <c r="E1" s="197"/>
       <c r="F1" s="197"/>
       <c r="G1" s="197"/>
@@ -8995,7 +9061,7 @@
       <c r="C2" s="109" t="s">
         <v>170</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" s="238"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="108"/>
@@ -9003,15 +9069,15 @@
       <c r="C3" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" s="238"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="108"/>
       <c r="B4" s="109"/>
-      <c r="C4" s="296" t="s">
+      <c r="C4" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="D4"/>
+      <c r="D4" s="238"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="108"/>
@@ -9019,7 +9085,7 @@
       <c r="C5" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="D5"/>
+      <c r="D5" s="238"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="108"/>
@@ -9027,7 +9093,7 @@
       <c r="C6" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="D6"/>
+      <c r="D6" s="238"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="108"/>
@@ -9035,7 +9101,7 @@
       <c r="C7" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="D7"/>
+      <c r="D7" s="238"/>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="106" t="s">
@@ -9047,7 +9113,7 @@
       <c r="C8" s="107" t="s">
         <v>171</v>
       </c>
-      <c r="D8"/>
+      <c r="D8" s="238"/>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="108" t="s">
@@ -9059,7 +9125,7 @@
       <c r="C9" s="109" t="s">
         <v>172</v>
       </c>
-      <c r="D9"/>
+      <c r="D9" s="238"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="108"/>
@@ -9067,7 +9133,7 @@
       <c r="C10" s="122" t="s">
         <v>110</v>
       </c>
-      <c r="D10"/>
+      <c r="D10" s="238"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="108"/>
@@ -9075,7 +9141,7 @@
       <c r="C11" s="122" t="s">
         <v>111</v>
       </c>
-      <c r="D11"/>
+      <c r="D11" s="238"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="108"/>
@@ -9083,7 +9149,7 @@
       <c r="C12" s="122" t="s">
         <v>112</v>
       </c>
-      <c r="D12"/>
+      <c r="D12" s="238"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="108"/>
@@ -9091,7 +9157,7 @@
       <c r="C13" s="122" t="s">
         <v>113</v>
       </c>
-      <c r="D13"/>
+      <c r="D13" s="238"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="108"/>
@@ -9099,7 +9165,7 @@
       <c r="C14" s="203" t="s">
         <v>114</v>
       </c>
-      <c r="D14"/>
+      <c r="D14" s="238"/>
     </row>
     <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="106" t="s">
@@ -9111,7 +9177,7 @@
       <c r="C15" s="107" t="s">
         <v>173</v>
       </c>
-      <c r="D15"/>
+      <c r="D15" s="238"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="108" t="s">
@@ -9123,7 +9189,7 @@
       <c r="C16" s="109" t="s">
         <v>174</v>
       </c>
-      <c r="D16"/>
+      <c r="D16" s="238"/>
     </row>
     <row r="17" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="113" t="s">
@@ -9146,7 +9212,7 @@
       <c r="C18" s="161" t="s">
         <v>338</v>
       </c>
-      <c r="D18" s="276"/>
+      <c r="D18" s="237"/>
     </row>
     <row r="19" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="118" t="s">
@@ -9158,22 +9224,22 @@
       <c r="C19" s="156" t="s">
         <v>353</v>
       </c>
-      <c r="D19" s="276"/>
+      <c r="D19" s="237"/>
     </row>
     <row r="20" spans="1:4" s="289" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="293" t="s">
+      <c r="A20" s="300" t="s">
         <v>327</v>
       </c>
-      <c r="B20" s="293" t="s">
+      <c r="B20" s="300" t="s">
         <v>328</v>
       </c>
-      <c r="C20" s="293" t="s">
+      <c r="C20" s="300" t="s">
         <v>328</v>
       </c>
-      <c r="D20" s="276"/>
+      <c r="D20" s="237"/>
     </row>
     <row r="21" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="302" t="s">
+      <c r="A21" s="296" t="s">
         <v>326</v>
       </c>
       <c r="B21" s="116" t="s">
@@ -9182,46 +9248,51 @@
       <c r="C21" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="D21"/>
+      <c r="D21" s="238"/>
     </row>
     <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="293" t="s">
+      <c r="A22" s="300" t="s">
         <v>329</v>
       </c>
-      <c r="B22" s="293" t="s">
+      <c r="B22" s="300" t="s">
         <v>330</v>
       </c>
-      <c r="C22" s="293" t="s">
+      <c r="C22" s="300" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="289"/>
-      <c r="C23" s="295" t="s">
+      <c r="A23" s="301"/>
+      <c r="B23" s="302"/>
+      <c r="C23" s="303" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="289"/>
-      <c r="C24" s="296" t="s">
+      <c r="A24" s="301"/>
+      <c r="B24" s="302"/>
+      <c r="C24" s="304" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="289"/>
-      <c r="C25" s="295" t="s">
+      <c r="A25" s="301"/>
+      <c r="B25" s="302"/>
+      <c r="C25" s="303" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="289"/>
-      <c r="C26" s="295" t="s">
+      <c r="A26" s="301"/>
+      <c r="B26" s="302"/>
+      <c r="C26" s="303" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="289"/>
-      <c r="C27" s="295" t="s">
+      <c r="A27" s="301"/>
+      <c r="B27" s="302"/>
+      <c r="C27" s="303" t="s">
         <v>29</v>
       </c>
     </row>
@@ -9234,8 +9305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K136"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9857,7 +9928,7 @@
       <c r="C51" s="129" t="s">
         <v>190</v>
       </c>
-      <c r="D51"/>
+      <c r="D51" s="214"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="115"/>
@@ -10689,12 +10760,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC6C39E-D7F2-4BBD-963B-89B3F6A5164F}">
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="G27" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E4" sqref="E4"/>
       <selection pane="topRight" activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10719,11 +10790,11 @@
         <v>127</v>
       </c>
       <c r="D1" s="135"/>
-      <c r="E1" s="303" t="s">
+      <c r="E1" s="305" t="s">
         <v>247</v>
       </c>
-      <c r="F1" s="304"/>
-      <c r="G1" s="304"/>
+      <c r="F1" s="306"/>
+      <c r="G1" s="306"/>
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="109" t="s">
@@ -10945,7 +11016,7 @@
       <c r="A25" s="116" t="s">
         <v>188</v>
       </c>
-      <c r="B25" s="298" t="s">
+      <c r="B25" s="292" t="s">
         <v>350</v>
       </c>
       <c r="C25" s="153" t="s">
@@ -10981,7 +11052,7 @@
       <c r="A29" s="119" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="299" t="s">
+      <c r="B29" s="293" t="s">
         <v>352</v>
       </c>
       <c r="C29" s="156" t="s">
@@ -11066,7 +11137,7 @@
       <c r="D37" s="143"/>
     </row>
     <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="297" t="s">
+      <c r="A38" s="118" t="s">
         <v>191</v>
       </c>
       <c r="B38" s="157"/>
@@ -11076,7 +11147,7 @@
       <c r="D38" s="150"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="297"/>
+      <c r="A39" s="118"/>
       <c r="B39" s="157" t="s">
         <v>251</v>
       </c>
@@ -11086,7 +11157,7 @@
       <c r="D39" s="143"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="297"/>
+      <c r="A40" s="118"/>
       <c r="B40" s="157" t="s">
         <v>251</v>
       </c>
@@ -11096,7 +11167,7 @@
       <c r="D40" s="143"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="297"/>
+      <c r="A41" s="118"/>
       <c r="B41" s="157" t="s">
         <v>251</v>
       </c>
@@ -11609,12 +11680,12 @@
       <c r="C2" s="109" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="305" t="s">
+      <c r="D2" s="307" t="s">
         <v>246</v>
       </c>
-      <c r="E2" s="306"/>
-      <c r="F2" s="306"/>
-      <c r="G2" s="306"/>
+      <c r="E2" s="308"/>
+      <c r="F2" s="308"/>
+      <c r="G2" s="308"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="106" t="s">
@@ -12101,7 +12172,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="297" t="s">
+      <c r="A65" s="291" t="s">
         <v>191</v>
       </c>
       <c r="B65" s="120"/>
@@ -12110,7 +12181,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="297"/>
+      <c r="A66" s="291"/>
       <c r="B66" s="120" t="s">
         <v>193</v>
       </c>
@@ -12119,7 +12190,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="297"/>
+      <c r="A67" s="291"/>
       <c r="B67" s="120" t="s">
         <v>194</v>
       </c>
@@ -12128,7 +12199,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="297"/>
+      <c r="A68" s="291"/>
       <c r="B68" s="120" t="s">
         <v>195</v>
       </c>
@@ -12137,7 +12208,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="297"/>
+      <c r="A69" s="291"/>
       <c r="B69" s="120" t="s">
         <v>196</v>
       </c>
@@ -12146,7 +12217,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="297"/>
+      <c r="A70" s="291"/>
       <c r="B70" s="120" t="s">
         <v>197</v>
       </c>
@@ -12155,7 +12226,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="297"/>
+      <c r="A71" s="291"/>
       <c r="B71" s="120" t="s">
         <v>198</v>
       </c>

--- a/resources/fed_rtp_20/templates/Scenario SDF Performance Measures_template.xlsx
+++ b/resources/fed_rtp_20/templates/Scenario SDF Performance Measures_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\TEMP\gks\abm_2_reporting\resources\fed_rtp_20\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsc\PycharmProjects\ABM-Reporting\resources\fed_rtp_20\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C6FC23-3D79-4F00-813F-E0DB00176B70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB665F6-8B63-4DBF-9F95-28286A3CC635}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23265" windowHeight="9180" tabRatio="969" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23265" windowHeight="9180" tabRatio="969" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -2795,6 +2795,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="10" fillId="21" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2808,11 +2813,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="21" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="60% - Accent3" xfId="2" builtinId="40"/>
@@ -3192,8 +3192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K265"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C252" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C234" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="G265" sqref="G265"/>
@@ -7068,12 +7068,12 @@
         <v>330</v>
       </c>
       <c r="D260" s="275"/>
-      <c r="F260" s="313"/>
-      <c r="G260" s="313"/>
-      <c r="H260" s="313"/>
-      <c r="I260" s="313"/>
-      <c r="J260" s="313"/>
-      <c r="K260" s="314"/>
+      <c r="F260" s="306"/>
+      <c r="G260" s="306"/>
+      <c r="H260" s="306"/>
+      <c r="I260" s="306"/>
+      <c r="J260" s="306"/>
+      <c r="K260" s="307"/>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B261" s="87" t="s">
@@ -8106,11 +8106,11 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="309"/>
-      <c r="G3" s="310"/>
-      <c r="H3" s="310"/>
-      <c r="I3" s="310"/>
-      <c r="J3" s="311"/>
+      <c r="F3" s="312"/>
+      <c r="G3" s="313"/>
+      <c r="H3" s="313"/>
+      <c r="I3" s="313"/>
+      <c r="J3" s="314"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="87" t="s">
@@ -8349,8 +8349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8404,7 +8404,10 @@
       <c r="C3" s="109" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="276"/>
+      <c r="D3" s="237">
+        <f>SUM(D4:D6)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="108"/>
@@ -8458,7 +8461,10 @@
       <c r="C7" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="237"/>
+      <c r="D7" s="237">
+        <f>SUM(D8:D10)</f>
+        <v>0</v>
+      </c>
       <c r="E7" s="237"/>
       <c r="F7" s="237"/>
       <c r="G7" s="237"/>
@@ -8518,7 +8524,10 @@
       <c r="C11" s="109" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="237"/>
+      <c r="D11" s="237">
+        <f>SUM(D12:D14)</f>
+        <v>0</v>
+      </c>
       <c r="E11" s="237"/>
       <c r="F11" s="237"/>
       <c r="G11" s="237"/>
@@ -8578,7 +8587,10 @@
       <c r="C15" s="107" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="239"/>
+      <c r="D15" s="237">
+        <f>SUM(D16:D18)</f>
+        <v>0</v>
+      </c>
       <c r="E15" s="239"/>
       <c r="F15" s="239"/>
       <c r="G15" s="239"/>
@@ -9043,7 +9055,7 @@
       <c r="C1" s="197" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="312"/>
+      <c r="D1" s="305"/>
       <c r="E1" s="197"/>
       <c r="F1" s="197"/>
       <c r="G1" s="197"/>
@@ -9305,8 +9317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K136"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10790,11 +10802,11 @@
         <v>127</v>
       </c>
       <c r="D1" s="135"/>
-      <c r="E1" s="305" t="s">
+      <c r="E1" s="308" t="s">
         <v>247</v>
       </c>
-      <c r="F1" s="306"/>
-      <c r="G1" s="306"/>
+      <c r="F1" s="309"/>
+      <c r="G1" s="309"/>
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="109" t="s">
@@ -11680,12 +11692,12 @@
       <c r="C2" s="109" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="307" t="s">
+      <c r="D2" s="310" t="s">
         <v>246</v>
       </c>
-      <c r="E2" s="308"/>
-      <c r="F2" s="308"/>
-      <c r="G2" s="308"/>
+      <c r="E2" s="311"/>
+      <c r="F2" s="311"/>
+      <c r="G2" s="311"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="106" t="s">

--- a/resources/fed_rtp_20/templates/Scenario SDF Performance Measures_template.xlsx
+++ b/resources/fed_rtp_20/templates/Scenario SDF Performance Measures_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\RTP\2020RP_Fed\draft\analysis\ABM-Reporting\resources\fed_rtp_20\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsc\PycharmProjects\ABM-Reporting\resources\fed_rtp_20\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E7D66E-189C-428C-AFA0-629D4A16D52A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DE9967-0F38-406D-9495-26763E9525D5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7065" tabRatio="971" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="971" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -237,7 +238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="336">
   <si>
     <t>PM ID</t>
   </si>
@@ -1253,6 +1254,9 @@
   </si>
   <si>
     <t>Percentage of populdation within 0.25 miles of a bike facility (class 1 and II, cycletrack, and bicycle boulevard)</t>
+  </si>
+  <si>
+    <t>Total CoC Pop</t>
   </si>
 </sst>
 </file>
@@ -2804,6 +2808,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2811,9 +2818,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="62">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -3241,13 +3245,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q268"/>
+  <dimension ref="A1:Q269"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q238" sqref="Q238"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3364,26 +3368,26 @@
       <c r="I7" s="161"/>
       <c r="J7" s="161"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="182" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="57"/>
       <c r="B8" s="39" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
       <c r="C8" s="156"/>
       <c r="D8" s="161"/>
       <c r="E8" s="161"/>
-      <c r="F8" s="161"/>
+      <c r="F8" s="157"/>
       <c r="G8" s="161"/>
-      <c r="H8" s="161"/>
+      <c r="H8" s="157"/>
       <c r="I8" s="161"/>
       <c r="J8" s="161"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="57"/>
       <c r="B9" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="157"/>
+        <v>8</v>
+      </c>
+      <c r="C9" s="156"/>
       <c r="D9" s="161"/>
       <c r="E9" s="161"/>
       <c r="F9" s="161"/>
@@ -3393,101 +3397,101 @@
       <c r="J9" s="161"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="57"/>
+      <c r="B10" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="157"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="161"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B11" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="158"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-    </row>
-    <row r="11" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="174"/>
-      <c r="E11" s="174"/>
-      <c r="F11" s="174"/>
-      <c r="G11" s="174"/>
-      <c r="H11" s="174"/>
-      <c r="I11" s="174"/>
-      <c r="J11" s="174"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="158"/>
     </row>
     <row r="12" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="161"/>
-      <c r="D12" s="162"/>
-      <c r="E12" s="162"/>
-      <c r="F12" s="162"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="162"/>
+        <v>12</v>
+      </c>
+      <c r="C12" s="81"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
       <c r="I12" s="174"/>
       <c r="J12" s="174"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
+    <row r="13" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="57" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="161"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="174"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="175"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="175"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="176"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="163"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="177"/>
-      <c r="F14" s="177"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="177"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="175"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="175"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="176"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="57"/>
       <c r="B15" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
+        <v>15</v>
+      </c>
+      <c r="C15" s="163"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="177"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="57"/>
       <c r="B16" s="39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="41"/>
       <c r="D16" s="178"/>
@@ -3501,81 +3505,81 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="57"/>
       <c r="B17" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="164"/>
-      <c r="D17" s="164"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="164"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="164"/>
+        <v>17</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="57"/>
       <c r="B18" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="164"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="164"/>
+      <c r="I18" s="164"/>
+      <c r="J18" s="164"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="57"/>
+      <c r="B19" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="183"/>
-      <c r="D18" s="184"/>
-      <c r="E18" s="184"/>
-      <c r="F18" s="184"/>
-      <c r="G18" s="184"/>
-      <c r="H18" s="184"/>
-      <c r="I18" s="231"/>
-      <c r="J18" s="231"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="66" t="s">
+      <c r="C19" s="183"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="231"/>
+      <c r="J19" s="231"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="185"/>
-      <c r="D19" s="185"/>
-      <c r="E19" s="185"/>
-      <c r="F19" s="185"/>
-      <c r="G19" s="185"/>
-      <c r="H19" s="185"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-    </row>
-    <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="C20" s="185"/>
+      <c r="D20" s="185"/>
+      <c r="E20" s="185"/>
+      <c r="F20" s="185"/>
+      <c r="G20" s="185"/>
+      <c r="H20" s="185"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B21" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="186"/>
-      <c r="D20" s="186"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="186"/>
-      <c r="J20" s="186"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="187"/>
-      <c r="D21" s="187"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
-      <c r="H21" s="187"/>
-      <c r="I21" s="187"/>
-      <c r="J21" s="187"/>
+      <c r="C21" s="186"/>
+      <c r="D21" s="186"/>
+      <c r="E21" s="186"/>
+      <c r="F21" s="186"/>
+      <c r="G21" s="186"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="186"/>
+      <c r="J21" s="186"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="33"/>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="187"/>
       <c r="D22" s="187"/>
@@ -3589,7 +3593,7 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="33"/>
       <c r="B23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="187"/>
       <c r="D23" s="187"/>
@@ -3603,7 +3607,7 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="33"/>
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="187"/>
       <c r="D24" s="187"/>
@@ -3617,7 +3621,7 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="33"/>
       <c r="B25" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="187"/>
       <c r="D25" s="187"/>
@@ -3629,67 +3633,67 @@
       <c r="J25" s="187"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="58" t="s">
+      <c r="A26" s="33"/>
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="187"/>
+      <c r="D26" s="187"/>
+      <c r="E26" s="187"/>
+      <c r="F26" s="187"/>
+      <c r="G26" s="187"/>
+      <c r="H26" s="187"/>
+      <c r="I26" s="187"/>
+      <c r="J26" s="187"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="36"/>
+      <c r="B27" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="188"/>
-      <c r="D26" s="188"/>
-      <c r="E26" s="188"/>
-      <c r="F26" s="188"/>
-      <c r="G26" s="188"/>
-      <c r="H26" s="188"/>
-      <c r="I26" s="188"/>
-      <c r="J26" s="188"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="189"/>
-      <c r="D27" s="189"/>
-      <c r="E27" s="189"/>
+      <c r="C27" s="188"/>
+      <c r="D27" s="188"/>
+      <c r="E27" s="188"/>
       <c r="F27" s="188"/>
       <c r="G27" s="188"/>
-      <c r="H27" s="189"/>
-      <c r="I27" s="189"/>
-      <c r="J27" s="189"/>
-    </row>
-    <row r="28" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="H27" s="188"/>
+      <c r="I27" s="188"/>
+      <c r="J27" s="188"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="189"/>
+      <c r="D28" s="189"/>
+      <c r="E28" s="189"/>
+      <c r="F28" s="188"/>
+      <c r="G28" s="188"/>
+      <c r="H28" s="189"/>
+      <c r="I28" s="189"/>
+      <c r="J28" s="189"/>
+    </row>
+    <row r="29" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="86" t="s">
+      <c r="B29" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="186"/>
-      <c r="D28" s="186"/>
-      <c r="E28" s="186"/>
-      <c r="F28" s="186"/>
-      <c r="G28" s="186"/>
-      <c r="H28" s="186"/>
-      <c r="I28" s="186"/>
-      <c r="J28" s="186"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="187"/>
-      <c r="D29" s="187"/>
-      <c r="E29" s="187"/>
-      <c r="F29" s="187"/>
-      <c r="G29" s="187"/>
-      <c r="H29" s="187"/>
-      <c r="I29" s="187"/>
-      <c r="J29" s="187"/>
+      <c r="C29" s="186"/>
+      <c r="D29" s="186"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="186"/>
+      <c r="G29" s="186"/>
+      <c r="H29" s="186"/>
+      <c r="I29" s="186"/>
+      <c r="J29" s="186"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="33"/>
       <c r="B30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="187"/>
       <c r="D30" s="187"/>
@@ -3703,7 +3707,7 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="33"/>
       <c r="B31" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="187"/>
       <c r="D31" s="187"/>
@@ -3717,7 +3721,7 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
       <c r="B32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="187"/>
       <c r="D32" s="187"/>
@@ -3731,7 +3735,7 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="33"/>
       <c r="B33" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="187"/>
       <c r="D33" s="187"/>
@@ -3743,9 +3747,9 @@
       <c r="J33" s="187"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
-      <c r="B34" s="58" t="s">
-        <v>29</v>
+      <c r="A34" s="33"/>
+      <c r="B34" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C34" s="187"/>
       <c r="D34" s="187"/>
@@ -3753,57 +3757,57 @@
       <c r="F34" s="187"/>
       <c r="G34" s="187"/>
       <c r="H34" s="187"/>
-      <c r="I34" s="188"/>
-      <c r="J34" s="188"/>
+      <c r="I34" s="187"/>
+      <c r="J34" s="187"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="66"/>
-      <c r="B35" s="31" t="s">
+      <c r="A35" s="36"/>
+      <c r="B35" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="187"/>
+      <c r="D35" s="187"/>
+      <c r="E35" s="187"/>
+      <c r="F35" s="187"/>
+      <c r="G35" s="187"/>
+      <c r="H35" s="187"/>
+      <c r="I35" s="188"/>
+      <c r="J35" s="188"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="66"/>
+      <c r="B36" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="190"/>
-      <c r="D35" s="191"/>
-      <c r="E35" s="191"/>
-      <c r="F35" s="190"/>
-      <c r="G35" s="192"/>
-      <c r="H35" s="190"/>
-      <c r="I35" s="190"/>
-      <c r="J35" s="190"/>
-    </row>
-    <row r="36" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="C36" s="190"/>
+      <c r="D36" s="191"/>
+      <c r="E36" s="191"/>
+      <c r="F36" s="190"/>
+      <c r="G36" s="192"/>
+      <c r="H36" s="190"/>
+      <c r="I36" s="190"/>
+      <c r="J36" s="190"/>
+    </row>
+    <row r="37" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="86" t="s">
+      <c r="B37" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="186"/>
-      <c r="D36" s="186"/>
-      <c r="E36" s="186"/>
-      <c r="F36" s="186"/>
-      <c r="G36" s="186"/>
-      <c r="H36" s="186"/>
-      <c r="I36" s="186"/>
-      <c r="J36" s="186"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="187"/>
-      <c r="D37" s="187"/>
-      <c r="E37" s="187"/>
-      <c r="F37" s="187"/>
-      <c r="G37" s="187"/>
-      <c r="H37" s="187"/>
-      <c r="I37" s="187"/>
-      <c r="J37" s="187"/>
+      <c r="C37" s="186"/>
+      <c r="D37" s="186"/>
+      <c r="E37" s="186"/>
+      <c r="F37" s="186"/>
+      <c r="G37" s="186"/>
+      <c r="H37" s="186"/>
+      <c r="I37" s="186"/>
+      <c r="J37" s="186"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="33"/>
       <c r="B38" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" s="187"/>
       <c r="D38" s="187"/>
@@ -3817,7 +3821,7 @@
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="33"/>
       <c r="B39" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39" s="187"/>
       <c r="D39" s="187"/>
@@ -3831,7 +3835,7 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="33"/>
       <c r="B40" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40" s="187"/>
       <c r="D40" s="187"/>
@@ -3845,7 +3849,7 @@
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="33"/>
       <c r="B41" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" s="187"/>
       <c r="D41" s="187"/>
@@ -3857,67 +3861,67 @@
       <c r="J41" s="187"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
-      <c r="B42" s="58" t="s">
+      <c r="A42" s="33"/>
+      <c r="B42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="187"/>
+      <c r="D42" s="187"/>
+      <c r="E42" s="187"/>
+      <c r="F42" s="187"/>
+      <c r="G42" s="187"/>
+      <c r="H42" s="187"/>
+      <c r="I42" s="187"/>
+      <c r="J42" s="187"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="36"/>
+      <c r="B43" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="188"/>
-      <c r="D42" s="188"/>
-      <c r="E42" s="188"/>
-      <c r="F42" s="188"/>
-      <c r="G42" s="188"/>
-      <c r="H42" s="188"/>
-      <c r="I42" s="188"/>
-      <c r="J42" s="188"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="31" t="s">
+      <c r="C43" s="188"/>
+      <c r="D43" s="188"/>
+      <c r="E43" s="188"/>
+      <c r="F43" s="188"/>
+      <c r="G43" s="188"/>
+      <c r="H43" s="188"/>
+      <c r="I43" s="188"/>
+      <c r="J43" s="188"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="B44" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="189"/>
-      <c r="D43" s="189"/>
-      <c r="E43" s="189"/>
-      <c r="F43" s="189"/>
-      <c r="G43" s="189"/>
-      <c r="H43" s="189"/>
-      <c r="I43" s="189"/>
-      <c r="J43" s="189"/>
-    </row>
-    <row r="44" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+      <c r="C44" s="189"/>
+      <c r="D44" s="189"/>
+      <c r="E44" s="189"/>
+      <c r="F44" s="189"/>
+      <c r="G44" s="189"/>
+      <c r="H44" s="189"/>
+      <c r="I44" s="189"/>
+      <c r="J44" s="189"/>
+    </row>
+    <row r="45" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="86" t="s">
+      <c r="B45" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="186"/>
-      <c r="D44" s="186"/>
-      <c r="E44" s="186"/>
-      <c r="F44" s="186"/>
-      <c r="G44" s="186"/>
-      <c r="H44" s="186"/>
-      <c r="I44" s="186"/>
-      <c r="J44" s="186"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
-      <c r="B45" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="187"/>
-      <c r="D45" s="187"/>
-      <c r="E45" s="187"/>
-      <c r="F45" s="187"/>
-      <c r="G45" s="187"/>
-      <c r="H45" s="187"/>
-      <c r="I45" s="187"/>
-      <c r="J45" s="187"/>
+      <c r="C45" s="186"/>
+      <c r="D45" s="186"/>
+      <c r="E45" s="186"/>
+      <c r="F45" s="186"/>
+      <c r="G45" s="186"/>
+      <c r="H45" s="186"/>
+      <c r="I45" s="186"/>
+      <c r="J45" s="186"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="33"/>
       <c r="B46" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C46" s="187"/>
       <c r="D46" s="187"/>
@@ -3931,7 +3935,7 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="33"/>
       <c r="B47" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C47" s="187"/>
       <c r="D47" s="187"/>
@@ -3945,7 +3949,7 @@
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="33"/>
       <c r="B48" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C48" s="187"/>
       <c r="D48" s="187"/>
@@ -3959,7 +3963,7 @@
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="33"/>
       <c r="B49" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C49" s="187"/>
       <c r="D49" s="187"/>
@@ -3973,7 +3977,7 @@
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="33"/>
       <c r="B50" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50" s="187"/>
       <c r="D50" s="187"/>
@@ -3981,45 +3985,43 @@
       <c r="F50" s="187"/>
       <c r="G50" s="187"/>
       <c r="H50" s="187"/>
-      <c r="I50" s="188"/>
-      <c r="J50" s="188"/>
+      <c r="I50" s="187"/>
+      <c r="J50" s="187"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="31" t="s">
+      <c r="A51" s="33"/>
+      <c r="B51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="187"/>
+      <c r="D51" s="187"/>
+      <c r="E51" s="187"/>
+      <c r="F51" s="187"/>
+      <c r="G51" s="187"/>
+      <c r="H51" s="187"/>
+      <c r="I51" s="188"/>
+      <c r="J51" s="188"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="25"/>
+      <c r="B52" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="190"/>
-      <c r="D51" s="190"/>
-      <c r="E51" s="190"/>
-      <c r="F51" s="190"/>
-      <c r="G51" s="190"/>
-      <c r="H51" s="190"/>
-      <c r="I51" s="190"/>
-      <c r="J51" s="190"/>
-    </row>
-    <row r="52" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="C52" s="190"/>
+      <c r="D52" s="190"/>
+      <c r="E52" s="190"/>
+      <c r="F52" s="190"/>
+      <c r="G52" s="190"/>
+      <c r="H52" s="190"/>
+      <c r="I52" s="190"/>
+      <c r="J52" s="190"/>
+    </row>
+    <row r="53" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B53" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="C52" s="232"/>
-      <c r="D52" s="233"/>
-      <c r="E52" s="233"/>
-      <c r="F52" s="233"/>
-      <c r="G52" s="233"/>
-      <c r="H52" s="233"/>
-      <c r="I52" s="233"/>
-      <c r="J52" s="233"/>
-    </row>
-    <row r="53" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B53" s="67" t="s">
-        <v>36</v>
       </c>
       <c r="C53" s="232"/>
       <c r="D53" s="233"/>
@@ -4031,27 +4033,27 @@
       <c r="J53" s="233"/>
     </row>
     <row r="54" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="215" t="s">
-        <v>37</v>
-      </c>
-      <c r="B54" s="211" t="s">
-        <v>38</v>
+      <c r="A54" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="67" t="s">
+        <v>36</v>
       </c>
       <c r="C54" s="232"/>
-      <c r="D54" s="241"/>
-      <c r="E54" s="241"/>
-      <c r="F54" s="241"/>
-      <c r="G54" s="241"/>
-      <c r="H54" s="241"/>
-      <c r="I54" s="241"/>
-      <c r="J54" s="241"/>
+      <c r="D54" s="233"/>
+      <c r="E54" s="233"/>
+      <c r="F54" s="233"/>
+      <c r="G54" s="233"/>
+      <c r="H54" s="233"/>
+      <c r="I54" s="233"/>
+      <c r="J54" s="233"/>
     </row>
     <row r="55" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="215" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B55" s="211" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C55" s="232"/>
       <c r="D55" s="241"/>
@@ -4062,42 +4064,44 @@
       <c r="I55" s="241"/>
       <c r="J55" s="241"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
+    <row r="56" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="215" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="211" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="232"/>
+      <c r="D56" s="241"/>
+      <c r="E56" s="241"/>
+      <c r="F56" s="241"/>
+      <c r="G56" s="241"/>
+      <c r="H56" s="241"/>
+      <c r="I56" s="241"/>
+      <c r="J56" s="241"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B56" s="77" t="s">
+      <c r="B57" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C56" s="29"/>
-      <c r="D56" s="170"/>
-      <c r="E56" s="170"/>
-      <c r="F56" s="170"/>
-      <c r="G56" s="170"/>
-      <c r="H56" s="170"/>
-      <c r="I56" s="170"/>
-      <c r="J56" s="171"/>
-    </row>
-    <row r="57" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
+      <c r="C57" s="29"/>
+      <c r="D57" s="170"/>
+      <c r="E57" s="170"/>
+      <c r="F57" s="170"/>
+      <c r="G57" s="170"/>
+      <c r="H57" s="170"/>
+      <c r="I57" s="170"/>
+      <c r="J57" s="171"/>
+    </row>
+    <row r="58" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B58" s="28" t="s">
         <v>44</v>
-      </c>
-      <c r="C57" s="234"/>
-      <c r="D57" s="242"/>
-      <c r="E57" s="242"/>
-      <c r="F57" s="242"/>
-      <c r="G57" s="242"/>
-      <c r="H57" s="242"/>
-      <c r="I57" s="242"/>
-      <c r="J57" s="242"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="39" t="s">
-        <v>45</v>
       </c>
       <c r="C58" s="234"/>
       <c r="D58" s="242"/>
@@ -4109,9 +4113,9 @@
       <c r="J58" s="242"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
-      <c r="B59" s="71" t="s">
-        <v>46</v>
+      <c r="A59" s="11"/>
+      <c r="B59" s="39" t="s">
+        <v>45</v>
       </c>
       <c r="C59" s="234"/>
       <c r="D59" s="242"/>
@@ -4125,7 +4129,7 @@
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C60" s="234"/>
       <c r="D60" s="242"/>
@@ -4139,7 +4143,7 @@
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="21"/>
       <c r="B61" s="71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C61" s="234"/>
       <c r="D61" s="242"/>
@@ -4153,7 +4157,7 @@
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="21"/>
       <c r="B62" s="71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C62" s="234"/>
       <c r="D62" s="242"/>
@@ -4167,7 +4171,7 @@
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="21"/>
       <c r="B63" s="71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C63" s="234"/>
       <c r="D63" s="242"/>
@@ -4178,12 +4182,10 @@
       <c r="I63" s="242"/>
       <c r="J63" s="242"/>
     </row>
-    <row r="64" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B64" s="37" t="s">
-        <v>51</v>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="21"/>
+      <c r="B64" s="71" t="s">
+        <v>50</v>
       </c>
       <c r="C64" s="234"/>
       <c r="D64" s="242"/>
@@ -4194,12 +4196,12 @@
       <c r="I64" s="242"/>
       <c r="J64" s="242"/>
     </row>
-    <row r="65" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B65" s="28" t="s">
-        <v>53</v>
+        <v>43</v>
+      </c>
+      <c r="B65" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="C65" s="234"/>
       <c r="D65" s="242"/>
@@ -4210,10 +4212,12 @@
       <c r="I65" s="242"/>
       <c r="J65" s="242"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
-      <c r="B66" s="71" t="s">
-        <v>45</v>
+    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="C66" s="234"/>
       <c r="D66" s="242"/>
@@ -4227,7 +4231,7 @@
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="21"/>
       <c r="B67" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C67" s="234"/>
       <c r="D67" s="242"/>
@@ -4241,7 +4245,7 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="21"/>
       <c r="B68" s="71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C68" s="234"/>
       <c r="D68" s="242"/>
@@ -4255,7 +4259,7 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="21"/>
       <c r="B69" s="71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C69" s="234"/>
       <c r="D69" s="242"/>
@@ -4269,7 +4273,7 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="21"/>
       <c r="B70" s="71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C70" s="234"/>
       <c r="D70" s="242"/>
@@ -4283,7 +4287,7 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="21"/>
       <c r="B71" s="71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C71" s="234"/>
       <c r="D71" s="242"/>
@@ -4294,12 +4298,10 @@
       <c r="I71" s="242"/>
       <c r="J71" s="242"/>
     </row>
-    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B72" s="28" t="s">
-        <v>54</v>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="21"/>
+      <c r="B72" s="71" t="s">
+        <v>50</v>
       </c>
       <c r="C72" s="234"/>
       <c r="D72" s="242"/>
@@ -4310,40 +4312,42 @@
       <c r="I72" s="242"/>
       <c r="J72" s="242"/>
     </row>
-    <row r="73" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" s="234"/>
+      <c r="D73" s="242"/>
+      <c r="E73" s="242"/>
+      <c r="F73" s="242"/>
+      <c r="G73" s="242"/>
+      <c r="H73" s="242"/>
+      <c r="I73" s="242"/>
+      <c r="J73" s="242"/>
+    </row>
+    <row r="74" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B73" s="67" t="s">
+      <c r="B74" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="172"/>
-      <c r="E73" s="172"/>
-      <c r="F73" s="172"/>
-      <c r="G73" s="172"/>
-      <c r="H73" s="172"/>
-      <c r="I73" s="172"/>
-      <c r="J73" s="172"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="84"/>
-      <c r="B74" s="71" t="s">
-        <v>45</v>
-      </c>
       <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
+      <c r="D74" s="172"/>
+      <c r="E74" s="172"/>
+      <c r="F74" s="172"/>
+      <c r="G74" s="172"/>
+      <c r="H74" s="172"/>
+      <c r="I74" s="172"/>
+      <c r="J74" s="172"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="84"/>
       <c r="B75" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -4357,7 +4361,7 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="84"/>
       <c r="B76" s="71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -4371,7 +4375,7 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="84"/>
       <c r="B77" s="71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -4385,7 +4389,7 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="84"/>
       <c r="B78" s="71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -4397,9 +4401,9 @@
       <c r="J78" s="5"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="18"/>
+      <c r="A79" s="84"/>
       <c r="B79" s="71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -4410,161 +4414,160 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="18"/>
+      <c r="B80" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B80" s="63" t="s">
+      <c r="B81" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="C80" s="65"/>
-      <c r="D80" s="235"/>
-      <c r="E80" s="235"/>
-      <c r="F80" s="235"/>
-      <c r="G80" s="235"/>
-      <c r="H80" s="235"/>
-      <c r="I80" s="235"/>
-      <c r="J80" s="235"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="C81" s="80"/>
-      <c r="D81" s="257" t="e">
-        <f>summary_emfac2014!B7*2000/D267</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E81" s="257" t="e">
-        <f>summary_emfac2014!C7*2000/E267</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F81" s="257" t="e">
-        <f>summary_emfac2014!D7*2000/F267</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G81" s="257" t="e">
-        <f>summary_emfac2014!E7*2000/G267</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H81" s="257" t="e">
-        <f>summary_emfac2014!F7*2000/H267</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I81" s="257" t="e">
-        <f>summary_emfac2014!G7*2000/I267</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J81" s="257" t="e">
-        <f>summary_emfac2014!H7*2000/J267</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="C81" s="65"/>
+      <c r="D81" s="235"/>
+      <c r="E81" s="235"/>
+      <c r="F81" s="235"/>
+      <c r="G81" s="235"/>
+      <c r="H81" s="235"/>
+      <c r="I81" s="235"/>
+      <c r="J81" s="235"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B82" s="67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C82" s="80"/>
       <c r="D82" s="257" t="e">
-        <f>summary_emfac2014!B8*2000/D267</f>
+        <f>summary_emfac2014!B7*2000/D268</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E82" s="257" t="e">
-        <f>summary_emfac2014!C8*2000/E267</f>
+        <f>summary_emfac2014!C7*2000/E268</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F82" s="257" t="e">
-        <f>summary_emfac2014!D8*2000/F267</f>
+        <f>summary_emfac2014!D7*2000/F268</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G82" s="257" t="e">
-        <f>summary_emfac2014!E8*2000/G267</f>
+        <f>summary_emfac2014!E7*2000/G268</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H82" s="257" t="e">
-        <f>summary_emfac2014!F8*2000/H267</f>
+        <f>summary_emfac2014!F7*2000/H268</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I82" s="257" t="e">
-        <f>summary_emfac2014!G8*2000/I267</f>
+        <f>summary_emfac2014!G7*2000/I268</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J82" s="257" t="e">
-        <f>summary_emfac2014!H8*2000/J267</f>
+        <f>summary_emfac2014!H7*2000/J268</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="26"/>
       <c r="B83" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" s="80"/>
+      <c r="D83" s="257" t="e">
+        <f>summary_emfac2014!B8*2000/D268</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E83" s="257" t="e">
+        <f>summary_emfac2014!C8*2000/E268</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F83" s="257" t="e">
+        <f>summary_emfac2014!D8*2000/F268</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G83" s="257" t="e">
+        <f>summary_emfac2014!E8*2000/G268</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H83" s="257" t="e">
+        <f>summary_emfac2014!F8*2000/H268</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I83" s="257" t="e">
+        <f>summary_emfac2014!G8*2000/I268</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J83" s="257" t="e">
+        <f>summary_emfac2014!H8*2000/J268</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="26"/>
+      <c r="B84" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="C83" s="235"/>
-      <c r="D83" s="257" t="e">
-        <f>summary_emfac2014!B11*2000/D267</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E83" s="257" t="e">
-        <f>summary_emfac2014!C11*2000/E267</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F83" s="257" t="e">
-        <f>summary_emfac2014!D11*2000/F267</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G83" s="257" t="e">
-        <f>summary_emfac2014!E11*2000/G267</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H83" s="257" t="e">
-        <f>summary_emfac2014!F11*2000/H267</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I83" s="257" t="e">
-        <f>summary_emfac2014!G11*2000/I267</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J83" s="257" t="e">
-        <f>summary_emfac2014!H11*2000/J267</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="59" t="s">
+      <c r="C84" s="235"/>
+      <c r="D84" s="257" t="e">
+        <f>summary_emfac2014!B11*2000/D268</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E84" s="257" t="e">
+        <f>summary_emfac2014!C11*2000/E268</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F84" s="257" t="e">
+        <f>summary_emfac2014!D11*2000/F268</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G84" s="257" t="e">
+        <f>summary_emfac2014!E11*2000/G268</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H84" s="257" t="e">
+        <f>summary_emfac2014!F11*2000/H268</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I84" s="257" t="e">
+        <f>summary_emfac2014!G11*2000/I268</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J84" s="257" t="e">
+        <f>summary_emfac2014!H11*2000/J268</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="B84" s="40" t="s">
+      <c r="B85" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C84" s="191"/>
-      <c r="D84" s="191"/>
-      <c r="E84" s="191"/>
-      <c r="F84" s="191"/>
-      <c r="G84" s="191"/>
-      <c r="H84" s="191"/>
-      <c r="I84" s="191"/>
-      <c r="J84" s="191"/>
-      <c r="K84" s="193"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="33"/>
-      <c r="B85" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="C85" s="194"/>
-      <c r="D85" s="195"/>
-      <c r="E85" s="195"/>
-      <c r="F85" s="195"/>
-      <c r="G85" s="195"/>
-      <c r="H85" s="195"/>
-      <c r="I85" s="195"/>
-      <c r="J85" s="195"/>
+      <c r="C85" s="191"/>
+      <c r="D85" s="191"/>
+      <c r="E85" s="191"/>
+      <c r="F85" s="191"/>
+      <c r="G85" s="191"/>
+      <c r="H85" s="191"/>
+      <c r="I85" s="191"/>
+      <c r="J85" s="191"/>
       <c r="K85" s="193"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="33"/>
       <c r="B86" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C86" s="194"/>
       <c r="D86" s="195"/>
@@ -4576,14 +4579,12 @@
       <c r="J86" s="195"/>
       <c r="K86" s="193"/>
     </row>
-    <row r="87" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B87" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="C87" s="196"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="33"/>
+      <c r="B87" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C87" s="194"/>
       <c r="D87" s="195"/>
       <c r="E87" s="195"/>
       <c r="F87" s="195"/>
@@ -4593,10 +4594,12 @@
       <c r="J87" s="195"/>
       <c r="K87" s="193"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="15"/>
-      <c r="B88" s="24" t="s">
-        <v>64</v>
+    <row r="88" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B88" s="54" t="s">
+        <v>66</v>
       </c>
       <c r="C88" s="196"/>
       <c r="D88" s="195"/>
@@ -4611,7 +4614,7 @@
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="15"/>
       <c r="B89" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C89" s="196"/>
       <c r="D89" s="195"/>
@@ -4623,12 +4626,10 @@
       <c r="J89" s="195"/>
       <c r="K89" s="193"/>
     </row>
-    <row r="90" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B90" s="54" t="s">
-        <v>67</v>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="15"/>
+      <c r="B90" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C90" s="196"/>
       <c r="D90" s="195"/>
@@ -4640,10 +4641,12 @@
       <c r="J90" s="195"/>
       <c r="K90" s="193"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="15"/>
-      <c r="B91" s="24" t="s">
-        <v>64</v>
+    <row r="91" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" s="54" t="s">
+        <v>67</v>
       </c>
       <c r="C91" s="196"/>
       <c r="D91" s="195"/>
@@ -4658,7 +4661,7 @@
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="15"/>
       <c r="B92" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C92" s="196"/>
       <c r="D92" s="195"/>
@@ -4670,12 +4673,10 @@
       <c r="J92" s="195"/>
       <c r="K92" s="193"/>
     </row>
-    <row r="93" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B93" s="54" t="s">
-        <v>68</v>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="15"/>
+      <c r="B93" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C93" s="196"/>
       <c r="D93" s="195"/>
@@ -4687,10 +4688,12 @@
       <c r="J93" s="195"/>
       <c r="K93" s="193"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="15"/>
-      <c r="B94" s="24" t="s">
-        <v>64</v>
+    <row r="94" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B94" s="54" t="s">
+        <v>68</v>
       </c>
       <c r="C94" s="196"/>
       <c r="D94" s="195"/>
@@ -4705,7 +4708,7 @@
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="15"/>
       <c r="B95" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C95" s="196"/>
       <c r="D95" s="195"/>
@@ -4717,12 +4720,10 @@
       <c r="J95" s="195"/>
       <c r="K95" s="193"/>
     </row>
-    <row r="96" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B96" s="54" t="s">
-        <v>69</v>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="15"/>
+      <c r="B96" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C96" s="196"/>
       <c r="D96" s="195"/>
@@ -4734,10 +4735,12 @@
       <c r="J96" s="195"/>
       <c r="K96" s="193"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="15"/>
-      <c r="B97" s="24" t="s">
-        <v>64</v>
+    <row r="97" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B97" s="54" t="s">
+        <v>69</v>
       </c>
       <c r="C97" s="196"/>
       <c r="D97" s="195"/>
@@ -4752,7 +4755,7 @@
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="15"/>
       <c r="B98" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C98" s="196"/>
       <c r="D98" s="195"/>
@@ -4764,12 +4767,10 @@
       <c r="J98" s="195"/>
       <c r="K98" s="193"/>
     </row>
-    <row r="99" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B99" s="54" t="s">
-        <v>70</v>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="15"/>
+      <c r="B99" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C99" s="196"/>
       <c r="D99" s="195"/>
@@ -4781,10 +4782,12 @@
       <c r="J99" s="195"/>
       <c r="K99" s="193"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="15"/>
-      <c r="B100" s="24" t="s">
-        <v>64</v>
+    <row r="100" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B100" s="54" t="s">
+        <v>70</v>
       </c>
       <c r="C100" s="196"/>
       <c r="D100" s="195"/>
@@ -4799,7 +4802,7 @@
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="15"/>
       <c r="B101" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C101" s="196"/>
       <c r="D101" s="195"/>
@@ -4811,12 +4814,10 @@
       <c r="J101" s="195"/>
       <c r="K101" s="193"/>
     </row>
-    <row r="102" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B102" s="54" t="s">
-        <v>71</v>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="15"/>
+      <c r="B102" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C102" s="196"/>
       <c r="D102" s="195"/>
@@ -4828,10 +4829,12 @@
       <c r="J102" s="195"/>
       <c r="K102" s="193"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="15"/>
-      <c r="B103" s="24" t="s">
-        <v>64</v>
+    <row r="103" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B103" s="54" t="s">
+        <v>71</v>
       </c>
       <c r="C103" s="196"/>
       <c r="D103" s="195"/>
@@ -4846,7 +4849,7 @@
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="15"/>
       <c r="B104" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C104" s="196"/>
       <c r="D104" s="195"/>
@@ -4859,11 +4862,9 @@
       <c r="K104" s="193"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B105" s="54" t="s">
-        <v>73</v>
+      <c r="A105" s="15"/>
+      <c r="B105" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C105" s="196"/>
       <c r="D105" s="195"/>
@@ -4876,11 +4877,13 @@
       <c r="K105" s="193"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="15"/>
-      <c r="B106" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C106" s="194"/>
+      <c r="A106" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B106" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C106" s="196"/>
       <c r="D106" s="195"/>
       <c r="E106" s="195"/>
       <c r="F106" s="195"/>
@@ -4893,7 +4896,7 @@
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="15"/>
       <c r="B107" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C107" s="194"/>
       <c r="D107" s="195"/>
@@ -4905,14 +4908,12 @@
       <c r="J107" s="195"/>
       <c r="K107" s="193"/>
     </row>
-    <row r="108" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B108" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="C108" s="196"/>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="15"/>
+      <c r="B108" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C108" s="194"/>
       <c r="D108" s="195"/>
       <c r="E108" s="195"/>
       <c r="F108" s="195"/>
@@ -4922,10 +4923,12 @@
       <c r="J108" s="195"/>
       <c r="K108" s="193"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="15"/>
-      <c r="B109" s="24" t="s">
-        <v>64</v>
+    <row r="109" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B109" s="54" t="s">
+        <v>74</v>
       </c>
       <c r="C109" s="196"/>
       <c r="D109" s="195"/>
@@ -4940,7 +4943,7 @@
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="15"/>
       <c r="B110" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C110" s="196"/>
       <c r="D110" s="195"/>
@@ -4952,12 +4955,10 @@
       <c r="J110" s="195"/>
       <c r="K110" s="193"/>
     </row>
-    <row r="111" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B111" s="54" t="s">
-        <v>75</v>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="15"/>
+      <c r="B111" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C111" s="196"/>
       <c r="D111" s="195"/>
@@ -4969,10 +4970,12 @@
       <c r="J111" s="195"/>
       <c r="K111" s="193"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="15"/>
-      <c r="B112" s="24" t="s">
-        <v>64</v>
+    <row r="112" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B112" s="54" t="s">
+        <v>75</v>
       </c>
       <c r="C112" s="196"/>
       <c r="D112" s="195"/>
@@ -4987,7 +4990,7 @@
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
       <c r="B113" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C113" s="196"/>
       <c r="D113" s="195"/>
@@ -4999,12 +5002,10 @@
       <c r="J113" s="195"/>
       <c r="K113" s="193"/>
     </row>
-    <row r="114" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B114" s="54" t="s">
-        <v>76</v>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="15"/>
+      <c r="B114" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C114" s="196"/>
       <c r="D114" s="195"/>
@@ -5016,10 +5017,12 @@
       <c r="J114" s="195"/>
       <c r="K114" s="193"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="15"/>
-      <c r="B115" s="24" t="s">
-        <v>64</v>
+    <row r="115" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B115" s="54" t="s">
+        <v>76</v>
       </c>
       <c r="C115" s="196"/>
       <c r="D115" s="195"/>
@@ -5034,7 +5037,7 @@
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="15"/>
       <c r="B116" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C116" s="196"/>
       <c r="D116" s="195"/>
@@ -5046,12 +5049,10 @@
       <c r="J116" s="195"/>
       <c r="K116" s="193"/>
     </row>
-    <row r="117" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B117" s="54" t="s">
-        <v>77</v>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="15"/>
+      <c r="B117" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C117" s="196"/>
       <c r="D117" s="195"/>
@@ -5063,10 +5064,12 @@
       <c r="J117" s="195"/>
       <c r="K117" s="193"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="15"/>
-      <c r="B118" s="24" t="s">
-        <v>78</v>
+    <row r="118" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B118" s="54" t="s">
+        <v>77</v>
       </c>
       <c r="C118" s="196"/>
       <c r="D118" s="195"/>
@@ -5081,7 +5084,7 @@
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="15"/>
       <c r="B119" s="24" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C119" s="196"/>
       <c r="D119" s="195"/>
@@ -5093,12 +5096,10 @@
       <c r="J119" s="195"/>
       <c r="K119" s="193"/>
     </row>
-    <row r="120" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B120" s="54" t="s">
-        <v>79</v>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="15"/>
+      <c r="B120" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C120" s="196"/>
       <c r="D120" s="195"/>
@@ -5110,10 +5111,12 @@
       <c r="J120" s="195"/>
       <c r="K120" s="193"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="15"/>
-      <c r="B121" s="24" t="s">
-        <v>64</v>
+    <row r="121" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B121" s="54" t="s">
+        <v>79</v>
       </c>
       <c r="C121" s="196"/>
       <c r="D121" s="195"/>
@@ -5128,7 +5131,7 @@
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="15"/>
       <c r="B122" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C122" s="196"/>
       <c r="D122" s="195"/>
@@ -5140,12 +5143,10 @@
       <c r="J122" s="195"/>
       <c r="K122" s="193"/>
     </row>
-    <row r="123" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B123" s="54" t="s">
-        <v>80</v>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="15"/>
+      <c r="B123" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C123" s="196"/>
       <c r="D123" s="195"/>
@@ -5157,10 +5158,12 @@
       <c r="J123" s="195"/>
       <c r="K123" s="193"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="15"/>
-      <c r="B124" s="24" t="s">
-        <v>64</v>
+    <row r="124" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B124" s="54" t="s">
+        <v>80</v>
       </c>
       <c r="C124" s="196"/>
       <c r="D124" s="195"/>
@@ -5175,7 +5178,7 @@
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="15"/>
       <c r="B125" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C125" s="196"/>
       <c r="D125" s="195"/>
@@ -5188,11 +5191,9 @@
       <c r="K125" s="193"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B126" s="54" t="s">
-        <v>81</v>
+      <c r="A126" s="15"/>
+      <c r="B126" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C126" s="196"/>
       <c r="D126" s="195"/>
@@ -5205,11 +5206,13 @@
       <c r="K126" s="193"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="15"/>
-      <c r="B127" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C127" s="194"/>
+      <c r="A127" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B127" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C127" s="196"/>
       <c r="D127" s="195"/>
       <c r="E127" s="195"/>
       <c r="F127" s="195"/>
@@ -5222,7 +5225,7 @@
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="15"/>
       <c r="B128" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C128" s="194"/>
       <c r="D128" s="195"/>
@@ -5234,14 +5237,12 @@
       <c r="J128" s="195"/>
       <c r="K128" s="193"/>
     </row>
-    <row r="129" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B129" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="C129" s="196"/>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="15"/>
+      <c r="B129" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C129" s="194"/>
       <c r="D129" s="195"/>
       <c r="E129" s="195"/>
       <c r="F129" s="195"/>
@@ -5251,10 +5252,12 @@
       <c r="J129" s="195"/>
       <c r="K129" s="193"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="15"/>
-      <c r="B130" s="24" t="s">
-        <v>64</v>
+    <row r="130" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B130" s="54" t="s">
+        <v>82</v>
       </c>
       <c r="C130" s="196"/>
       <c r="D130" s="195"/>
@@ -5269,7 +5272,7 @@
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="15"/>
       <c r="B131" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C131" s="196"/>
       <c r="D131" s="195"/>
@@ -5281,12 +5284,10 @@
       <c r="J131" s="195"/>
       <c r="K131" s="193"/>
     </row>
-    <row r="132" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B132" s="54" t="s">
-        <v>83</v>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="15"/>
+      <c r="B132" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C132" s="196"/>
       <c r="D132" s="195"/>
@@ -5298,10 +5299,12 @@
       <c r="J132" s="195"/>
       <c r="K132" s="193"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="15"/>
-      <c r="B133" s="24" t="s">
-        <v>64</v>
+    <row r="133" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B133" s="54" t="s">
+        <v>83</v>
       </c>
       <c r="C133" s="196"/>
       <c r="D133" s="195"/>
@@ -5316,7 +5319,7 @@
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="15"/>
       <c r="B134" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C134" s="196"/>
       <c r="D134" s="195"/>
@@ -5328,12 +5331,10 @@
       <c r="J134" s="195"/>
       <c r="K134" s="193"/>
     </row>
-    <row r="135" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B135" s="54" t="s">
-        <v>84</v>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="15"/>
+      <c r="B135" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C135" s="196"/>
       <c r="D135" s="195"/>
@@ -5345,10 +5346,12 @@
       <c r="J135" s="195"/>
       <c r="K135" s="193"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="15"/>
-      <c r="B136" s="24" t="s">
-        <v>64</v>
+    <row r="136" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B136" s="54" t="s">
+        <v>84</v>
       </c>
       <c r="C136" s="196"/>
       <c r="D136" s="195"/>
@@ -5363,7 +5366,7 @@
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="15"/>
       <c r="B137" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C137" s="196"/>
       <c r="D137" s="195"/>
@@ -5375,12 +5378,10 @@
       <c r="J137" s="195"/>
       <c r="K137" s="193"/>
     </row>
-    <row r="138" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B138" s="54" t="s">
-        <v>85</v>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="15"/>
+      <c r="B138" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C138" s="196"/>
       <c r="D138" s="195"/>
@@ -5392,10 +5393,12 @@
       <c r="J138" s="195"/>
       <c r="K138" s="193"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="15"/>
-      <c r="B139" s="24" t="s">
-        <v>64</v>
+    <row r="139" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B139" s="54" t="s">
+        <v>85</v>
       </c>
       <c r="C139" s="196"/>
       <c r="D139" s="195"/>
@@ -5410,7 +5413,7 @@
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="15"/>
       <c r="B140" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C140" s="196"/>
       <c r="D140" s="195"/>
@@ -5422,12 +5425,10 @@
       <c r="J140" s="195"/>
       <c r="K140" s="193"/>
     </row>
-    <row r="141" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B141" s="54" t="s">
-        <v>86</v>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="15"/>
+      <c r="B141" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C141" s="196"/>
       <c r="D141" s="195"/>
@@ -5439,10 +5440,12 @@
       <c r="J141" s="195"/>
       <c r="K141" s="193"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="15"/>
-      <c r="B142" s="24" t="s">
-        <v>64</v>
+    <row r="142" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B142" s="54" t="s">
+        <v>86</v>
       </c>
       <c r="C142" s="196"/>
       <c r="D142" s="195"/>
@@ -5457,7 +5460,7 @@
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="15"/>
       <c r="B143" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C143" s="196"/>
       <c r="D143" s="195"/>
@@ -5469,12 +5472,10 @@
       <c r="J143" s="195"/>
       <c r="K143" s="193"/>
     </row>
-    <row r="144" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B144" s="54" t="s">
-        <v>87</v>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="15"/>
+      <c r="B144" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C144" s="196"/>
       <c r="D144" s="195"/>
@@ -5486,10 +5487,12 @@
       <c r="J144" s="195"/>
       <c r="K144" s="193"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="15"/>
-      <c r="B145" s="24" t="s">
-        <v>64</v>
+    <row r="145" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B145" s="54" t="s">
+        <v>87</v>
       </c>
       <c r="C145" s="196"/>
       <c r="D145" s="195"/>
@@ -5504,7 +5507,7 @@
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="15"/>
       <c r="B146" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C146" s="196"/>
       <c r="D146" s="195"/>
@@ -5517,11 +5520,9 @@
       <c r="K146" s="193"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B147" s="54" t="s">
-        <v>88</v>
+      <c r="A147" s="15"/>
+      <c r="B147" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C147" s="196"/>
       <c r="D147" s="195"/>
@@ -5534,11 +5535,13 @@
       <c r="K147" s="193"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="15"/>
-      <c r="B148" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C148" s="194"/>
+      <c r="A148" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B148" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C148" s="196"/>
       <c r="D148" s="195"/>
       <c r="E148" s="195"/>
       <c r="F148" s="195"/>
@@ -5551,7 +5554,7 @@
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="15"/>
       <c r="B149" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C149" s="194"/>
       <c r="D149" s="195"/>
@@ -5563,14 +5566,12 @@
       <c r="J149" s="195"/>
       <c r="K149" s="193"/>
     </row>
-    <row r="150" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B150" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="C150" s="196"/>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="15"/>
+      <c r="B150" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C150" s="194"/>
       <c r="D150" s="195"/>
       <c r="E150" s="195"/>
       <c r="F150" s="195"/>
@@ -5580,10 +5581,12 @@
       <c r="J150" s="195"/>
       <c r="K150" s="193"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="15"/>
-      <c r="B151" s="24" t="s">
-        <v>64</v>
+    <row r="151" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B151" s="54" t="s">
+        <v>89</v>
       </c>
       <c r="C151" s="196"/>
       <c r="D151" s="195"/>
@@ -5598,7 +5601,7 @@
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="15"/>
       <c r="B152" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C152" s="196"/>
       <c r="D152" s="195"/>
@@ -5610,12 +5613,10 @@
       <c r="J152" s="195"/>
       <c r="K152" s="193"/>
     </row>
-    <row r="153" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B153" s="54" t="s">
-        <v>90</v>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="15"/>
+      <c r="B153" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C153" s="196"/>
       <c r="D153" s="195"/>
@@ -5627,10 +5628,12 @@
       <c r="J153" s="195"/>
       <c r="K153" s="193"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="15"/>
-      <c r="B154" s="24" t="s">
-        <v>78</v>
+    <row r="154" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B154" s="54" t="s">
+        <v>90</v>
       </c>
       <c r="C154" s="196"/>
       <c r="D154" s="195"/>
@@ -5645,7 +5648,7 @@
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="15"/>
       <c r="B155" s="24" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C155" s="196"/>
       <c r="D155" s="195"/>
@@ -5657,12 +5660,10 @@
       <c r="J155" s="195"/>
       <c r="K155" s="193"/>
     </row>
-    <row r="156" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B156" s="54" t="s">
-        <v>91</v>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="15"/>
+      <c r="B156" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C156" s="196"/>
       <c r="D156" s="195"/>
@@ -5674,10 +5675,12 @@
       <c r="J156" s="195"/>
       <c r="K156" s="193"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="15"/>
-      <c r="B157" s="24" t="s">
-        <v>64</v>
+    <row r="157" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B157" s="54" t="s">
+        <v>91</v>
       </c>
       <c r="C157" s="196"/>
       <c r="D157" s="195"/>
@@ -5692,7 +5695,7 @@
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="15"/>
       <c r="B158" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C158" s="196"/>
       <c r="D158" s="195"/>
@@ -5704,12 +5707,10 @@
       <c r="J158" s="195"/>
       <c r="K158" s="193"/>
     </row>
-    <row r="159" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B159" s="54" t="s">
-        <v>92</v>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="15"/>
+      <c r="B159" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C159" s="196"/>
       <c r="D159" s="195"/>
@@ -5721,10 +5722,12 @@
       <c r="J159" s="195"/>
       <c r="K159" s="193"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="15"/>
-      <c r="B160" s="24" t="s">
-        <v>64</v>
+    <row r="160" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B160" s="54" t="s">
+        <v>92</v>
       </c>
       <c r="C160" s="196"/>
       <c r="D160" s="195"/>
@@ -5739,7 +5742,7 @@
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="15"/>
       <c r="B161" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C161" s="196"/>
       <c r="D161" s="195"/>
@@ -5751,12 +5754,10 @@
       <c r="J161" s="195"/>
       <c r="K161" s="193"/>
     </row>
-    <row r="162" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B162" s="54" t="s">
-        <v>93</v>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" s="15"/>
+      <c r="B162" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C162" s="196"/>
       <c r="D162" s="195"/>
@@ -5768,10 +5769,12 @@
       <c r="J162" s="195"/>
       <c r="K162" s="193"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="15"/>
-      <c r="B163" s="24" t="s">
-        <v>64</v>
+    <row r="163" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B163" s="54" t="s">
+        <v>93</v>
       </c>
       <c r="C163" s="196"/>
       <c r="D163" s="195"/>
@@ -5786,7 +5789,7 @@
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="15"/>
       <c r="B164" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C164" s="196"/>
       <c r="D164" s="195"/>
@@ -5798,12 +5801,10 @@
       <c r="J164" s="195"/>
       <c r="K164" s="193"/>
     </row>
-    <row r="165" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B165" s="54" t="s">
-        <v>94</v>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="15"/>
+      <c r="B165" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C165" s="196"/>
       <c r="D165" s="195"/>
@@ -5815,10 +5816,12 @@
       <c r="J165" s="195"/>
       <c r="K165" s="193"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="15"/>
-      <c r="B166" s="24" t="s">
-        <v>64</v>
+    <row r="166" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B166" s="54" t="s">
+        <v>94</v>
       </c>
       <c r="C166" s="196"/>
       <c r="D166" s="195"/>
@@ -5833,7 +5836,7 @@
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="15"/>
       <c r="B167" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C167" s="196"/>
       <c r="D167" s="195"/>
@@ -5846,11 +5849,9 @@
       <c r="K167" s="193"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B168" s="54" t="s">
-        <v>95</v>
+      <c r="A168" s="15"/>
+      <c r="B168" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C168" s="196"/>
       <c r="D168" s="195"/>
@@ -5863,11 +5864,13 @@
       <c r="K168" s="193"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="15"/>
-      <c r="B169" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C169" s="194"/>
+      <c r="A169" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B169" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C169" s="196"/>
       <c r="D169" s="195"/>
       <c r="E169" s="195"/>
       <c r="F169" s="195"/>
@@ -5880,7 +5883,7 @@
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="15"/>
       <c r="B170" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C170" s="194"/>
       <c r="D170" s="195"/>
@@ -5892,14 +5895,12 @@
       <c r="J170" s="195"/>
       <c r="K170" s="193"/>
     </row>
-    <row r="171" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B171" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C171" s="196"/>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="15"/>
+      <c r="B171" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C171" s="194"/>
       <c r="D171" s="195"/>
       <c r="E171" s="195"/>
       <c r="F171" s="195"/>
@@ -5909,10 +5910,12 @@
       <c r="J171" s="195"/>
       <c r="K171" s="193"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="15"/>
-      <c r="B172" s="24" t="s">
-        <v>64</v>
+    <row r="172" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B172" s="54" t="s">
+        <v>96</v>
       </c>
       <c r="C172" s="196"/>
       <c r="D172" s="195"/>
@@ -5927,7 +5930,7 @@
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="15"/>
       <c r="B173" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C173" s="196"/>
       <c r="D173" s="195"/>
@@ -5939,12 +5942,10 @@
       <c r="J173" s="195"/>
       <c r="K173" s="193"/>
     </row>
-    <row r="174" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B174" s="54" t="s">
-        <v>97</v>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="15"/>
+      <c r="B174" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C174" s="196"/>
       <c r="D174" s="195"/>
@@ -5956,10 +5957,12 @@
       <c r="J174" s="195"/>
       <c r="K174" s="193"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="15"/>
-      <c r="B175" s="24" t="s">
-        <v>64</v>
+    <row r="175" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B175" s="54" t="s">
+        <v>97</v>
       </c>
       <c r="C175" s="196"/>
       <c r="D175" s="195"/>
@@ -5974,7 +5977,7 @@
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="15"/>
       <c r="B176" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C176" s="196"/>
       <c r="D176" s="195"/>
@@ -5986,12 +5989,10 @@
       <c r="J176" s="195"/>
       <c r="K176" s="193"/>
     </row>
-    <row r="177" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B177" s="54" t="s">
-        <v>98</v>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="15"/>
+      <c r="B177" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C177" s="196"/>
       <c r="D177" s="195"/>
@@ -6003,10 +6004,12 @@
       <c r="J177" s="195"/>
       <c r="K177" s="193"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="15"/>
-      <c r="B178" s="24" t="s">
-        <v>64</v>
+    <row r="178" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B178" s="54" t="s">
+        <v>98</v>
       </c>
       <c r="C178" s="196"/>
       <c r="D178" s="195"/>
@@ -6021,7 +6024,7 @@
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="15"/>
       <c r="B179" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C179" s="196"/>
       <c r="D179" s="195"/>
@@ -6033,12 +6036,10 @@
       <c r="J179" s="195"/>
       <c r="K179" s="193"/>
     </row>
-    <row r="180" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B180" s="54" t="s">
-        <v>99</v>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" s="15"/>
+      <c r="B180" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C180" s="196"/>
       <c r="D180" s="195"/>
@@ -6050,10 +6051,12 @@
       <c r="J180" s="195"/>
       <c r="K180" s="193"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="15"/>
-      <c r="B181" s="24" t="s">
-        <v>64</v>
+    <row r="181" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B181" s="54" t="s">
+        <v>99</v>
       </c>
       <c r="C181" s="196"/>
       <c r="D181" s="195"/>
@@ -6068,7 +6071,7 @@
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="15"/>
       <c r="B182" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C182" s="196"/>
       <c r="D182" s="195"/>
@@ -6080,12 +6083,10 @@
       <c r="J182" s="195"/>
       <c r="K182" s="193"/>
     </row>
-    <row r="183" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B183" s="54" t="s">
-        <v>100</v>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="15"/>
+      <c r="B183" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C183" s="196"/>
       <c r="D183" s="195"/>
@@ -6097,10 +6098,12 @@
       <c r="J183" s="195"/>
       <c r="K183" s="193"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="15"/>
-      <c r="B184" s="24" t="s">
-        <v>64</v>
+    <row r="184" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B184" s="54" t="s">
+        <v>100</v>
       </c>
       <c r="C184" s="196"/>
       <c r="D184" s="195"/>
@@ -6115,7 +6118,7 @@
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="15"/>
       <c r="B185" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C185" s="196"/>
       <c r="D185" s="195"/>
@@ -6127,12 +6130,10 @@
       <c r="J185" s="195"/>
       <c r="K185" s="193"/>
     </row>
-    <row r="186" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B186" s="54" t="s">
-        <v>101</v>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" s="15"/>
+      <c r="B186" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C186" s="196"/>
       <c r="D186" s="195"/>
@@ -6144,10 +6145,12 @@
       <c r="J186" s="195"/>
       <c r="K186" s="193"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="15"/>
-      <c r="B187" s="24" t="s">
-        <v>64</v>
+    <row r="187" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B187" s="54" t="s">
+        <v>101</v>
       </c>
       <c r="C187" s="196"/>
       <c r="D187" s="195"/>
@@ -6160,9 +6163,9 @@
       <c r="K187" s="193"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="20"/>
-      <c r="B188" s="47" t="s">
-        <v>65</v>
+      <c r="A188" s="15"/>
+      <c r="B188" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="C188" s="196"/>
       <c r="D188" s="195"/>
@@ -6175,124 +6178,125 @@
       <c r="K188" s="193"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="18" t="s">
+      <c r="A189" s="20"/>
+      <c r="B189" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C189" s="196"/>
+      <c r="D189" s="195"/>
+      <c r="E189" s="195"/>
+      <c r="F189" s="195"/>
+      <c r="G189" s="195"/>
+      <c r="H189" s="195"/>
+      <c r="I189" s="195"/>
+      <c r="J189" s="195"/>
+      <c r="K189" s="193"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B189" s="63" t="s">
+      <c r="B190" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="C189" s="165"/>
-      <c r="D189" s="258">
+      <c r="C190" s="165"/>
+      <c r="D190" s="258">
         <f>summary_emfac2014!B5</f>
         <v>0</v>
       </c>
-      <c r="E189" s="258">
+      <c r="E190" s="258">
         <f>summary_emfac2014!C5</f>
         <v>0</v>
       </c>
-      <c r="F189" s="258">
+      <c r="F190" s="258">
         <f>summary_emfac2014!D5</f>
         <v>0</v>
       </c>
-      <c r="G189" s="258">
+      <c r="G190" s="258">
         <f>summary_emfac2014!E5</f>
         <v>0</v>
       </c>
-      <c r="H189" s="258">
+      <c r="H190" s="258">
         <f>summary_emfac2014!F5</f>
         <v>0</v>
       </c>
-      <c r="I189" s="258">
+      <c r="I190" s="258">
         <f>summary_emfac2014!G5</f>
         <v>0</v>
       </c>
-      <c r="J189" s="258">
+      <c r="J190" s="258">
         <f>summary_emfac2014!H5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="21" t="s">
+    <row r="191" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B190" s="67" t="s">
+      <c r="B191" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="C190" s="80"/>
-      <c r="D190" s="257" t="e">
-        <f>summary_emfac2014!B5*2000/D267</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E190" s="257" t="e">
-        <f>summary_emfac2014!C5*2000/E267</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F190" s="257" t="e">
-        <f>summary_emfac2014!D5*2000/F267</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G190" s="257" t="e">
-        <f>summary_emfac2014!E5*2000/G267</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H190" s="257" t="e">
-        <f>summary_emfac2014!F5*2000/H267</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I190" s="257" t="e">
-        <f>summary_emfac2014!G5*2000/I267</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J190" s="257" t="e">
-        <f>summary_emfac2014!H5*2000/J267</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B191" s="6"/>
-      <c r="C191" s="32"/>
-      <c r="D191" s="32"/>
-      <c r="E191" s="32"/>
-      <c r="F191" s="32"/>
-      <c r="G191" s="32"/>
-      <c r="H191" s="32"/>
-      <c r="I191" s="32"/>
-      <c r="J191" s="32"/>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A193" s="85" t="s">
+      <c r="C191" s="80"/>
+      <c r="D191" s="257" t="e">
+        <f>summary_emfac2014!B5*2000/D268</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E191" s="257" t="e">
+        <f>summary_emfac2014!C5*2000/E268</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F191" s="257" t="e">
+        <f>summary_emfac2014!D5*2000/F268</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G191" s="257" t="e">
+        <f>summary_emfac2014!E5*2000/G268</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H191" s="257" t="e">
+        <f>summary_emfac2014!F5*2000/H268</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I191" s="257" t="e">
+        <f>summary_emfac2014!G5*2000/I268</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J191" s="257" t="e">
+        <f>summary_emfac2014!H5*2000/J268</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B192" s="6"/>
+      <c r="C192" s="32"/>
+      <c r="D192" s="32"/>
+      <c r="E192" s="32"/>
+      <c r="F192" s="32"/>
+      <c r="G192" s="32"/>
+      <c r="H192" s="32"/>
+      <c r="I192" s="32"/>
+      <c r="J192" s="32"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="B193" s="86" t="s">
+      <c r="B194" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="C193" s="197"/>
-      <c r="D193" s="197"/>
-      <c r="E193" s="197"/>
-      <c r="F193" s="197"/>
-      <c r="G193" s="197"/>
-      <c r="H193" s="197"/>
-      <c r="I193" s="197"/>
-      <c r="J193" s="197"/>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A194" s="56"/>
-      <c r="B194" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C194" s="198"/>
-      <c r="D194" s="198"/>
-      <c r="E194" s="198"/>
-      <c r="F194" s="198"/>
-      <c r="G194" s="198"/>
-      <c r="H194" s="198"/>
-      <c r="I194" s="198"/>
-      <c r="J194" s="198"/>
+      <c r="C194" s="197"/>
+      <c r="D194" s="197"/>
+      <c r="E194" s="197"/>
+      <c r="F194" s="197"/>
+      <c r="G194" s="197"/>
+      <c r="H194" s="197"/>
+      <c r="I194" s="197"/>
+      <c r="J194" s="197"/>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="56"/>
       <c r="B195" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C195" s="198"/>
       <c r="D195" s="198"/>
@@ -6306,7 +6310,7 @@
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="56"/>
       <c r="B196" s="2" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="C196" s="198"/>
       <c r="D196" s="198"/>
@@ -6320,7 +6324,7 @@
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="56"/>
       <c r="B197" s="2" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="C197" s="198"/>
       <c r="D197" s="198"/>
@@ -6334,65 +6338,65 @@
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="56"/>
       <c r="B198" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C198" s="198"/>
+      <c r="D198" s="198"/>
+      <c r="E198" s="198"/>
+      <c r="F198" s="198"/>
+      <c r="G198" s="198"/>
+      <c r="H198" s="198"/>
+      <c r="I198" s="198"/>
+      <c r="J198" s="198"/>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" s="56"/>
+      <c r="B199" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C198" s="198"/>
-      <c r="D198" s="199"/>
-      <c r="E198" s="199"/>
-      <c r="F198" s="199"/>
-      <c r="G198" s="199"/>
-      <c r="H198" s="199"/>
-      <c r="I198" s="199"/>
-      <c r="J198" s="199"/>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A199" s="17"/>
-      <c r="B199" s="31" t="s">
+      <c r="C199" s="198"/>
+      <c r="D199" s="199"/>
+      <c r="E199" s="199"/>
+      <c r="F199" s="199"/>
+      <c r="G199" s="199"/>
+      <c r="H199" s="199"/>
+      <c r="I199" s="199"/>
+      <c r="J199" s="199"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" s="17"/>
+      <c r="B200" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C199" s="200"/>
-      <c r="D199" s="200"/>
-      <c r="E199" s="200"/>
-      <c r="F199" s="200"/>
-      <c r="G199" s="200"/>
-      <c r="H199" s="200"/>
-      <c r="I199" s="200"/>
-      <c r="J199" s="200"/>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A200" s="85" t="s">
+      <c r="C200" s="200"/>
+      <c r="D200" s="200"/>
+      <c r="E200" s="200"/>
+      <c r="F200" s="200"/>
+      <c r="G200" s="200"/>
+      <c r="H200" s="200"/>
+      <c r="I200" s="200"/>
+      <c r="J200" s="200"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="B200" s="40" t="s">
+      <c r="B201" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="C200" s="201"/>
-      <c r="D200" s="201"/>
-      <c r="E200" s="201"/>
-      <c r="F200" s="201"/>
-      <c r="G200" s="201"/>
-      <c r="H200" s="201"/>
-      <c r="I200" s="201"/>
-      <c r="J200" s="201"/>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A201" s="56"/>
-      <c r="B201" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C201" s="198"/>
-      <c r="D201" s="198"/>
-      <c r="E201" s="198"/>
-      <c r="F201" s="198"/>
-      <c r="G201" s="198"/>
-      <c r="H201" s="198"/>
-      <c r="I201" s="198"/>
-      <c r="J201" s="198"/>
+      <c r="C201" s="201"/>
+      <c r="D201" s="201"/>
+      <c r="E201" s="201"/>
+      <c r="F201" s="201"/>
+      <c r="G201" s="201"/>
+      <c r="H201" s="201"/>
+      <c r="I201" s="201"/>
+      <c r="J201" s="201"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="56"/>
       <c r="B202" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C202" s="198"/>
       <c r="D202" s="198"/>
@@ -6406,7 +6410,7 @@
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="56"/>
       <c r="B203" s="2" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="C203" s="198"/>
       <c r="D203" s="198"/>
@@ -6420,7 +6424,7 @@
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="56"/>
       <c r="B204" s="2" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="C204" s="198"/>
       <c r="D204" s="198"/>
@@ -6434,7 +6438,7 @@
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="56"/>
       <c r="B205" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C205" s="198"/>
       <c r="D205" s="198"/>
@@ -6446,53 +6450,53 @@
       <c r="J205" s="198"/>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A206" s="13"/>
-      <c r="B206" s="58" t="s">
+      <c r="A206" s="56"/>
+      <c r="B206" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C206" s="198"/>
+      <c r="D206" s="198"/>
+      <c r="E206" s="198"/>
+      <c r="F206" s="198"/>
+      <c r="G206" s="198"/>
+      <c r="H206" s="198"/>
+      <c r="I206" s="198"/>
+      <c r="J206" s="198"/>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" s="13"/>
+      <c r="B207" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C206" s="202"/>
-      <c r="D206" s="202"/>
-      <c r="E206" s="202"/>
-      <c r="F206" s="202"/>
-      <c r="G206" s="202"/>
-      <c r="H206" s="202"/>
-      <c r="I206" s="202"/>
-      <c r="J206" s="202"/>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A207" s="85" t="s">
+      <c r="C207" s="202"/>
+      <c r="D207" s="202"/>
+      <c r="E207" s="202"/>
+      <c r="F207" s="202"/>
+      <c r="G207" s="202"/>
+      <c r="H207" s="202"/>
+      <c r="I207" s="202"/>
+      <c r="J207" s="202"/>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="B207" s="86" t="s">
+      <c r="B208" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="C207" s="197"/>
-      <c r="D207" s="197"/>
-      <c r="E207" s="197"/>
-      <c r="F207" s="197"/>
-      <c r="G207" s="197"/>
-      <c r="H207" s="197"/>
-      <c r="I207" s="197"/>
-      <c r="J207" s="197"/>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A208" s="56"/>
-      <c r="B208" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C208" s="198"/>
-      <c r="D208" s="198"/>
-      <c r="E208" s="198"/>
-      <c r="F208" s="198"/>
-      <c r="G208" s="198"/>
-      <c r="H208" s="198"/>
-      <c r="I208" s="198"/>
-      <c r="J208" s="198"/>
+      <c r="C208" s="197"/>
+      <c r="D208" s="197"/>
+      <c r="E208" s="197"/>
+      <c r="F208" s="197"/>
+      <c r="G208" s="197"/>
+      <c r="H208" s="197"/>
+      <c r="I208" s="197"/>
+      <c r="J208" s="197"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="56"/>
       <c r="B209" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C209" s="198"/>
       <c r="D209" s="198"/>
@@ -6506,7 +6510,7 @@
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="56"/>
       <c r="B210" s="2" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="C210" s="198"/>
       <c r="D210" s="198"/>
@@ -6520,7 +6524,7 @@
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="56"/>
       <c r="B211" s="2" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="C211" s="198"/>
       <c r="D211" s="198"/>
@@ -6534,7 +6538,7 @@
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="56"/>
       <c r="B212" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C212" s="198"/>
       <c r="D212" s="198"/>
@@ -6546,53 +6550,53 @@
       <c r="J212" s="198"/>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A213" s="17"/>
-      <c r="B213" s="31" t="s">
+      <c r="A213" s="56"/>
+      <c r="B213" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C213" s="198"/>
+      <c r="D213" s="198"/>
+      <c r="E213" s="198"/>
+      <c r="F213" s="198"/>
+      <c r="G213" s="198"/>
+      <c r="H213" s="198"/>
+      <c r="I213" s="198"/>
+      <c r="J213" s="198"/>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" s="17"/>
+      <c r="B214" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C213" s="200"/>
-      <c r="D213" s="200"/>
-      <c r="E213" s="200"/>
-      <c r="F213" s="200"/>
-      <c r="G213" s="200"/>
-      <c r="H213" s="200"/>
-      <c r="I213" s="200"/>
-      <c r="J213" s="200"/>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A214" s="85" t="s">
+      <c r="C214" s="200"/>
+      <c r="D214" s="200"/>
+      <c r="E214" s="200"/>
+      <c r="F214" s="200"/>
+      <c r="G214" s="200"/>
+      <c r="H214" s="200"/>
+      <c r="I214" s="200"/>
+      <c r="J214" s="200"/>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="B214" s="40" t="s">
+      <c r="B215" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C214" s="201"/>
-      <c r="D214" s="201"/>
-      <c r="E214" s="201"/>
-      <c r="F214" s="201"/>
-      <c r="G214" s="201"/>
-      <c r="H214" s="201"/>
-      <c r="I214" s="201"/>
-      <c r="J214" s="201"/>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A215" s="33"/>
-      <c r="B215" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C215" s="198"/>
-      <c r="D215" s="198"/>
-      <c r="E215" s="198"/>
-      <c r="F215" s="198"/>
-      <c r="G215" s="198"/>
-      <c r="H215" s="198"/>
-      <c r="I215" s="198"/>
-      <c r="J215" s="198"/>
+      <c r="C215" s="201"/>
+      <c r="D215" s="201"/>
+      <c r="E215" s="201"/>
+      <c r="F215" s="201"/>
+      <c r="G215" s="201"/>
+      <c r="H215" s="201"/>
+      <c r="I215" s="201"/>
+      <c r="J215" s="201"/>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="33"/>
       <c r="B216" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C216" s="198"/>
       <c r="D216" s="198"/>
@@ -6604,9 +6608,9 @@
       <c r="J216" s="198"/>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A217" s="56"/>
+      <c r="A217" s="33"/>
       <c r="B217" s="2" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="C217" s="198"/>
       <c r="D217" s="198"/>
@@ -6618,9 +6622,9 @@
       <c r="J217" s="198"/>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A218" s="33"/>
+      <c r="A218" s="56"/>
       <c r="B218" s="2" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="C218" s="198"/>
       <c r="D218" s="198"/>
@@ -6634,7 +6638,7 @@
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="33"/>
       <c r="B219" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C219" s="198"/>
       <c r="D219" s="198"/>
@@ -6646,53 +6650,53 @@
       <c r="J219" s="198"/>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A220" s="36"/>
-      <c r="B220" s="58" t="s">
+      <c r="A220" s="33"/>
+      <c r="B220" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C220" s="198"/>
+      <c r="D220" s="198"/>
+      <c r="E220" s="198"/>
+      <c r="F220" s="198"/>
+      <c r="G220" s="198"/>
+      <c r="H220" s="198"/>
+      <c r="I220" s="198"/>
+      <c r="J220" s="198"/>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" s="36"/>
+      <c r="B221" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C220" s="202"/>
-      <c r="D220" s="202"/>
-      <c r="E220" s="202"/>
-      <c r="F220" s="202"/>
-      <c r="G220" s="202"/>
-      <c r="H220" s="202"/>
-      <c r="I220" s="202"/>
-      <c r="J220" s="202"/>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A221" s="85" t="s">
+      <c r="C221" s="202"/>
+      <c r="D221" s="202"/>
+      <c r="E221" s="202"/>
+      <c r="F221" s="202"/>
+      <c r="G221" s="202"/>
+      <c r="H221" s="202"/>
+      <c r="I221" s="202"/>
+      <c r="J221" s="202"/>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="B221" s="86" t="s">
+      <c r="B222" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="C221" s="197"/>
-      <c r="D221" s="197"/>
-      <c r="E221" s="197"/>
-      <c r="F221" s="197"/>
-      <c r="G221" s="197"/>
-      <c r="H221" s="197"/>
-      <c r="I221" s="197"/>
-      <c r="J221" s="197"/>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A222" s="56"/>
-      <c r="B222" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C222" s="198"/>
-      <c r="D222" s="198"/>
-      <c r="E222" s="198"/>
-      <c r="F222" s="198"/>
-      <c r="G222" s="198"/>
-      <c r="H222" s="198"/>
-      <c r="I222" s="198"/>
-      <c r="J222" s="198"/>
+      <c r="C222" s="197"/>
+      <c r="D222" s="197"/>
+      <c r="E222" s="197"/>
+      <c r="F222" s="197"/>
+      <c r="G222" s="197"/>
+      <c r="H222" s="197"/>
+      <c r="I222" s="197"/>
+      <c r="J222" s="197"/>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="56"/>
       <c r="B223" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C223" s="198"/>
       <c r="D223" s="198"/>
@@ -6706,7 +6710,7 @@
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="56"/>
       <c r="B224" s="2" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="C224" s="198"/>
       <c r="D224" s="198"/>
@@ -6720,7 +6724,7 @@
     <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" s="56"/>
       <c r="B225" s="2" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="C225" s="198"/>
       <c r="D225" s="198"/>
@@ -6734,7 +6738,7 @@
     <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" s="56"/>
       <c r="B226" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C226" s="198"/>
       <c r="D226" s="198"/>
@@ -6746,67 +6750,68 @@
       <c r="J226" s="198"/>
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A227" s="17"/>
-      <c r="B227" s="31" t="s">
+      <c r="A227" s="56"/>
+      <c r="B227" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C227" s="198"/>
+      <c r="D227" s="198"/>
+      <c r="E227" s="198"/>
+      <c r="F227" s="198"/>
+      <c r="G227" s="198"/>
+      <c r="H227" s="198"/>
+      <c r="I227" s="198"/>
+      <c r="J227" s="198"/>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A228" s="17"/>
+      <c r="B228" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C227" s="200"/>
-      <c r="D227" s="200"/>
-      <c r="E227" s="200"/>
-      <c r="F227" s="200"/>
-      <c r="G227" s="200"/>
-      <c r="H227" s="200"/>
-      <c r="I227" s="200"/>
-      <c r="J227" s="200"/>
-    </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A228" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B228" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="C228" s="52"/>
-      <c r="D228" s="52"/>
-      <c r="E228" s="52"/>
-      <c r="F228" s="52"/>
-      <c r="G228" s="52"/>
-      <c r="H228" s="52"/>
-      <c r="I228" s="52"/>
-      <c r="J228" s="52"/>
+      <c r="C228" s="200"/>
+      <c r="D228" s="200"/>
+      <c r="E228" s="200"/>
+      <c r="F228" s="200"/>
+      <c r="G228" s="200"/>
+      <c r="H228" s="200"/>
+      <c r="I228" s="200"/>
+      <c r="J228" s="200"/>
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B229" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="C229" s="52"/>
+      <c r="D229" s="52"/>
+      <c r="E229" s="52"/>
+      <c r="F229" s="52"/>
+      <c r="G229" s="52"/>
+      <c r="H229" s="52"/>
+      <c r="I229" s="52"/>
+      <c r="J229" s="52"/>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A230" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B229" s="67" t="s">
+      <c r="B230" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="C229" s="9"/>
-      <c r="D229" s="9"/>
-      <c r="E229" s="9"/>
-      <c r="F229" s="9"/>
-      <c r="G229" s="9"/>
-      <c r="H229" s="9"/>
-      <c r="I229" s="9"/>
-      <c r="J229" s="9"/>
-    </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B230" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="C230" s="52"/>
-      <c r="D230" s="52"/>
-      <c r="E230" s="52"/>
-      <c r="F230" s="52"/>
-      <c r="G230" s="52"/>
-      <c r="H230" s="52"/>
-      <c r="I230" s="52"/>
-      <c r="J230" s="52"/>
+      <c r="C230" s="9"/>
+      <c r="D230" s="9"/>
+      <c r="E230" s="9"/>
+      <c r="F230" s="9"/>
+      <c r="G230" s="9"/>
+      <c r="H230" s="9"/>
+      <c r="I230" s="9"/>
+      <c r="J230" s="9"/>
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B231" s="49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C231" s="52"/>
       <c r="D231" s="52"/>
@@ -6819,20 +6824,20 @@
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B232" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="C232" s="30"/>
-      <c r="D232" s="30"/>
-      <c r="E232" s="30"/>
-      <c r="F232" s="30"/>
-      <c r="G232" s="30"/>
-      <c r="H232" s="30"/>
-      <c r="I232" s="30"/>
-      <c r="J232" s="30"/>
+        <v>115</v>
+      </c>
+      <c r="C232" s="52"/>
+      <c r="D232" s="52"/>
+      <c r="E232" s="52"/>
+      <c r="F232" s="52"/>
+      <c r="G232" s="52"/>
+      <c r="H232" s="52"/>
+      <c r="I232" s="52"/>
+      <c r="J232" s="52"/>
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B233" s="49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C233" s="30"/>
       <c r="D233" s="30"/>
@@ -6844,41 +6849,38 @@
       <c r="J233" s="30"/>
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A234" s="16"/>
       <c r="B234" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="C234" s="52"/>
+        <v>117</v>
+      </c>
+      <c r="C234" s="30"/>
       <c r="D234" s="30"/>
       <c r="E234" s="30"/>
       <c r="F234" s="30"/>
       <c r="G234" s="30"/>
       <c r="H234" s="30"/>
       <c r="I234" s="30"/>
-      <c r="J234" s="52"/>
-    </row>
-    <row r="235" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="82" t="s">
+      <c r="J234" s="30"/>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A235" s="16"/>
+      <c r="B235" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C235" s="52"/>
+      <c r="D235" s="30"/>
+      <c r="E235" s="30"/>
+      <c r="F235" s="30"/>
+      <c r="G235" s="30"/>
+      <c r="H235" s="30"/>
+      <c r="I235" s="30"/>
+      <c r="J235" s="52"/>
+    </row>
+    <row r="236" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="B235" s="67" t="s">
+      <c r="B236" s="67" t="s">
         <v>120</v>
-      </c>
-      <c r="C235" s="52"/>
-      <c r="D235" s="52"/>
-      <c r="E235" s="52"/>
-      <c r="F235" s="52"/>
-      <c r="G235" s="52"/>
-      <c r="H235" s="52"/>
-      <c r="I235" s="52"/>
-      <c r="J235" s="52"/>
-    </row>
-    <row r="236" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B236" s="67" t="s">
-        <v>122</v>
       </c>
       <c r="C236" s="52"/>
       <c r="D236" s="52"/>
@@ -6889,126 +6891,104 @@
       <c r="I236" s="52"/>
       <c r="J236" s="52"/>
     </row>
-    <row r="237" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="21" t="s">
+    <row r="237" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B237" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="C237" s="52"/>
+      <c r="D237" s="52"/>
+      <c r="E237" s="52"/>
+      <c r="F237" s="52"/>
+      <c r="G237" s="52"/>
+      <c r="H237" s="52"/>
+      <c r="I237" s="52"/>
+      <c r="J237" s="52"/>
+    </row>
+    <row r="238" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="B237" s="67" t="s">
+      <c r="B238" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="C237" s="203"/>
-      <c r="D237" s="204"/>
-      <c r="E237" s="204"/>
-      <c r="F237" s="204"/>
-      <c r="G237" s="204"/>
-      <c r="H237" s="204"/>
-      <c r="I237" s="204"/>
-      <c r="J237" s="204"/>
-      <c r="L237" s="193">
-        <f>E237-$D237</f>
-        <v>0</v>
-      </c>
-      <c r="M237" s="193">
-        <f>F237-$D237</f>
-        <v>0</v>
-      </c>
-      <c r="N237" s="193">
-        <f>G237-$D237</f>
-        <v>0</v>
-      </c>
-      <c r="O237" s="193">
-        <f t="shared" ref="O237:O243" si="0">H237-$D237</f>
-        <v>0</v>
-      </c>
-      <c r="P237" s="193">
-        <f t="shared" ref="P237:P243" si="1">I237-$D237</f>
-        <v>0</v>
-      </c>
-      <c r="Q237" s="193">
-        <f t="shared" ref="Q237:Q243" si="2">J237-$D237</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A238" s="66"/>
-      <c r="B238" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="C238" s="205"/>
-      <c r="D238" s="191"/>
-      <c r="E238" s="191"/>
-      <c r="F238" s="191"/>
-      <c r="G238" s="191"/>
-      <c r="H238" s="191"/>
-      <c r="I238" s="191"/>
-      <c r="J238" s="191"/>
+      <c r="C238" s="203"/>
+      <c r="D238" s="204"/>
+      <c r="E238" s="204"/>
+      <c r="F238" s="204"/>
+      <c r="G238" s="204"/>
+      <c r="H238" s="204"/>
+      <c r="I238" s="204"/>
+      <c r="J238" s="204"/>
       <c r="L238" s="193">
-        <f>E238-$D238</f>
+        <f t="shared" ref="L238:N244" si="0">E238-$D238</f>
         <v>0</v>
       </c>
       <c r="M238" s="193">
-        <f>F238-$D238</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N238" s="193">
-        <f>G238-$D238</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O238" s="193">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="O238:O244" si="1">H238-$D238</f>
         <v>0</v>
       </c>
       <c r="P238" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="P238:P244" si="2">I238-$D238</f>
         <v>0</v>
       </c>
       <c r="Q238" s="193">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="Q238:Q244" si="3">J238-$D238</f>
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" s="66"/>
-      <c r="B239" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C239" s="196"/>
-      <c r="D239" s="194"/>
-      <c r="E239" s="194"/>
-      <c r="F239" s="194"/>
-      <c r="G239" s="194"/>
-      <c r="H239" s="194"/>
-      <c r="I239" s="194"/>
-      <c r="J239" s="194"/>
+      <c r="B239" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C239" s="205"/>
+      <c r="D239" s="191"/>
+      <c r="E239" s="191"/>
+      <c r="F239" s="191"/>
+      <c r="G239" s="191"/>
+      <c r="H239" s="191"/>
+      <c r="I239" s="191"/>
+      <c r="J239" s="191"/>
       <c r="L239" s="193">
-        <f>E239-$D239</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M239" s="193">
-        <f>F239-$D239</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N239" s="193">
-        <f>G239-$D239</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O239" s="193">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P239" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q239" s="193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" s="66"/>
       <c r="B240" s="2" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="C240" s="196"/>
       <c r="D240" s="194"/>
@@ -7019,34 +6999,34 @@
       <c r="I240" s="194"/>
       <c r="J240" s="194"/>
       <c r="L240" s="193">
-        <f>E240-$D240</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M240" s="193">
-        <f>F240-$D240</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N240" s="193">
-        <f>G240-$D240</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O240" s="193">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P240" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q240" s="193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" s="66"/>
       <c r="B241" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C241" s="196"/>
       <c r="D241" s="194"/>
@@ -7057,34 +7037,34 @@
       <c r="I241" s="194"/>
       <c r="J241" s="194"/>
       <c r="L241" s="193">
-        <f>E241-$D241</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M241" s="193">
-        <f>F241-$D241</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N241" s="193">
-        <f>G241-$D241</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O241" s="193">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P241" s="193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q241" s="193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" s="66"/>
       <c r="B242" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C242" s="196"/>
       <c r="D242" s="194"/>
@@ -7095,116 +7075,140 @@
       <c r="I242" s="194"/>
       <c r="J242" s="194"/>
       <c r="L242" s="193">
-        <f>E242-$D242</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M242" s="193">
-        <f>F242-$D242</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N242" s="193">
-        <f>G242-$D242</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O242" s="193">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P242" s="193">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q242" s="193">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A243" s="66"/>
+      <c r="B243" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C243" s="196"/>
+      <c r="D243" s="194"/>
+      <c r="E243" s="194"/>
+      <c r="F243" s="194"/>
+      <c r="G243" s="194"/>
+      <c r="H243" s="194"/>
+      <c r="I243" s="194"/>
+      <c r="J243" s="194"/>
+      <c r="L243" s="193">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P242" s="193">
+      <c r="M243" s="193">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N243" s="193">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O243" s="193">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q242" s="193">
+      <c r="P243" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A243" s="82"/>
-      <c r="B243" s="31" t="s">
+      <c r="Q243" s="193">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A244" s="82"/>
+      <c r="B244" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C243" s="206"/>
-      <c r="D243" s="207"/>
-      <c r="E243" s="207"/>
-      <c r="F243" s="207"/>
-      <c r="G243" s="207"/>
-      <c r="H243" s="207"/>
-      <c r="I243" s="207"/>
-      <c r="J243" s="207"/>
-      <c r="L243" s="193">
-        <f>E243-$D243</f>
-        <v>0</v>
-      </c>
-      <c r="M243" s="193">
-        <f>F243-$D243</f>
-        <v>0</v>
-      </c>
-      <c r="N243" s="193">
-        <f>G243-$D243</f>
-        <v>0</v>
-      </c>
-      <c r="O243" s="193">
+      <c r="C244" s="206"/>
+      <c r="D244" s="207"/>
+      <c r="E244" s="207"/>
+      <c r="F244" s="207"/>
+      <c r="G244" s="207"/>
+      <c r="H244" s="207"/>
+      <c r="I244" s="207"/>
+      <c r="J244" s="207"/>
+      <c r="L244" s="193">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P243" s="193">
+      <c r="M244" s="193">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N244" s="193">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O244" s="193">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q243" s="193">
+      <c r="P244" s="193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="21" t="s">
+      <c r="Q244" s="193">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="B244" s="28" t="s">
+      <c r="B245" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="C244" s="234"/>
-      <c r="D244" s="204"/>
-      <c r="E244" s="204"/>
-      <c r="F244" s="204"/>
-      <c r="G244" s="204"/>
-      <c r="H244" s="204"/>
-      <c r="I244" s="204"/>
-      <c r="J244" s="204"/>
-    </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A245" s="84"/>
-      <c r="B245" s="71" t="s">
-        <v>45</v>
-      </c>
       <c r="C245" s="234"/>
-      <c r="D245" s="191"/>
-      <c r="E245" s="191"/>
-      <c r="F245" s="191"/>
-      <c r="G245" s="191"/>
-      <c r="H245" s="191"/>
-      <c r="I245" s="191"/>
-      <c r="J245" s="191"/>
+      <c r="D245" s="204"/>
+      <c r="E245" s="204"/>
+      <c r="F245" s="204"/>
+      <c r="G245" s="204"/>
+      <c r="H245" s="204"/>
+      <c r="I245" s="204"/>
+      <c r="J245" s="204"/>
     </row>
     <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246" s="84"/>
       <c r="B246" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C246" s="234"/>
-      <c r="D246" s="194"/>
-      <c r="E246" s="194"/>
-      <c r="F246" s="194"/>
-      <c r="G246" s="194"/>
-      <c r="H246" s="194"/>
-      <c r="I246" s="194"/>
-      <c r="J246" s="194"/>
+      <c r="D246" s="191"/>
+      <c r="E246" s="191"/>
+      <c r="F246" s="191"/>
+      <c r="G246" s="191"/>
+      <c r="H246" s="191"/>
+      <c r="I246" s="191"/>
+      <c r="J246" s="191"/>
     </row>
     <row r="247" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A247" s="84"/>
       <c r="B247" s="71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C247" s="234"/>
       <c r="D247" s="194"/>
@@ -7218,7 +7222,7 @@
     <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248" s="84"/>
       <c r="B248" s="71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C248" s="234"/>
       <c r="D248" s="194"/>
@@ -7232,7 +7236,7 @@
     <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249" s="84"/>
       <c r="B249" s="71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C249" s="234"/>
       <c r="D249" s="194"/>
@@ -7244,83 +7248,84 @@
       <c r="J249" s="194"/>
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A250" s="73"/>
+      <c r="A250" s="84"/>
       <c r="B250" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="C250" s="234"/>
+      <c r="D250" s="194"/>
+      <c r="E250" s="194"/>
+      <c r="F250" s="194"/>
+      <c r="G250" s="194"/>
+      <c r="H250" s="194"/>
+      <c r="I250" s="194"/>
+      <c r="J250" s="194"/>
+    </row>
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A251" s="73"/>
+      <c r="B251" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="C250" s="234"/>
-      <c r="D250" s="207"/>
-      <c r="E250" s="207"/>
-      <c r="F250" s="207"/>
-      <c r="G250" s="207"/>
-      <c r="H250" s="207"/>
-      <c r="I250" s="207"/>
-      <c r="J250" s="207"/>
-    </row>
-    <row r="251" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="18" t="s">
+      <c r="C251" s="234"/>
+      <c r="D251" s="207"/>
+      <c r="E251" s="207"/>
+      <c r="F251" s="207"/>
+      <c r="G251" s="207"/>
+      <c r="H251" s="207"/>
+      <c r="I251" s="207"/>
+      <c r="J251" s="207"/>
+    </row>
+    <row r="252" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B251" s="37" t="s">
+      <c r="B252" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="C251" s="234"/>
-      <c r="D251" s="204"/>
-      <c r="E251" s="204"/>
-      <c r="F251" s="204"/>
-      <c r="G251" s="204"/>
-      <c r="H251" s="204"/>
-      <c r="I251" s="204"/>
-      <c r="J251" s="204"/>
-    </row>
-    <row r="252" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="82" t="s">
+      <c r="C252" s="234"/>
+      <c r="D252" s="204"/>
+      <c r="E252" s="204"/>
+      <c r="F252" s="204"/>
+      <c r="G252" s="204"/>
+      <c r="H252" s="204"/>
+      <c r="I252" s="204"/>
+      <c r="J252" s="204"/>
+    </row>
+    <row r="253" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="B252" s="214" t="s">
+      <c r="B253" s="214" t="s">
         <v>128</v>
       </c>
-      <c r="C252" s="234"/>
-      <c r="D252" s="223"/>
-      <c r="E252" s="223"/>
-      <c r="F252" s="223"/>
-      <c r="G252" s="223"/>
-      <c r="H252" s="223"/>
-      <c r="I252" s="223"/>
-      <c r="J252" s="223"/>
-    </row>
-    <row r="253" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A253" s="21" t="s">
+      <c r="C253" s="234"/>
+      <c r="D253" s="223"/>
+      <c r="E253" s="223"/>
+      <c r="F253" s="223"/>
+      <c r="G253" s="223"/>
+      <c r="H253" s="223"/>
+      <c r="I253" s="223"/>
+      <c r="J253" s="223"/>
+    </row>
+    <row r="254" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A254" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="B253" s="67" t="s">
+      <c r="B254" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="C253" s="204"/>
-      <c r="D253" s="208"/>
-      <c r="E253" s="208"/>
-      <c r="F253" s="208"/>
-      <c r="G253" s="208"/>
-      <c r="H253" s="208"/>
-      <c r="I253" s="208"/>
-      <c r="J253" s="208"/>
-    </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B254" s="71" t="s">
-        <v>45</v>
-      </c>
       <c r="C254" s="204"/>
-      <c r="D254" s="204"/>
-      <c r="E254" s="204"/>
-      <c r="F254" s="204"/>
-      <c r="G254" s="204"/>
-      <c r="H254" s="204"/>
-      <c r="I254" s="204"/>
-      <c r="J254" s="204"/>
+      <c r="D254" s="208"/>
+      <c r="E254" s="208"/>
+      <c r="F254" s="208"/>
+      <c r="G254" s="208"/>
+      <c r="H254" s="208"/>
+      <c r="I254" s="208"/>
+      <c r="J254" s="208"/>
     </row>
     <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B255" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C255" s="204"/>
       <c r="D255" s="204"/>
@@ -7333,7 +7338,7 @@
     </row>
     <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B256" s="71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C256" s="204"/>
       <c r="D256" s="204"/>
@@ -7346,7 +7351,7 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B257" s="71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C257" s="204"/>
       <c r="D257" s="204"/>
@@ -7359,7 +7364,7 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B258" s="71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C258" s="204"/>
       <c r="D258" s="204"/>
@@ -7371,9 +7376,8 @@
       <c r="J258" s="204"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A259" s="48"/>
       <c r="B259" s="71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C259" s="204"/>
       <c r="D259" s="204"/>
@@ -7384,38 +7388,39 @@
       <c r="I259" s="204"/>
       <c r="J259" s="204"/>
     </row>
-    <row r="260" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="213" t="s">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A260" s="48"/>
+      <c r="B260" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C260" s="204"/>
+      <c r="D260" s="204"/>
+      <c r="E260" s="204"/>
+      <c r="F260" s="204"/>
+      <c r="G260" s="204"/>
+      <c r="H260" s="204"/>
+      <c r="I260" s="204"/>
+      <c r="J260" s="204"/>
+    </row>
+    <row r="261" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="213" t="s">
         <v>131</v>
       </c>
-      <c r="B260" s="213" t="s">
+      <c r="B261" s="213" t="s">
         <v>132</v>
       </c>
-      <c r="D260" s="208"/>
-      <c r="E260" s="208"/>
-      <c r="F260" s="208"/>
-      <c r="G260" s="208"/>
-      <c r="H260" s="208"/>
-      <c r="I260" s="208"/>
-      <c r="J260" s="208"/>
-      <c r="K260" s="222"/>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B261" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="C261" s="204"/>
       <c r="D261" s="208"/>
-      <c r="E261" s="204"/>
-      <c r="F261" s="204"/>
-      <c r="G261" s="204"/>
-      <c r="H261" s="204"/>
-      <c r="I261" s="204"/>
-      <c r="J261" s="204"/>
+      <c r="E261" s="208"/>
+      <c r="F261" s="208"/>
+      <c r="G261" s="208"/>
+      <c r="H261" s="208"/>
+      <c r="I261" s="208"/>
+      <c r="J261" s="208"/>
+      <c r="K261" s="222"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B262" s="71" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="C262" s="204"/>
       <c r="D262" s="208"/>
@@ -7428,7 +7433,7 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B263" s="71" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="C263" s="204"/>
       <c r="D263" s="208"/>
@@ -7441,7 +7446,7 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B264" s="71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C264" s="204"/>
       <c r="D264" s="208"/>
@@ -7454,7 +7459,7 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B265" s="71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C265" s="204"/>
       <c r="D265" s="208"/>
@@ -7465,29 +7470,42 @@
       <c r="I265" s="204"/>
       <c r="J265" s="204"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B267" s="246" t="s">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B266" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C266" s="204"/>
+      <c r="D266" s="208"/>
+      <c r="E266" s="204"/>
+      <c r="F266" s="204"/>
+      <c r="G266" s="204"/>
+      <c r="H266" s="204"/>
+      <c r="I266" s="204"/>
+      <c r="J266" s="204"/>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B268" s="246" t="s">
         <v>305</v>
       </c>
-      <c r="D267" s="245"/>
-      <c r="E267" s="245"/>
-      <c r="F267" s="245"/>
-      <c r="G267" s="245"/>
-      <c r="H267" s="245"/>
-      <c r="I267" s="245"/>
-      <c r="J267" s="245"/>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B268" s="253" t="s">
+      <c r="D268" s="245"/>
+      <c r="E268" s="245"/>
+      <c r="F268" s="245"/>
+      <c r="G268" s="245"/>
+      <c r="H268" s="245"/>
+      <c r="I268" s="245"/>
+      <c r="J268" s="245"/>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B269" s="253" t="s">
         <v>324</v>
       </c>
-      <c r="D268" s="160"/>
-      <c r="E268" s="160"/>
-      <c r="F268" s="160"/>
-      <c r="G268" s="160"/>
-      <c r="H268" s="160"/>
-      <c r="I268" s="160"/>
-      <c r="J268" s="160"/>
+      <c r="D269" s="160"/>
+      <c r="E269" s="160"/>
+      <c r="F269" s="160"/>
+      <c r="G269" s="160"/>
+      <c r="H269" s="160"/>
+      <c r="I269" s="160"/>
+      <c r="J269" s="160"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8322,31 +8340,31 @@
         <v>153</v>
       </c>
       <c r="D24" s="181">
-        <f>Master!D54</f>
+        <f>Master!D55</f>
         <v>0</v>
       </c>
       <c r="E24" s="181">
-        <f>Master!E54</f>
+        <f>Master!E55</f>
         <v>0</v>
       </c>
       <c r="F24" s="181">
-        <f>Master!F54</f>
+        <f>Master!F55</f>
         <v>0</v>
       </c>
       <c r="G24" s="181">
-        <f>Master!G54</f>
+        <f>Master!G55</f>
         <v>0</v>
       </c>
       <c r="H24" s="181">
-        <f>Master!H54</f>
+        <f>Master!H55</f>
         <v>0</v>
       </c>
       <c r="I24" s="181">
-        <f>Master!I54</f>
+        <f>Master!I55</f>
         <v>0</v>
       </c>
       <c r="J24" s="181">
-        <f>Master!J54</f>
+        <f>Master!J55</f>
         <v>0</v>
       </c>
       <c r="K24" s="181"/>
@@ -8362,31 +8380,31 @@
         <v>154</v>
       </c>
       <c r="D25" s="181">
-        <f>Master!D55</f>
+        <f>Master!D56</f>
         <v>0</v>
       </c>
       <c r="E25" s="181">
-        <f>Master!E55</f>
+        <f>Master!E56</f>
         <v>0</v>
       </c>
       <c r="F25" s="181">
-        <f>Master!F55</f>
+        <f>Master!F56</f>
         <v>0</v>
       </c>
       <c r="G25" s="181">
-        <f>Master!G55</f>
+        <f>Master!G56</f>
         <v>0</v>
       </c>
       <c r="H25" s="181">
-        <f>Master!H55</f>
+        <f>Master!H56</f>
         <v>0</v>
       </c>
       <c r="I25" s="181">
-        <f>Master!I55</f>
+        <f>Master!I56</f>
         <v>0</v>
       </c>
       <c r="J25" s="181">
-        <f>Master!J55</f>
+        <f>Master!J56</f>
         <v>0</v>
       </c>
     </row>
@@ -8419,31 +8437,31 @@
         <v>156</v>
       </c>
       <c r="D27" s="224">
-        <f>Master!D57</f>
+        <f>Master!D58</f>
         <v>0</v>
       </c>
       <c r="E27" s="224">
-        <f>Master!E57</f>
+        <f>Master!E58</f>
         <v>0</v>
       </c>
       <c r="F27" s="224">
-        <f>Master!F57</f>
+        <f>Master!F58</f>
         <v>0</v>
       </c>
       <c r="G27" s="224">
-        <f>Master!G57</f>
+        <f>Master!G58</f>
         <v>0</v>
       </c>
       <c r="H27" s="224">
-        <f>Master!H57</f>
+        <f>Master!H58</f>
         <v>0</v>
       </c>
       <c r="I27" s="224">
-        <f>Master!I57</f>
+        <f>Master!I58</f>
         <v>0</v>
       </c>
       <c r="J27" s="224">
-        <f>Master!J57</f>
+        <f>Master!J58</f>
         <v>0</v>
       </c>
     </row>
@@ -8458,31 +8476,31 @@
         <v>157</v>
       </c>
       <c r="D28" s="224">
-        <f>Master!D64</f>
+        <f>Master!D65</f>
         <v>0</v>
       </c>
       <c r="E28" s="224">
-        <f>Master!E64</f>
+        <f>Master!E65</f>
         <v>0</v>
       </c>
       <c r="F28" s="224">
-        <f>Master!F64</f>
+        <f>Master!F65</f>
         <v>0</v>
       </c>
       <c r="G28" s="224">
-        <f>Master!G64</f>
+        <f>Master!G65</f>
         <v>0</v>
       </c>
       <c r="H28" s="224">
-        <f>Master!H64</f>
+        <f>Master!H65</f>
         <v>0</v>
       </c>
       <c r="I28" s="224">
-        <f>Master!I64</f>
+        <f>Master!I65</f>
         <v>0</v>
       </c>
       <c r="J28" s="224">
-        <f>Master!J64</f>
+        <f>Master!J65</f>
         <v>0</v>
       </c>
     </row>
@@ -8497,31 +8515,31 @@
         <v>158</v>
       </c>
       <c r="D29" s="224">
-        <f>Master!D65</f>
+        <f>Master!D66</f>
         <v>0</v>
       </c>
       <c r="E29" s="224">
-        <f>Master!E65</f>
+        <f>Master!E66</f>
         <v>0</v>
       </c>
       <c r="F29" s="224">
-        <f>Master!F65</f>
+        <f>Master!F66</f>
         <v>0</v>
       </c>
       <c r="G29" s="224">
-        <f>Master!G65</f>
+        <f>Master!G66</f>
         <v>0</v>
       </c>
       <c r="H29" s="224">
-        <f>Master!H65</f>
+        <f>Master!H66</f>
         <v>0</v>
       </c>
       <c r="I29" s="224">
-        <f>Master!I65</f>
+        <f>Master!I66</f>
         <v>0</v>
       </c>
       <c r="J29" s="224">
-        <f>Master!J65</f>
+        <f>Master!J66</f>
         <v>0</v>
       </c>
     </row>
@@ -8536,31 +8554,31 @@
         <v>159</v>
       </c>
       <c r="D30" s="224">
-        <f>Master!D72</f>
+        <f>Master!D73</f>
         <v>0</v>
       </c>
       <c r="E30" s="224">
-        <f>Master!E72</f>
+        <f>Master!E73</f>
         <v>0</v>
       </c>
       <c r="F30" s="224">
-        <f>Master!F72</f>
+        <f>Master!F73</f>
         <v>0</v>
       </c>
       <c r="G30" s="224">
-        <f>Master!G72</f>
+        <f>Master!G73</f>
         <v>0</v>
       </c>
       <c r="H30" s="224">
-        <f>Master!H72</f>
+        <f>Master!H73</f>
         <v>0</v>
       </c>
       <c r="I30" s="224">
-        <f>Master!I72</f>
+        <f>Master!I73</f>
         <v>0</v>
       </c>
       <c r="J30" s="224">
-        <f>Master!J72</f>
+        <f>Master!J73</f>
         <v>0</v>
       </c>
     </row>
@@ -8593,31 +8611,31 @@
         <v>161</v>
       </c>
       <c r="D32" s="181">
-        <f>Master!D80</f>
+        <f>Master!D81</f>
         <v>0</v>
       </c>
       <c r="E32" s="181">
-        <f>Master!E80</f>
+        <f>Master!E81</f>
         <v>0</v>
       </c>
       <c r="F32" s="181">
-        <f>Master!F80</f>
+        <f>Master!F81</f>
         <v>0</v>
       </c>
       <c r="G32" s="181">
-        <f>Master!G80</f>
+        <f>Master!G81</f>
         <v>0</v>
       </c>
       <c r="H32" s="181">
-        <f>Master!H80</f>
+        <f>Master!H81</f>
         <v>0</v>
       </c>
       <c r="I32" s="181">
-        <f>Master!I80</f>
+        <f>Master!I81</f>
         <v>0</v>
       </c>
       <c r="J32" s="181">
-        <f>Master!J80</f>
+        <f>Master!J81</f>
         <v>0</v>
       </c>
     </row>
@@ -8630,31 +8648,31 @@
         <v>162</v>
       </c>
       <c r="D33" s="181" t="e">
-        <f>Master!D81</f>
+        <f>Master!D82</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E33" s="181" t="e">
-        <f>Master!E81</f>
+        <f>Master!E82</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F33" s="181" t="e">
-        <f>Master!F81</f>
+        <f>Master!F82</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G33" s="181" t="e">
-        <f>Master!G81</f>
+        <f>Master!G82</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H33" s="181" t="e">
-        <f>Master!H81</f>
+        <f>Master!H82</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I33" s="181" t="e">
-        <f>Master!I81</f>
+        <f>Master!I82</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J33" s="181" t="e">
-        <f>Master!J81</f>
+        <f>Master!J82</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8667,31 +8685,31 @@
         <v>163</v>
       </c>
       <c r="D34" s="181" t="e">
-        <f>Master!D82</f>
+        <f>Master!D83</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E34" s="181" t="e">
-        <f>Master!E82</f>
+        <f>Master!E83</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F34" s="181" t="e">
-        <f>Master!F82</f>
+        <f>Master!F83</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G34" s="181" t="e">
-        <f>Master!G82</f>
+        <f>Master!G83</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H34" s="181" t="e">
-        <f>Master!H82</f>
+        <f>Master!H83</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I34" s="181" t="e">
-        <f>Master!I82</f>
+        <f>Master!I83</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J34" s="181" t="e">
-        <f>Master!J82</f>
+        <f>Master!J83</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8704,31 +8722,31 @@
         <v>164</v>
       </c>
       <c r="D35" s="254" t="e">
-        <f>Master!D83</f>
+        <f>Master!D84</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E35" s="254" t="e">
-        <f>Master!E83</f>
+        <f>Master!E84</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F35" s="254" t="e">
-        <f>Master!F83</f>
+        <f>Master!F84</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G35" s="254" t="e">
-        <f>Master!G83</f>
+        <f>Master!G84</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H35" s="254" t="e">
-        <f>Master!H83</f>
+        <f>Master!H84</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I35" s="254" t="e">
-        <f>Master!I83</f>
+        <f>Master!I84</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J35" s="254" t="e">
-        <f>Master!J83</f>
+        <f>Master!J84</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8752,31 +8770,31 @@
         <v>78</v>
       </c>
       <c r="D37" s="225">
-        <f>Master!D85</f>
+        <f>Master!D86</f>
         <v>0</v>
       </c>
       <c r="E37" s="225">
-        <f>Master!E85</f>
+        <f>Master!E86</f>
         <v>0</v>
       </c>
       <c r="F37" s="225">
-        <f>Master!F85</f>
+        <f>Master!F86</f>
         <v>0</v>
       </c>
       <c r="G37" s="225">
-        <f>Master!G85</f>
+        <f>Master!G86</f>
         <v>0</v>
       </c>
       <c r="H37" s="225">
-        <f>Master!H85</f>
+        <f>Master!H86</f>
         <v>0</v>
       </c>
       <c r="I37" s="225">
-        <f>Master!I85</f>
+        <f>Master!I86</f>
         <v>0</v>
       </c>
       <c r="J37" s="225">
-        <f>Master!J85</f>
+        <f>Master!J86</f>
         <v>0</v>
       </c>
     </row>
@@ -8789,31 +8807,31 @@
         <v>65</v>
       </c>
       <c r="D38" s="225">
-        <f>Master!D86</f>
+        <f>Master!D87</f>
         <v>0</v>
       </c>
       <c r="E38" s="225">
-        <f>Master!E86</f>
+        <f>Master!E87</f>
         <v>0</v>
       </c>
       <c r="F38" s="225">
-        <f>Master!F86</f>
+        <f>Master!F87</f>
         <v>0</v>
       </c>
       <c r="G38" s="225">
-        <f>Master!G86</f>
+        <f>Master!G87</f>
         <v>0</v>
       </c>
       <c r="H38" s="225">
-        <f>Master!H86</f>
+        <f>Master!H87</f>
         <v>0</v>
       </c>
       <c r="I38" s="225">
-        <f>Master!I86</f>
+        <f>Master!I87</f>
         <v>0</v>
       </c>
       <c r="J38" s="225">
-        <f>Master!J86</f>
+        <f>Master!J87</f>
         <v>0</v>
       </c>
     </row>
@@ -8844,31 +8862,31 @@
         <v>78</v>
       </c>
       <c r="D40" s="225">
-        <f>Master!D115</f>
+        <f>Master!D116</f>
         <v>0</v>
       </c>
       <c r="E40" s="225">
-        <f>Master!E115</f>
+        <f>Master!E116</f>
         <v>0</v>
       </c>
       <c r="F40" s="225">
-        <f>Master!F115</f>
+        <f>Master!F116</f>
         <v>0</v>
       </c>
       <c r="G40" s="225">
-        <f>Master!G115</f>
+        <f>Master!G116</f>
         <v>0</v>
       </c>
       <c r="H40" s="225">
-        <f>Master!H115</f>
+        <f>Master!H116</f>
         <v>0</v>
       </c>
       <c r="I40" s="225">
-        <f>Master!I115</f>
+        <f>Master!I116</f>
         <v>0</v>
       </c>
       <c r="J40" s="225">
-        <f>Master!J115</f>
+        <f>Master!J116</f>
         <v>0</v>
       </c>
     </row>
@@ -8881,31 +8899,31 @@
         <v>65</v>
       </c>
       <c r="D41" s="225">
-        <f>Master!D116</f>
+        <f>Master!D117</f>
         <v>0</v>
       </c>
       <c r="E41" s="225">
-        <f>Master!E116</f>
+        <f>Master!E117</f>
         <v>0</v>
       </c>
       <c r="F41" s="225">
-        <f>Master!F116</f>
+        <f>Master!F117</f>
         <v>0</v>
       </c>
       <c r="G41" s="225">
-        <f>Master!G116</f>
+        <f>Master!G117</f>
         <v>0</v>
       </c>
       <c r="H41" s="225">
-        <f>Master!H116</f>
+        <f>Master!H117</f>
         <v>0</v>
       </c>
       <c r="I41" s="225">
-        <f>Master!I116</f>
+        <f>Master!I117</f>
         <v>0</v>
       </c>
       <c r="J41" s="225">
-        <f>Master!J116</f>
+        <f>Master!J117</f>
         <v>0</v>
       </c>
     </row>
@@ -8936,31 +8954,31 @@
         <v>78</v>
       </c>
       <c r="D43" s="225">
-        <f>Master!D127</f>
+        <f>Master!D128</f>
         <v>0</v>
       </c>
       <c r="E43" s="225">
-        <f>Master!E127</f>
+        <f>Master!E128</f>
         <v>0</v>
       </c>
       <c r="F43" s="225">
-        <f>Master!F127</f>
+        <f>Master!F128</f>
         <v>0</v>
       </c>
       <c r="G43" s="225">
-        <f>Master!G127</f>
+        <f>Master!G128</f>
         <v>0</v>
       </c>
       <c r="H43" s="225">
-        <f>Master!H127</f>
+        <f>Master!H128</f>
         <v>0</v>
       </c>
       <c r="I43" s="225">
-        <f>Master!I127</f>
+        <f>Master!I128</f>
         <v>0</v>
       </c>
       <c r="J43" s="225">
-        <f>Master!J127</f>
+        <f>Master!J128</f>
         <v>0</v>
       </c>
     </row>
@@ -8973,31 +8991,31 @@
         <v>65</v>
       </c>
       <c r="D44" s="225">
-        <f>Master!D128</f>
+        <f>Master!D129</f>
         <v>0</v>
       </c>
       <c r="E44" s="225">
-        <f>Master!E128</f>
+        <f>Master!E129</f>
         <v>0</v>
       </c>
       <c r="F44" s="225">
-        <f>Master!F128</f>
+        <f>Master!F129</f>
         <v>0</v>
       </c>
       <c r="G44" s="225">
-        <f>Master!G128</f>
+        <f>Master!G129</f>
         <v>0</v>
       </c>
       <c r="H44" s="225">
-        <f>Master!H128</f>
+        <f>Master!H129</f>
         <v>0</v>
       </c>
       <c r="I44" s="225">
-        <f>Master!I128</f>
+        <f>Master!I129</f>
         <v>0</v>
       </c>
       <c r="J44" s="225">
-        <f>Master!J128</f>
+        <f>Master!J129</f>
         <v>0</v>
       </c>
     </row>
@@ -9028,31 +9046,31 @@
         <v>78</v>
       </c>
       <c r="D46" s="225">
-        <f>Master!D148</f>
+        <f>Master!D149</f>
         <v>0</v>
       </c>
       <c r="E46" s="225">
-        <f>Master!E148</f>
+        <f>Master!E149</f>
         <v>0</v>
       </c>
       <c r="F46" s="225">
-        <f>Master!F148</f>
+        <f>Master!F149</f>
         <v>0</v>
       </c>
       <c r="G46" s="225">
-        <f>Master!G148</f>
+        <f>Master!G149</f>
         <v>0</v>
       </c>
       <c r="H46" s="225">
-        <f>Master!H148</f>
+        <f>Master!H149</f>
         <v>0</v>
       </c>
       <c r="I46" s="225">
-        <f>Master!I148</f>
+        <f>Master!I149</f>
         <v>0</v>
       </c>
       <c r="J46" s="225">
-        <f>Master!J148</f>
+        <f>Master!J149</f>
         <v>0</v>
       </c>
     </row>
@@ -9065,31 +9083,31 @@
         <v>65</v>
       </c>
       <c r="D47" s="225">
-        <f>Master!D149</f>
+        <f>Master!D150</f>
         <v>0</v>
       </c>
       <c r="E47" s="225">
-        <f>Master!E149</f>
+        <f>Master!E150</f>
         <v>0</v>
       </c>
       <c r="F47" s="225">
-        <f>Master!F149</f>
+        <f>Master!F150</f>
         <v>0</v>
       </c>
       <c r="G47" s="225">
-        <f>Master!G149</f>
+        <f>Master!G150</f>
         <v>0</v>
       </c>
       <c r="H47" s="225">
-        <f>Master!H149</f>
+        <f>Master!H150</f>
         <v>0</v>
       </c>
       <c r="I47" s="225">
-        <f>Master!I149</f>
+        <f>Master!I150</f>
         <v>0</v>
       </c>
       <c r="J47" s="225">
-        <f>Master!J149</f>
+        <f>Master!J150</f>
         <v>0</v>
       </c>
     </row>
@@ -9120,31 +9138,31 @@
         <v>78</v>
       </c>
       <c r="D49" s="225">
-        <f>Master!D169</f>
+        <f>Master!D170</f>
         <v>0</v>
       </c>
       <c r="E49" s="225">
-        <f>Master!E169</f>
+        <f>Master!E170</f>
         <v>0</v>
       </c>
       <c r="F49" s="225">
-        <f>Master!F169</f>
+        <f>Master!F170</f>
         <v>0</v>
       </c>
       <c r="G49" s="225">
-        <f>Master!G169</f>
+        <f>Master!G170</f>
         <v>0</v>
       </c>
       <c r="H49" s="225">
-        <f>Master!H169</f>
+        <f>Master!H170</f>
         <v>0</v>
       </c>
       <c r="I49" s="225">
-        <f>Master!I169</f>
+        <f>Master!I170</f>
         <v>0</v>
       </c>
       <c r="J49" s="225">
-        <f>Master!J169</f>
+        <f>Master!J170</f>
         <v>0</v>
       </c>
     </row>
@@ -9157,31 +9175,31 @@
         <v>65</v>
       </c>
       <c r="D50" s="225">
-        <f>Master!D170</f>
+        <f>Master!D171</f>
         <v>0</v>
       </c>
       <c r="E50" s="225">
-        <f>Master!E170</f>
+        <f>Master!E171</f>
         <v>0</v>
       </c>
       <c r="F50" s="225">
-        <f>Master!F170</f>
+        <f>Master!F171</f>
         <v>0</v>
       </c>
       <c r="G50" s="225">
-        <f>Master!G170</f>
+        <f>Master!G171</f>
         <v>0</v>
       </c>
       <c r="H50" s="225">
-        <f>Master!H170</f>
+        <f>Master!H171</f>
         <v>0</v>
       </c>
       <c r="I50" s="225">
-        <f>Master!I170</f>
+        <f>Master!I171</f>
         <v>0</v>
       </c>
       <c r="J50" s="225">
-        <f>Master!J170</f>
+        <f>Master!J171</f>
         <v>0</v>
       </c>
     </row>
@@ -9196,31 +9214,31 @@
         <v>177</v>
       </c>
       <c r="D51" s="166">
-        <f>Master!D189</f>
+        <f>Master!D190</f>
         <v>0</v>
       </c>
       <c r="E51" s="166">
-        <f>Master!E189</f>
+        <f>Master!E190</f>
         <v>0</v>
       </c>
       <c r="F51" s="166">
-        <f>Master!F189</f>
+        <f>Master!F190</f>
         <v>0</v>
       </c>
       <c r="G51" s="166">
-        <f>Master!G189</f>
+        <f>Master!G190</f>
         <v>0</v>
       </c>
       <c r="H51" s="166">
-        <f>Master!H189</f>
+        <f>Master!H190</f>
         <v>0</v>
       </c>
       <c r="I51" s="166">
-        <f>Master!I189</f>
+        <f>Master!I190</f>
         <v>0</v>
       </c>
       <c r="J51" s="166">
-        <f>Master!J189</f>
+        <f>Master!J190</f>
         <v>0</v>
       </c>
     </row>
@@ -9235,31 +9253,31 @@
         <v>179</v>
       </c>
       <c r="D52" s="166" t="e">
-        <f>Master!D190</f>
+        <f>Master!D191</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E52" s="166" t="e">
-        <f>Master!E190</f>
+        <f>Master!E191</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F52" s="166" t="e">
-        <f>Master!F190</f>
+        <f>Master!F191</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G52" s="166" t="e">
-        <f>Master!G190</f>
+        <f>Master!G191</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H52" s="166" t="e">
-        <f>Master!H190</f>
+        <f>Master!H191</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I52" s="166" t="e">
-        <f>Master!I190</f>
+        <f>Master!I191</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J52" s="166" t="e">
-        <f>Master!J190</f>
+        <f>Master!J191</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9569,27 +9587,27 @@
       </c>
       <c r="D17" s="209"/>
       <c r="E17" s="209">
-        <f>Master!E237-Master!$D$237</f>
+        <f>Master!E238-Master!$D$238</f>
         <v>0</v>
       </c>
       <c r="F17" s="209">
-        <f>Master!F237-Master!$D$237</f>
+        <f>Master!F238-Master!$D$238</f>
         <v>0</v>
       </c>
       <c r="G17" s="209">
-        <f>Master!G237-Master!$D$237</f>
+        <f>Master!G238-Master!$D$238</f>
         <v>0</v>
       </c>
       <c r="H17" s="209">
-        <f>Master!H237-Master!$D$237</f>
+        <f>Master!H238-Master!$D$238</f>
         <v>0</v>
       </c>
       <c r="I17" s="209">
-        <f>Master!I237-Master!$D$237</f>
+        <f>Master!I238-Master!$D$238</f>
         <v>0</v>
       </c>
       <c r="J17" s="209">
-        <f>Master!J237-Master!$D$237</f>
+        <f>Master!J238-Master!$D$238</f>
         <v>0</v>
       </c>
       <c r="K17" s="209"/>
@@ -9605,31 +9623,31 @@
         <v>187</v>
       </c>
       <c r="D18" s="225">
-        <f>Master!D244</f>
+        <f>Master!D245</f>
         <v>0</v>
       </c>
       <c r="E18" s="225">
-        <f>Master!E244</f>
+        <f>Master!E245</f>
         <v>0</v>
       </c>
       <c r="F18" s="225">
-        <f>Master!F244</f>
+        <f>Master!F245</f>
         <v>0</v>
       </c>
       <c r="G18" s="225">
-        <f>Master!G244</f>
+        <f>Master!G245</f>
         <v>0</v>
       </c>
       <c r="H18" s="225">
-        <f>Master!H244</f>
+        <f>Master!H245</f>
         <v>0</v>
       </c>
       <c r="I18" s="225">
-        <f>Master!I244</f>
+        <f>Master!I245</f>
         <v>0</v>
       </c>
       <c r="J18" s="225">
-        <f>Master!J244</f>
+        <f>Master!J245</f>
         <v>0</v>
       </c>
       <c r="K18" s="225"/>
@@ -9645,31 +9663,31 @@
         <v>189</v>
       </c>
       <c r="D19" s="225">
-        <f>Master!D251</f>
+        <f>Master!D252</f>
         <v>0</v>
       </c>
       <c r="E19" s="225">
-        <f>Master!E251</f>
+        <f>Master!E252</f>
         <v>0</v>
       </c>
       <c r="F19" s="225">
-        <f>Master!F251</f>
+        <f>Master!F252</f>
         <v>0</v>
       </c>
       <c r="G19" s="225">
-        <f>Master!G251</f>
+        <f>Master!G252</f>
         <v>0</v>
       </c>
       <c r="H19" s="225">
-        <f>Master!H251</f>
+        <f>Master!H252</f>
         <v>0</v>
       </c>
       <c r="I19" s="225">
-        <f>Master!I251</f>
+        <f>Master!I252</f>
         <v>0</v>
       </c>
       <c r="J19" s="225">
-        <f>Master!J251</f>
+        <f>Master!J252</f>
         <v>0</v>
       </c>
       <c r="K19" s="225"/>
@@ -9844,16 +9862,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L1" s="259" t="s">
+      <c r="L1" s="260" t="s">
         <v>309</v>
       </c>
-      <c r="M1" s="259"/>
-      <c r="N1" s="259"/>
-      <c r="Q1" s="259" t="s">
+      <c r="M1" s="260"/>
+      <c r="N1" s="260"/>
+      <c r="Q1" s="260" t="s">
         <v>310</v>
       </c>
-      <c r="R1" s="259"/>
-      <c r="S1" s="259"/>
+      <c r="R1" s="260"/>
+      <c r="S1" s="260"/>
     </row>
     <row r="2" spans="1:19" s="243" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="153" t="s">
@@ -10754,27 +10772,27 @@
       </c>
       <c r="D30" s="209"/>
       <c r="E30" s="209">
-        <f>Master!E238-Master!$D238</f>
+        <f>Master!E239-Master!$D239</f>
         <v>0</v>
       </c>
       <c r="F30" s="209">
-        <f>Master!F238-Master!$D238</f>
+        <f>Master!F239-Master!$D239</f>
         <v>0</v>
       </c>
       <c r="G30" s="209">
-        <f>Master!G238-Master!$D238</f>
+        <f>Master!G239-Master!$D239</f>
         <v>0</v>
       </c>
       <c r="H30" s="209">
-        <f>Master!H238-Master!$D238</f>
+        <f>Master!H239-Master!$D239</f>
         <v>0</v>
       </c>
       <c r="I30" s="209">
-        <f>Master!I238-Master!$D238</f>
+        <f>Master!I239-Master!$D239</f>
         <v>0</v>
       </c>
       <c r="J30" s="209">
-        <f>Master!J238-Master!$D238</f>
+        <f>Master!J239-Master!$D239</f>
         <v>0</v>
       </c>
       <c r="P30" s="247" t="s">
@@ -10801,27 +10819,27 @@
       </c>
       <c r="D31" s="209"/>
       <c r="E31" s="209">
-        <f>Master!E239-Master!$D239</f>
+        <f>Master!E240-Master!$D240</f>
         <v>0</v>
       </c>
       <c r="F31" s="209">
-        <f>Master!F239-Master!$D239</f>
+        <f>Master!F240-Master!$D240</f>
         <v>0</v>
       </c>
       <c r="G31" s="209">
-        <f>Master!G239-Master!$D239</f>
+        <f>Master!G240-Master!$D240</f>
         <v>0</v>
       </c>
       <c r="H31" s="209">
-        <f>Master!H239-Master!$D239</f>
+        <f>Master!H240-Master!$D240</f>
         <v>0</v>
       </c>
       <c r="I31" s="209">
-        <f>Master!I239-Master!$D239</f>
+        <f>Master!I240-Master!$D240</f>
         <v>0</v>
       </c>
       <c r="J31" s="209">
-        <f>Master!J239-Master!$D239</f>
+        <f>Master!J240-Master!$D240</f>
         <v>0</v>
       </c>
       <c r="Q31" s="181"/>
@@ -10836,27 +10854,27 @@
       </c>
       <c r="D32" s="209"/>
       <c r="E32" s="209">
-        <f>Master!E240-Master!$D240</f>
+        <f>Master!E241-Master!$D241</f>
         <v>0</v>
       </c>
       <c r="F32" s="209">
-        <f>Master!F240-Master!$D240</f>
+        <f>Master!F241-Master!$D241</f>
         <v>0</v>
       </c>
       <c r="G32" s="209">
-        <f>Master!G240-Master!$D240</f>
+        <f>Master!G241-Master!$D241</f>
         <v>0</v>
       </c>
       <c r="H32" s="209">
-        <f>Master!H240-Master!$D240</f>
+        <f>Master!H241-Master!$D241</f>
         <v>0</v>
       </c>
       <c r="I32" s="209">
-        <f>Master!I240-Master!$D240</f>
+        <f>Master!I241-Master!$D241</f>
         <v>0</v>
       </c>
       <c r="J32" s="209">
-        <f>Master!J240-Master!$D240</f>
+        <f>Master!J241-Master!$D241</f>
         <v>0</v>
       </c>
       <c r="P32" s="249" t="s">
@@ -10883,27 +10901,27 @@
       </c>
       <c r="D33" s="209"/>
       <c r="E33" s="209">
-        <f>Master!E241-Master!$D241</f>
+        <f>Master!E242-Master!$D242</f>
         <v>0</v>
       </c>
       <c r="F33" s="209">
-        <f>Master!F241-Master!$D241</f>
+        <f>Master!F242-Master!$D242</f>
         <v>0</v>
       </c>
       <c r="G33" s="209">
-        <f>Master!G241-Master!$D241</f>
+        <f>Master!G242-Master!$D242</f>
         <v>0</v>
       </c>
       <c r="H33" s="209">
-        <f>Master!H241-Master!$D241</f>
+        <f>Master!H242-Master!$D242</f>
         <v>0</v>
       </c>
       <c r="I33" s="209">
-        <f>Master!I241-Master!$D241</f>
+        <f>Master!I242-Master!$D242</f>
         <v>0</v>
       </c>
       <c r="J33" s="209">
-        <f>Master!J241-Master!$D241</f>
+        <f>Master!J242-Master!$D242</f>
         <v>0</v>
       </c>
       <c r="Q33" s="181"/>
@@ -10918,27 +10936,27 @@
       </c>
       <c r="D34" s="209"/>
       <c r="E34" s="209">
-        <f>Master!E242-Master!$D242</f>
+        <f>Master!E243-Master!$D243</f>
         <v>0</v>
       </c>
       <c r="F34" s="209">
-        <f>Master!F242-Master!$D242</f>
+        <f>Master!F243-Master!$D243</f>
         <v>0</v>
       </c>
       <c r="G34" s="209">
-        <f>Master!G242-Master!$D242</f>
+        <f>Master!G243-Master!$D243</f>
         <v>0</v>
       </c>
       <c r="H34" s="209">
-        <f>Master!H242-Master!$D242</f>
+        <f>Master!H243-Master!$D243</f>
         <v>0</v>
       </c>
       <c r="I34" s="209">
-        <f>Master!I242-Master!$D242</f>
+        <f>Master!I243-Master!$D243</f>
         <v>0</v>
       </c>
       <c r="J34" s="209">
-        <f>Master!J242-Master!$D242</f>
+        <f>Master!J243-Master!$D243</f>
         <v>0</v>
       </c>
       <c r="P34" s="149" t="s">
@@ -10965,27 +10983,27 @@
       </c>
       <c r="D35" s="209"/>
       <c r="E35" s="209">
-        <f>Master!E243-Master!$D243</f>
+        <f>Master!E244-Master!$D244</f>
         <v>0</v>
       </c>
       <c r="F35" s="209">
-        <f>Master!F243-Master!$D243</f>
+        <f>Master!F244-Master!$D244</f>
         <v>0</v>
       </c>
       <c r="G35" s="209">
-        <f>Master!G243-Master!$D243</f>
+        <f>Master!G244-Master!$D244</f>
         <v>0</v>
       </c>
       <c r="H35" s="209">
-        <f>Master!H243-Master!$D243</f>
+        <f>Master!H244-Master!$D244</f>
         <v>0</v>
       </c>
       <c r="I35" s="209">
-        <f>Master!I243-Master!$D243</f>
+        <f>Master!I244-Master!$D244</f>
         <v>0</v>
       </c>
       <c r="J35" s="209">
-        <f>Master!J243-Master!$D243</f>
+        <f>Master!J244-Master!$D244</f>
         <v>0</v>
       </c>
     </row>
@@ -11017,31 +11035,31 @@
         <v>193</v>
       </c>
       <c r="D37" s="225">
-        <f>Master!D58</f>
+        <f>Master!D59</f>
         <v>0</v>
       </c>
       <c r="E37" s="225">
-        <f>Master!E58</f>
+        <f>Master!E59</f>
         <v>0</v>
       </c>
       <c r="F37" s="225">
-        <f>Master!F58</f>
+        <f>Master!F59</f>
         <v>0</v>
       </c>
       <c r="G37" s="225">
-        <f>Master!G58</f>
+        <f>Master!G59</f>
         <v>0</v>
       </c>
       <c r="H37" s="225">
-        <f>Master!H58</f>
+        <f>Master!H59</f>
         <v>0</v>
       </c>
       <c r="I37" s="225">
-        <f>Master!I58</f>
+        <f>Master!I59</f>
         <v>0</v>
       </c>
       <c r="J37" s="225">
-        <f>Master!J58</f>
+        <f>Master!J59</f>
         <v>0</v>
       </c>
       <c r="L37" s="251" t="e">
@@ -11079,31 +11097,31 @@
         <v>198</v>
       </c>
       <c r="D38" s="225">
-        <f>Master!D59</f>
+        <f>Master!D60</f>
         <v>0</v>
       </c>
       <c r="E38" s="225">
-        <f>Master!E59</f>
+        <f>Master!E60</f>
         <v>0</v>
       </c>
       <c r="F38" s="225">
-        <f>Master!F59</f>
+        <f>Master!F60</f>
         <v>0</v>
       </c>
       <c r="G38" s="225">
-        <f>Master!G59</f>
+        <f>Master!G60</f>
         <v>0</v>
       </c>
       <c r="H38" s="225">
-        <f>Master!H59</f>
+        <f>Master!H60</f>
         <v>0</v>
       </c>
       <c r="I38" s="225">
-        <f>Master!I59</f>
+        <f>Master!I60</f>
         <v>0</v>
       </c>
       <c r="J38" s="225">
-        <f>Master!J59</f>
+        <f>Master!J60</f>
         <v>0</v>
       </c>
       <c r="L38" s="251" t="e">
@@ -11129,31 +11147,31 @@
         <v>47</v>
       </c>
       <c r="D39" s="225">
-        <f>Master!D60</f>
+        <f>Master!D61</f>
         <v>0</v>
       </c>
       <c r="E39" s="225">
-        <f>Master!E60</f>
+        <f>Master!E61</f>
         <v>0</v>
       </c>
       <c r="F39" s="225">
-        <f>Master!F60</f>
+        <f>Master!F61</f>
         <v>0</v>
       </c>
       <c r="G39" s="225">
-        <f>Master!G60</f>
+        <f>Master!G61</f>
         <v>0</v>
       </c>
       <c r="H39" s="225">
-        <f>Master!H60</f>
+        <f>Master!H61</f>
         <v>0</v>
       </c>
       <c r="I39" s="225">
-        <f>Master!I60</f>
+        <f>Master!I61</f>
         <v>0</v>
       </c>
       <c r="J39" s="225">
-        <f>Master!J60</f>
+        <f>Master!J61</f>
         <v>0</v>
       </c>
       <c r="L39" s="251" t="e">
@@ -11191,31 +11209,31 @@
         <v>48</v>
       </c>
       <c r="D40" s="225">
-        <f>Master!D61</f>
+        <f>Master!D62</f>
         <v>0</v>
       </c>
       <c r="E40" s="225">
-        <f>Master!E61</f>
+        <f>Master!E62</f>
         <v>0</v>
       </c>
       <c r="F40" s="225">
-        <f>Master!F61</f>
+        <f>Master!F62</f>
         <v>0</v>
       </c>
       <c r="G40" s="225">
-        <f>Master!G61</f>
+        <f>Master!G62</f>
         <v>0</v>
       </c>
       <c r="H40" s="225">
-        <f>Master!H61</f>
+        <f>Master!H62</f>
         <v>0</v>
       </c>
       <c r="I40" s="225">
-        <f>Master!I61</f>
+        <f>Master!I62</f>
         <v>0</v>
       </c>
       <c r="J40" s="225">
-        <f>Master!J61</f>
+        <f>Master!J62</f>
         <v>0</v>
       </c>
       <c r="L40" s="251" t="e">
@@ -11241,31 +11259,31 @@
         <v>49</v>
       </c>
       <c r="D41" s="225">
-        <f>Master!D62</f>
+        <f>Master!D63</f>
         <v>0</v>
       </c>
       <c r="E41" s="225">
-        <f>Master!E62</f>
+        <f>Master!E63</f>
         <v>0</v>
       </c>
       <c r="F41" s="225">
-        <f>Master!F62</f>
+        <f>Master!F63</f>
         <v>0</v>
       </c>
       <c r="G41" s="225">
-        <f>Master!G62</f>
+        <f>Master!G63</f>
         <v>0</v>
       </c>
       <c r="H41" s="225">
-        <f>Master!H62</f>
+        <f>Master!H63</f>
         <v>0</v>
       </c>
       <c r="I41" s="225">
-        <f>Master!I62</f>
+        <f>Master!I63</f>
         <v>0</v>
       </c>
       <c r="J41" s="225">
-        <f>Master!J62</f>
+        <f>Master!J63</f>
         <v>0</v>
       </c>
       <c r="L41" s="251" t="e">
@@ -11303,31 +11321,31 @@
         <v>50</v>
       </c>
       <c r="D42" s="225">
-        <f>Master!D63</f>
+        <f>Master!D64</f>
         <v>0</v>
       </c>
       <c r="E42" s="225">
-        <f>Master!E63</f>
+        <f>Master!E64</f>
         <v>0</v>
       </c>
       <c r="F42" s="225">
-        <f>Master!F63</f>
+        <f>Master!F64</f>
         <v>0</v>
       </c>
       <c r="G42" s="225">
-        <f>Master!G63</f>
+        <f>Master!G64</f>
         <v>0</v>
       </c>
       <c r="H42" s="225">
-        <f>Master!H63</f>
+        <f>Master!H64</f>
         <v>0</v>
       </c>
       <c r="I42" s="225">
-        <f>Master!I63</f>
+        <f>Master!I64</f>
         <v>0</v>
       </c>
       <c r="J42" s="225">
-        <f>Master!J63</f>
+        <f>Master!J64</f>
         <v>0</v>
       </c>
       <c r="L42" s="251" t="e">
@@ -11374,31 +11392,31 @@
         <v>193</v>
       </c>
       <c r="D44" s="225">
-        <f>Master!D66</f>
+        <f>Master!D67</f>
         <v>0</v>
       </c>
       <c r="E44" s="225">
-        <f>Master!E66</f>
+        <f>Master!E67</f>
         <v>0</v>
       </c>
       <c r="F44" s="225">
-        <f>Master!F66</f>
+        <f>Master!F67</f>
         <v>0</v>
       </c>
       <c r="G44" s="225">
-        <f>Master!G66</f>
+        <f>Master!G67</f>
         <v>0</v>
       </c>
       <c r="H44" s="225">
-        <f>Master!H66</f>
+        <f>Master!H67</f>
         <v>0</v>
       </c>
       <c r="I44" s="225">
-        <f>Master!I66</f>
+        <f>Master!I67</f>
         <v>0</v>
       </c>
       <c r="J44" s="225">
-        <f>Master!J66</f>
+        <f>Master!J67</f>
         <v>0</v>
       </c>
       <c r="L44" s="251" t="e">
@@ -11436,31 +11454,31 @@
         <v>198</v>
       </c>
       <c r="D45" s="225">
-        <f>Master!D67</f>
+        <f>Master!D68</f>
         <v>0</v>
       </c>
       <c r="E45" s="225">
-        <f>Master!E67</f>
+        <f>Master!E68</f>
         <v>0</v>
       </c>
       <c r="F45" s="225">
-        <f>Master!F67</f>
+        <f>Master!F68</f>
         <v>0</v>
       </c>
       <c r="G45" s="225">
-        <f>Master!G67</f>
+        <f>Master!G68</f>
         <v>0</v>
       </c>
       <c r="H45" s="225">
-        <f>Master!H67</f>
+        <f>Master!H68</f>
         <v>0</v>
       </c>
       <c r="I45" s="225">
-        <f>Master!I67</f>
+        <f>Master!I68</f>
         <v>0</v>
       </c>
       <c r="J45" s="225">
-        <f>Master!J67</f>
+        <f>Master!J68</f>
         <v>0</v>
       </c>
       <c r="L45" s="251" t="e">
@@ -11486,31 +11504,31 @@
         <v>47</v>
       </c>
       <c r="D46" s="225">
-        <f>Master!D68</f>
+        <f>Master!D69</f>
         <v>0</v>
       </c>
       <c r="E46" s="225">
-        <f>Master!E68</f>
+        <f>Master!E69</f>
         <v>0</v>
       </c>
       <c r="F46" s="225">
-        <f>Master!F68</f>
+        <f>Master!F69</f>
         <v>0</v>
       </c>
       <c r="G46" s="225">
-        <f>Master!G68</f>
+        <f>Master!G69</f>
         <v>0</v>
       </c>
       <c r="H46" s="225">
-        <f>Master!H68</f>
+        <f>Master!H69</f>
         <v>0</v>
       </c>
       <c r="I46" s="225">
-        <f>Master!I68</f>
+        <f>Master!I69</f>
         <v>0</v>
       </c>
       <c r="J46" s="225">
-        <f>Master!J68</f>
+        <f>Master!J69</f>
         <v>0</v>
       </c>
       <c r="L46" s="251" t="e">
@@ -11548,31 +11566,31 @@
         <v>48</v>
       </c>
       <c r="D47" s="225">
-        <f>Master!D69</f>
+        <f>Master!D70</f>
         <v>0</v>
       </c>
       <c r="E47" s="225">
-        <f>Master!E69</f>
+        <f>Master!E70</f>
         <v>0</v>
       </c>
       <c r="F47" s="225">
-        <f>Master!F69</f>
+        <f>Master!F70</f>
         <v>0</v>
       </c>
       <c r="G47" s="225">
-        <f>Master!G69</f>
+        <f>Master!G70</f>
         <v>0</v>
       </c>
       <c r="H47" s="225">
-        <f>Master!H69</f>
+        <f>Master!H70</f>
         <v>0</v>
       </c>
       <c r="I47" s="225">
-        <f>Master!I69</f>
+        <f>Master!I70</f>
         <v>0</v>
       </c>
       <c r="J47" s="225">
-        <f>Master!J69</f>
+        <f>Master!J70</f>
         <v>0</v>
       </c>
       <c r="L47" s="251" t="e">
@@ -11598,31 +11616,31 @@
         <v>49</v>
       </c>
       <c r="D48" s="225">
-        <f>Master!D70</f>
+        <f>Master!D71</f>
         <v>0</v>
       </c>
       <c r="E48" s="225">
-        <f>Master!E70</f>
+        <f>Master!E71</f>
         <v>0</v>
       </c>
       <c r="F48" s="225">
-        <f>Master!F70</f>
+        <f>Master!F71</f>
         <v>0</v>
       </c>
       <c r="G48" s="225">
-        <f>Master!G70</f>
+        <f>Master!G71</f>
         <v>0</v>
       </c>
       <c r="H48" s="225">
-        <f>Master!H70</f>
+        <f>Master!H71</f>
         <v>0</v>
       </c>
       <c r="I48" s="225">
-        <f>Master!I70</f>
+        <f>Master!I71</f>
         <v>0</v>
       </c>
       <c r="J48" s="225">
-        <f>Master!J70</f>
+        <f>Master!J71</f>
         <v>0</v>
       </c>
       <c r="L48" s="251" t="e">
@@ -11660,31 +11678,31 @@
         <v>50</v>
       </c>
       <c r="D49" s="225">
-        <f>Master!D71</f>
+        <f>Master!D72</f>
         <v>0</v>
       </c>
       <c r="E49" s="225">
-        <f>Master!E71</f>
+        <f>Master!E72</f>
         <v>0</v>
       </c>
       <c r="F49" s="225">
-        <f>Master!F71</f>
+        <f>Master!F72</f>
         <v>0</v>
       </c>
       <c r="G49" s="225">
-        <f>Master!G71</f>
+        <f>Master!G72</f>
         <v>0</v>
       </c>
       <c r="H49" s="225">
-        <f>Master!H71</f>
+        <f>Master!H72</f>
         <v>0</v>
       </c>
       <c r="I49" s="225">
-        <f>Master!I71</f>
+        <f>Master!I72</f>
         <v>0</v>
       </c>
       <c r="J49" s="225">
-        <f>Master!J71</f>
+        <f>Master!J72</f>
         <v>0</v>
       </c>
       <c r="L49" s="251" t="e">
@@ -11962,31 +11980,31 @@
         <v>193</v>
       </c>
       <c r="D58" s="166">
-        <f>Master!D245</f>
+        <f>Master!D246</f>
         <v>0</v>
       </c>
       <c r="E58" s="166">
-        <f>Master!E245</f>
+        <f>Master!E246</f>
         <v>0</v>
       </c>
       <c r="F58" s="166">
-        <f>Master!F245</f>
+        <f>Master!F246</f>
         <v>0</v>
       </c>
       <c r="G58" s="166">
-        <f>Master!G245</f>
+        <f>Master!G246</f>
         <v>0</v>
       </c>
       <c r="H58" s="166">
-        <f>Master!H245</f>
+        <f>Master!H246</f>
         <v>0</v>
       </c>
       <c r="I58" s="166">
-        <f>Master!I245</f>
+        <f>Master!I246</f>
         <v>0</v>
       </c>
       <c r="J58" s="166">
-        <f>Master!J245</f>
+        <f>Master!J246</f>
         <v>0</v>
       </c>
       <c r="L58" s="251" t="e">
@@ -12024,31 +12042,31 @@
         <v>198</v>
       </c>
       <c r="D59" s="166">
-        <f>Master!D246</f>
+        <f>Master!D247</f>
         <v>0</v>
       </c>
       <c r="E59" s="166">
-        <f>Master!E246</f>
+        <f>Master!E247</f>
         <v>0</v>
       </c>
       <c r="F59" s="166">
-        <f>Master!F246</f>
+        <f>Master!F247</f>
         <v>0</v>
       </c>
       <c r="G59" s="166">
-        <f>Master!G246</f>
+        <f>Master!G247</f>
         <v>0</v>
       </c>
       <c r="H59" s="166">
-        <f>Master!H246</f>
+        <f>Master!H247</f>
         <v>0</v>
       </c>
       <c r="I59" s="166">
-        <f>Master!I246</f>
+        <f>Master!I247</f>
         <v>0</v>
       </c>
       <c r="J59" s="166">
-        <f>Master!J246</f>
+        <f>Master!J247</f>
         <v>0</v>
       </c>
       <c r="L59" s="251" t="e">
@@ -12074,31 +12092,31 @@
         <v>47</v>
       </c>
       <c r="D60" s="166">
-        <f>Master!D247</f>
+        <f>Master!D248</f>
         <v>0</v>
       </c>
       <c r="E60" s="166">
-        <f>Master!E247</f>
+        <f>Master!E248</f>
         <v>0</v>
       </c>
       <c r="F60" s="166">
-        <f>Master!F247</f>
+        <f>Master!F248</f>
         <v>0</v>
       </c>
       <c r="G60" s="166">
-        <f>Master!G247</f>
+        <f>Master!G248</f>
         <v>0</v>
       </c>
       <c r="H60" s="166">
-        <f>Master!H247</f>
+        <f>Master!H248</f>
         <v>0</v>
       </c>
       <c r="I60" s="166">
-        <f>Master!I247</f>
+        <f>Master!I248</f>
         <v>0</v>
       </c>
       <c r="J60" s="166">
-        <f>Master!J247</f>
+        <f>Master!J248</f>
         <v>0</v>
       </c>
       <c r="L60" s="251" t="e">
@@ -12136,31 +12154,31 @@
         <v>48</v>
       </c>
       <c r="D61" s="166">
-        <f>Master!D248</f>
+        <f>Master!D249</f>
         <v>0</v>
       </c>
       <c r="E61" s="166">
-        <f>Master!E248</f>
+        <f>Master!E249</f>
         <v>0</v>
       </c>
       <c r="F61" s="166">
-        <f>Master!F248</f>
+        <f>Master!F249</f>
         <v>0</v>
       </c>
       <c r="G61" s="166">
-        <f>Master!G248</f>
+        <f>Master!G249</f>
         <v>0</v>
       </c>
       <c r="H61" s="166">
-        <f>Master!H248</f>
+        <f>Master!H249</f>
         <v>0</v>
       </c>
       <c r="I61" s="166">
-        <f>Master!I248</f>
+        <f>Master!I249</f>
         <v>0</v>
       </c>
       <c r="J61" s="166">
-        <f>Master!J248</f>
+        <f>Master!J249</f>
         <v>0</v>
       </c>
       <c r="L61" s="251" t="e">
@@ -12186,31 +12204,31 @@
         <v>49</v>
       </c>
       <c r="D62" s="166">
-        <f>Master!D249</f>
+        <f>Master!D250</f>
         <v>0</v>
       </c>
       <c r="E62" s="166">
-        <f>Master!E249</f>
+        <f>Master!E250</f>
         <v>0</v>
       </c>
       <c r="F62" s="166">
-        <f>Master!F249</f>
+        <f>Master!F250</f>
         <v>0</v>
       </c>
       <c r="G62" s="166">
-        <f>Master!G249</f>
+        <f>Master!G250</f>
         <v>0</v>
       </c>
       <c r="H62" s="166">
-        <f>Master!H249</f>
+        <f>Master!H250</f>
         <v>0</v>
       </c>
       <c r="I62" s="166">
-        <f>Master!I249</f>
+        <f>Master!I250</f>
         <v>0</v>
       </c>
       <c r="J62" s="166">
-        <f>Master!J249</f>
+        <f>Master!J250</f>
         <v>0</v>
       </c>
       <c r="L62" s="251" t="e">
@@ -12248,31 +12266,31 @@
         <v>50</v>
       </c>
       <c r="D63" s="166">
-        <f>Master!D250</f>
+        <f>Master!D251</f>
         <v>0</v>
       </c>
       <c r="E63" s="166">
-        <f>Master!E250</f>
+        <f>Master!E251</f>
         <v>0</v>
       </c>
       <c r="F63" s="166">
-        <f>Master!F250</f>
+        <f>Master!F251</f>
         <v>0</v>
       </c>
       <c r="G63" s="166">
-        <f>Master!G250</f>
+        <f>Master!G251</f>
         <v>0</v>
       </c>
       <c r="H63" s="166">
-        <f>Master!H250</f>
+        <f>Master!H251</f>
         <v>0</v>
       </c>
       <c r="I63" s="166">
-        <f>Master!I250</f>
+        <f>Master!I251</f>
         <v>0</v>
       </c>
       <c r="J63" s="166">
-        <f>Master!J250</f>
+        <f>Master!J251</f>
         <v>0</v>
       </c>
       <c r="L63" s="251" t="e">
@@ -13046,31 +13064,31 @@
         <v>313</v>
       </c>
       <c r="D79" s="252">
-        <f>Master!D88</f>
+        <f>Master!D89</f>
         <v>0</v>
       </c>
       <c r="E79" s="252">
-        <f>Master!E88</f>
+        <f>Master!E89</f>
         <v>0</v>
       </c>
       <c r="F79" s="252">
-        <f>Master!F88</f>
+        <f>Master!F89</f>
         <v>0</v>
       </c>
       <c r="G79" s="252">
-        <f>Master!G88</f>
+        <f>Master!G89</f>
         <v>0</v>
       </c>
       <c r="H79" s="252">
-        <f>Master!H88</f>
+        <f>Master!H89</f>
         <v>0</v>
       </c>
       <c r="I79" s="252">
-        <f>Master!I88</f>
+        <f>Master!I89</f>
         <v>0</v>
       </c>
       <c r="J79" s="252">
-        <f>Master!J88</f>
+        <f>Master!J89</f>
         <v>0</v>
       </c>
       <c r="L79" s="251" t="e">
@@ -13110,31 +13128,31 @@
         <v>314</v>
       </c>
       <c r="D80" s="252">
-        <f>Master!D91</f>
+        <f>Master!D92</f>
         <v>0</v>
       </c>
       <c r="E80" s="252">
-        <f>Master!E91</f>
+        <f>Master!E92</f>
         <v>0</v>
       </c>
       <c r="F80" s="252">
-        <f>Master!F91</f>
+        <f>Master!F92</f>
         <v>0</v>
       </c>
       <c r="G80" s="252">
-        <f>Master!G91</f>
+        <f>Master!G92</f>
         <v>0</v>
       </c>
       <c r="H80" s="252">
-        <f>Master!H91</f>
+        <f>Master!H92</f>
         <v>0</v>
       </c>
       <c r="I80" s="252">
-        <f>Master!I91</f>
+        <f>Master!I92</f>
         <v>0</v>
       </c>
       <c r="J80" s="252">
-        <f>Master!J91</f>
+        <f>Master!J92</f>
         <v>0</v>
       </c>
       <c r="L80" s="251" t="e">
@@ -13174,31 +13192,31 @@
         <v>215</v>
       </c>
       <c r="D81" s="252">
-        <f>Master!D89</f>
+        <f>Master!D90</f>
         <v>0</v>
       </c>
       <c r="E81" s="252">
-        <f>Master!E89</f>
+        <f>Master!E90</f>
         <v>0</v>
       </c>
       <c r="F81" s="252">
-        <f>Master!F89</f>
+        <f>Master!F90</f>
         <v>0</v>
       </c>
       <c r="G81" s="252">
-        <f>Master!G89</f>
+        <f>Master!G90</f>
         <v>0</v>
       </c>
       <c r="H81" s="252">
-        <f>Master!H89</f>
+        <f>Master!H90</f>
         <v>0</v>
       </c>
       <c r="I81" s="252">
-        <f>Master!I89</f>
+        <f>Master!I90</f>
         <v>0</v>
       </c>
       <c r="J81" s="252">
-        <f>Master!J89</f>
+        <f>Master!J90</f>
         <v>0</v>
       </c>
       <c r="L81" s="251" t="e">
@@ -13238,31 +13256,31 @@
         <v>216</v>
       </c>
       <c r="D82" s="252">
-        <f>Master!D92</f>
+        <f>Master!D93</f>
         <v>0</v>
       </c>
       <c r="E82" s="252">
-        <f>Master!E92</f>
+        <f>Master!E93</f>
         <v>0</v>
       </c>
       <c r="F82" s="252">
-        <f>Master!F92</f>
+        <f>Master!F93</f>
         <v>0</v>
       </c>
       <c r="G82" s="252">
-        <f>Master!G92</f>
+        <f>Master!G93</f>
         <v>0</v>
       </c>
       <c r="H82" s="252">
-        <f>Master!H92</f>
+        <f>Master!H93</f>
         <v>0</v>
       </c>
       <c r="I82" s="252">
-        <f>Master!I92</f>
+        <f>Master!I93</f>
         <v>0</v>
       </c>
       <c r="J82" s="252">
-        <f>Master!J92</f>
+        <f>Master!J93</f>
         <v>0</v>
       </c>
       <c r="L82" s="251" t="e">
@@ -13287,31 +13305,31 @@
         <v>315</v>
       </c>
       <c r="D83" s="252">
-        <f>Master!D94</f>
+        <f>Master!D95</f>
         <v>0</v>
       </c>
       <c r="E83" s="252">
-        <f>Master!E94</f>
+        <f>Master!E95</f>
         <v>0</v>
       </c>
       <c r="F83" s="252">
-        <f>Master!F94</f>
+        <f>Master!F95</f>
         <v>0</v>
       </c>
       <c r="G83" s="252">
-        <f>Master!G94</f>
+        <f>Master!G95</f>
         <v>0</v>
       </c>
       <c r="H83" s="252">
-        <f>Master!H94</f>
+        <f>Master!H95</f>
         <v>0</v>
       </c>
       <c r="I83" s="252">
-        <f>Master!I94</f>
+        <f>Master!I95</f>
         <v>0</v>
       </c>
       <c r="J83" s="252">
-        <f>Master!J94</f>
+        <f>Master!J95</f>
         <v>0</v>
       </c>
       <c r="L83" s="251" t="e">
@@ -13351,31 +13369,31 @@
         <v>316</v>
       </c>
       <c r="D84" s="252">
-        <f>Master!D97</f>
+        <f>Master!D98</f>
         <v>0</v>
       </c>
       <c r="E84" s="252">
-        <f>Master!E97</f>
+        <f>Master!E98</f>
         <v>0</v>
       </c>
       <c r="F84" s="252">
-        <f>Master!F97</f>
+        <f>Master!F98</f>
         <v>0</v>
       </c>
       <c r="G84" s="252">
-        <f>Master!G97</f>
+        <f>Master!G98</f>
         <v>0</v>
       </c>
       <c r="H84" s="252">
-        <f>Master!H97</f>
+        <f>Master!H98</f>
         <v>0</v>
       </c>
       <c r="I84" s="252">
-        <f>Master!I97</f>
+        <f>Master!I98</f>
         <v>0</v>
       </c>
       <c r="J84" s="252">
-        <f>Master!J97</f>
+        <f>Master!J98</f>
         <v>0</v>
       </c>
       <c r="L84" s="251" t="e">
@@ -13415,31 +13433,31 @@
         <v>219</v>
       </c>
       <c r="D85" s="252">
-        <f>Master!D95</f>
+        <f>Master!D96</f>
         <v>0</v>
       </c>
       <c r="E85" s="252">
-        <f>Master!E95</f>
+        <f>Master!E96</f>
         <v>0</v>
       </c>
       <c r="F85" s="252">
-        <f>Master!F95</f>
+        <f>Master!F96</f>
         <v>0</v>
       </c>
       <c r="G85" s="252">
-        <f>Master!G95</f>
+        <f>Master!G96</f>
         <v>0</v>
       </c>
       <c r="H85" s="252">
-        <f>Master!H95</f>
+        <f>Master!H96</f>
         <v>0</v>
       </c>
       <c r="I85" s="252">
-        <f>Master!I95</f>
+        <f>Master!I96</f>
         <v>0</v>
       </c>
       <c r="J85" s="252">
-        <f>Master!J95</f>
+        <f>Master!J96</f>
         <v>0</v>
       </c>
       <c r="L85" s="251" t="e">
@@ -13479,31 +13497,31 @@
         <v>220</v>
       </c>
       <c r="D86" s="252">
-        <f>Master!D98</f>
+        <f>Master!D99</f>
         <v>0</v>
       </c>
       <c r="E86" s="252">
-        <f>Master!E98</f>
+        <f>Master!E99</f>
         <v>0</v>
       </c>
       <c r="F86" s="252">
-        <f>Master!F98</f>
+        <f>Master!F99</f>
         <v>0</v>
       </c>
       <c r="G86" s="252">
-        <f>Master!G98</f>
+        <f>Master!G99</f>
         <v>0</v>
       </c>
       <c r="H86" s="252">
-        <f>Master!H98</f>
+        <f>Master!H99</f>
         <v>0</v>
       </c>
       <c r="I86" s="252">
-        <f>Master!I98</f>
+        <f>Master!I99</f>
         <v>0</v>
       </c>
       <c r="J86" s="252">
-        <f>Master!J98</f>
+        <f>Master!J99</f>
         <v>0</v>
       </c>
       <c r="L86" s="251" t="e">
@@ -13528,31 +13546,31 @@
         <v>317</v>
       </c>
       <c r="D87" s="252">
-        <f>Master!D100</f>
+        <f>Master!D101</f>
         <v>0</v>
       </c>
       <c r="E87" s="252">
-        <f>Master!E100</f>
+        <f>Master!E101</f>
         <v>0</v>
       </c>
       <c r="F87" s="252">
-        <f>Master!F100</f>
+        <f>Master!F101</f>
         <v>0</v>
       </c>
       <c r="G87" s="252">
-        <f>Master!G100</f>
+        <f>Master!G101</f>
         <v>0</v>
       </c>
       <c r="H87" s="252">
-        <f>Master!H100</f>
+        <f>Master!H101</f>
         <v>0</v>
       </c>
       <c r="I87" s="252">
-        <f>Master!I100</f>
+        <f>Master!I101</f>
         <v>0</v>
       </c>
       <c r="J87" s="252">
-        <f>Master!J100</f>
+        <f>Master!J101</f>
         <v>0</v>
       </c>
       <c r="L87" s="251" t="e">
@@ -13577,31 +13595,31 @@
         <v>318</v>
       </c>
       <c r="D88" s="252">
-        <f>Master!D103</f>
+        <f>Master!D104</f>
         <v>0</v>
       </c>
       <c r="E88" s="252">
-        <f>Master!E103</f>
+        <f>Master!E104</f>
         <v>0</v>
       </c>
       <c r="F88" s="252">
-        <f>Master!F103</f>
+        <f>Master!F104</f>
         <v>0</v>
       </c>
       <c r="G88" s="252">
-        <f>Master!G103</f>
+        <f>Master!G104</f>
         <v>0</v>
       </c>
       <c r="H88" s="252">
-        <f>Master!H103</f>
+        <f>Master!H104</f>
         <v>0</v>
       </c>
       <c r="I88" s="252">
-        <f>Master!I103</f>
+        <f>Master!I104</f>
         <v>0</v>
       </c>
       <c r="J88" s="252">
-        <f>Master!J103</f>
+        <f>Master!J104</f>
         <v>0</v>
       </c>
       <c r="L88" s="251" t="e">
@@ -13626,31 +13644,31 @@
         <v>223</v>
       </c>
       <c r="D89" s="252">
-        <f>Master!D101</f>
+        <f>Master!D102</f>
         <v>0</v>
       </c>
       <c r="E89" s="252">
-        <f>Master!E101</f>
+        <f>Master!E102</f>
         <v>0</v>
       </c>
       <c r="F89" s="252">
-        <f>Master!F101</f>
+        <f>Master!F102</f>
         <v>0</v>
       </c>
       <c r="G89" s="252">
-        <f>Master!G101</f>
+        <f>Master!G102</f>
         <v>0</v>
       </c>
       <c r="H89" s="252">
-        <f>Master!H101</f>
+        <f>Master!H102</f>
         <v>0</v>
       </c>
       <c r="I89" s="252">
-        <f>Master!I101</f>
+        <f>Master!I102</f>
         <v>0</v>
       </c>
       <c r="J89" s="252">
-        <f>Master!J101</f>
+        <f>Master!J102</f>
         <v>0</v>
       </c>
       <c r="L89" s="251" t="e">
@@ -13675,31 +13693,31 @@
         <v>224</v>
       </c>
       <c r="D90" s="252">
-        <f>Master!D104</f>
+        <f>Master!D105</f>
         <v>0</v>
       </c>
       <c r="E90" s="252">
-        <f>Master!E104</f>
+        <f>Master!E105</f>
         <v>0</v>
       </c>
       <c r="F90" s="252">
-        <f>Master!F104</f>
+        <f>Master!F105</f>
         <v>0</v>
       </c>
       <c r="G90" s="252">
-        <f>Master!G104</f>
+        <f>Master!G105</f>
         <v>0</v>
       </c>
       <c r="H90" s="252">
-        <f>Master!H104</f>
+        <f>Master!H105</f>
         <v>0</v>
       </c>
       <c r="I90" s="252">
-        <f>Master!I104</f>
+        <f>Master!I105</f>
         <v>0</v>
       </c>
       <c r="J90" s="252">
-        <f>Master!J104</f>
+        <f>Master!J105</f>
         <v>0</v>
       </c>
       <c r="L90" s="251" t="e">
@@ -13739,31 +13757,31 @@
         <v>313</v>
       </c>
       <c r="D92" s="252">
-        <f>Master!D109</f>
+        <f>Master!D110</f>
         <v>0</v>
       </c>
       <c r="E92" s="252">
-        <f>Master!E109</f>
+        <f>Master!E110</f>
         <v>0</v>
       </c>
       <c r="F92" s="252">
-        <f>Master!F109</f>
+        <f>Master!F110</f>
         <v>0</v>
       </c>
       <c r="G92" s="252">
-        <f>Master!G109</f>
+        <f>Master!G110</f>
         <v>0</v>
       </c>
       <c r="H92" s="252">
-        <f>Master!H109</f>
+        <f>Master!H110</f>
         <v>0</v>
       </c>
       <c r="I92" s="252">
-        <f>Master!I109</f>
+        <f>Master!I110</f>
         <v>0</v>
       </c>
       <c r="J92" s="252">
-        <f>Master!J109</f>
+        <f>Master!J110</f>
         <v>0</v>
       </c>
       <c r="L92" s="251" t="e">
@@ -13803,31 +13821,31 @@
         <v>314</v>
       </c>
       <c r="D93" s="252">
-        <f>Master!D112</f>
+        <f>Master!D113</f>
         <v>0</v>
       </c>
       <c r="E93" s="252">
-        <f>Master!E112</f>
+        <f>Master!E113</f>
         <v>0</v>
       </c>
       <c r="F93" s="252">
-        <f>Master!F112</f>
+        <f>Master!F113</f>
         <v>0</v>
       </c>
       <c r="G93" s="252">
-        <f>Master!G112</f>
+        <f>Master!G113</f>
         <v>0</v>
       </c>
       <c r="H93" s="252">
-        <f>Master!H112</f>
+        <f>Master!H113</f>
         <v>0</v>
       </c>
       <c r="I93" s="252">
-        <f>Master!I112</f>
+        <f>Master!I113</f>
         <v>0</v>
       </c>
       <c r="J93" s="252">
-        <f>Master!J112</f>
+        <f>Master!J113</f>
         <v>0</v>
       </c>
       <c r="L93" s="251" t="e">
@@ -13867,31 +13885,31 @@
         <v>215</v>
       </c>
       <c r="D94" s="252">
-        <f>Master!D110</f>
+        <f>Master!D111</f>
         <v>0</v>
       </c>
       <c r="E94" s="252">
-        <f>Master!E110</f>
+        <f>Master!E111</f>
         <v>0</v>
       </c>
       <c r="F94" s="252">
-        <f>Master!F110</f>
+        <f>Master!F111</f>
         <v>0</v>
       </c>
       <c r="G94" s="252">
-        <f>Master!G110</f>
+        <f>Master!G111</f>
         <v>0</v>
       </c>
       <c r="H94" s="252">
-        <f>Master!H110</f>
+        <f>Master!H111</f>
         <v>0</v>
       </c>
       <c r="I94" s="252">
-        <f>Master!I110</f>
+        <f>Master!I111</f>
         <v>0</v>
       </c>
       <c r="J94" s="252">
-        <f>Master!J110</f>
+        <f>Master!J111</f>
         <v>0</v>
       </c>
       <c r="L94" s="251" t="e">
@@ -13931,31 +13949,31 @@
         <v>216</v>
       </c>
       <c r="D95" s="252">
-        <f>Master!D113</f>
+        <f>Master!D114</f>
         <v>0</v>
       </c>
       <c r="E95" s="252">
-        <f>Master!E113</f>
+        <f>Master!E114</f>
         <v>0</v>
       </c>
       <c r="F95" s="252">
-        <f>Master!F113</f>
+        <f>Master!F114</f>
         <v>0</v>
       </c>
       <c r="G95" s="252">
-        <f>Master!G113</f>
+        <f>Master!G114</f>
         <v>0</v>
       </c>
       <c r="H95" s="252">
-        <f>Master!H113</f>
+        <f>Master!H114</f>
         <v>0</v>
       </c>
       <c r="I95" s="252">
-        <f>Master!I113</f>
+        <f>Master!I114</f>
         <v>0</v>
       </c>
       <c r="J95" s="252">
-        <f>Master!J113</f>
+        <f>Master!J114</f>
         <v>0</v>
       </c>
       <c r="L95" s="251" t="e">
@@ -13980,31 +13998,31 @@
         <v>315</v>
       </c>
       <c r="D96" s="252">
-        <f>Master!D115</f>
+        <f>Master!D116</f>
         <v>0</v>
       </c>
       <c r="E96" s="252">
-        <f>Master!E115</f>
+        <f>Master!E116</f>
         <v>0</v>
       </c>
       <c r="F96" s="252">
-        <f>Master!F115</f>
+        <f>Master!F116</f>
         <v>0</v>
       </c>
       <c r="G96" s="252">
-        <f>Master!G115</f>
+        <f>Master!G116</f>
         <v>0</v>
       </c>
       <c r="H96" s="252">
-        <f>Master!H115</f>
+        <f>Master!H116</f>
         <v>0</v>
       </c>
       <c r="I96" s="252">
-        <f>Master!I115</f>
+        <f>Master!I116</f>
         <v>0</v>
       </c>
       <c r="J96" s="252">
-        <f>Master!J115</f>
+        <f>Master!J116</f>
         <v>0</v>
       </c>
       <c r="L96" s="251" t="e">
@@ -14044,31 +14062,31 @@
         <v>316</v>
       </c>
       <c r="D97" s="252">
-        <f>Master!D118</f>
+        <f>Master!D119</f>
         <v>0</v>
       </c>
       <c r="E97" s="252">
-        <f>Master!E118</f>
+        <f>Master!E119</f>
         <v>0</v>
       </c>
       <c r="F97" s="252">
-        <f>Master!F118</f>
+        <f>Master!F119</f>
         <v>0</v>
       </c>
       <c r="G97" s="252">
-        <f>Master!G118</f>
+        <f>Master!G119</f>
         <v>0</v>
       </c>
       <c r="H97" s="252">
-        <f>Master!H118</f>
+        <f>Master!H119</f>
         <v>0</v>
       </c>
       <c r="I97" s="252">
-        <f>Master!I118</f>
+        <f>Master!I119</f>
         <v>0</v>
       </c>
       <c r="J97" s="252">
-        <f>Master!J118</f>
+        <f>Master!J119</f>
         <v>0</v>
       </c>
       <c r="L97" s="251" t="e">
@@ -14108,31 +14126,31 @@
         <v>219</v>
       </c>
       <c r="D98" s="252">
-        <f>Master!D116</f>
+        <f>Master!D117</f>
         <v>0</v>
       </c>
       <c r="E98" s="252">
-        <f>Master!E116</f>
+        <f>Master!E117</f>
         <v>0</v>
       </c>
       <c r="F98" s="252">
-        <f>Master!F116</f>
+        <f>Master!F117</f>
         <v>0</v>
       </c>
       <c r="G98" s="252">
-        <f>Master!G116</f>
+        <f>Master!G117</f>
         <v>0</v>
       </c>
       <c r="H98" s="252">
-        <f>Master!H116</f>
+        <f>Master!H117</f>
         <v>0</v>
       </c>
       <c r="I98" s="252">
-        <f>Master!I116</f>
+        <f>Master!I117</f>
         <v>0</v>
       </c>
       <c r="J98" s="252">
-        <f>Master!J116</f>
+        <f>Master!J117</f>
         <v>0</v>
       </c>
       <c r="L98" s="251" t="e">
@@ -14172,31 +14190,31 @@
         <v>220</v>
       </c>
       <c r="D99" s="252">
-        <f>Master!D119</f>
+        <f>Master!D120</f>
         <v>0</v>
       </c>
       <c r="E99" s="252">
-        <f>Master!E119</f>
+        <f>Master!E120</f>
         <v>0</v>
       </c>
       <c r="F99" s="252">
-        <f>Master!F119</f>
+        <f>Master!F120</f>
         <v>0</v>
       </c>
       <c r="G99" s="252">
-        <f>Master!G119</f>
+        <f>Master!G120</f>
         <v>0</v>
       </c>
       <c r="H99" s="252">
-        <f>Master!H119</f>
+        <f>Master!H120</f>
         <v>0</v>
       </c>
       <c r="I99" s="252">
-        <f>Master!I119</f>
+        <f>Master!I120</f>
         <v>0</v>
       </c>
       <c r="J99" s="252">
-        <f>Master!J119</f>
+        <f>Master!J120</f>
         <v>0</v>
       </c>
       <c r="L99" s="251" t="e">
@@ -14221,31 +14239,31 @@
         <v>317</v>
       </c>
       <c r="D100" s="252">
-        <f>Master!D121</f>
+        <f>Master!D122</f>
         <v>0</v>
       </c>
       <c r="E100" s="252">
-        <f>Master!E121</f>
+        <f>Master!E122</f>
         <v>0</v>
       </c>
       <c r="F100" s="252">
-        <f>Master!F121</f>
+        <f>Master!F122</f>
         <v>0</v>
       </c>
       <c r="G100" s="252">
-        <f>Master!G121</f>
+        <f>Master!G122</f>
         <v>0</v>
       </c>
       <c r="H100" s="252">
-        <f>Master!H121</f>
+        <f>Master!H122</f>
         <v>0</v>
       </c>
       <c r="I100" s="252">
-        <f>Master!I121</f>
+        <f>Master!I122</f>
         <v>0</v>
       </c>
       <c r="J100" s="252">
-        <f>Master!J121</f>
+        <f>Master!J122</f>
         <v>0</v>
       </c>
       <c r="L100" s="251" t="e">
@@ -14270,31 +14288,31 @@
         <v>318</v>
       </c>
       <c r="D101" s="252">
-        <f>Master!D124</f>
+        <f>Master!D125</f>
         <v>0</v>
       </c>
       <c r="E101" s="252">
-        <f>Master!E124</f>
+        <f>Master!E125</f>
         <v>0</v>
       </c>
       <c r="F101" s="252">
-        <f>Master!F124</f>
+        <f>Master!F125</f>
         <v>0</v>
       </c>
       <c r="G101" s="252">
-        <f>Master!G124</f>
+        <f>Master!G125</f>
         <v>0</v>
       </c>
       <c r="H101" s="252">
-        <f>Master!H124</f>
+        <f>Master!H125</f>
         <v>0</v>
       </c>
       <c r="I101" s="252">
-        <f>Master!I124</f>
+        <f>Master!I125</f>
         <v>0</v>
       </c>
       <c r="J101" s="252">
-        <f>Master!J124</f>
+        <f>Master!J125</f>
         <v>0</v>
       </c>
       <c r="L101" s="251" t="e">
@@ -14319,31 +14337,31 @@
         <v>223</v>
       </c>
       <c r="D102" s="252">
-        <f>Master!D122</f>
+        <f>Master!D123</f>
         <v>0</v>
       </c>
       <c r="E102" s="252">
-        <f>Master!E122</f>
+        <f>Master!E123</f>
         <v>0</v>
       </c>
       <c r="F102" s="252">
-        <f>Master!F122</f>
+        <f>Master!F123</f>
         <v>0</v>
       </c>
       <c r="G102" s="252">
-        <f>Master!G122</f>
+        <f>Master!G123</f>
         <v>0</v>
       </c>
       <c r="H102" s="252">
-        <f>Master!H122</f>
+        <f>Master!H123</f>
         <v>0</v>
       </c>
       <c r="I102" s="252">
-        <f>Master!I122</f>
+        <f>Master!I123</f>
         <v>0</v>
       </c>
       <c r="J102" s="252">
-        <f>Master!J122</f>
+        <f>Master!J123</f>
         <v>0</v>
       </c>
       <c r="L102" s="251" t="e">
@@ -14368,31 +14386,31 @@
         <v>224</v>
       </c>
       <c r="D103" s="252">
-        <f>Master!D125</f>
+        <f>Master!D126</f>
         <v>0</v>
       </c>
       <c r="E103" s="252">
-        <f>Master!E125</f>
+        <f>Master!E126</f>
         <v>0</v>
       </c>
       <c r="F103" s="252">
-        <f>Master!F125</f>
+        <f>Master!F126</f>
         <v>0</v>
       </c>
       <c r="G103" s="252">
-        <f>Master!G125</f>
+        <f>Master!G126</f>
         <v>0</v>
       </c>
       <c r="H103" s="252">
-        <f>Master!H125</f>
+        <f>Master!H126</f>
         <v>0</v>
       </c>
       <c r="I103" s="252">
-        <f>Master!I125</f>
+        <f>Master!I126</f>
         <v>0</v>
       </c>
       <c r="J103" s="252">
-        <f>Master!J125</f>
+        <f>Master!J126</f>
         <v>0</v>
       </c>
       <c r="L103" s="251" t="e">
@@ -14432,31 +14450,31 @@
         <v>313</v>
       </c>
       <c r="D105" s="252">
-        <f>Master!D130</f>
+        <f>Master!D131</f>
         <v>0</v>
       </c>
       <c r="E105" s="252">
-        <f>Master!E130</f>
+        <f>Master!E131</f>
         <v>0</v>
       </c>
       <c r="F105" s="252">
-        <f>Master!F130</f>
+        <f>Master!F131</f>
         <v>0</v>
       </c>
       <c r="G105" s="252">
-        <f>Master!G130</f>
+        <f>Master!G131</f>
         <v>0</v>
       </c>
       <c r="H105" s="252">
-        <f>Master!H130</f>
+        <f>Master!H131</f>
         <v>0</v>
       </c>
       <c r="I105" s="252">
-        <f>Master!I130</f>
+        <f>Master!I131</f>
         <v>0</v>
       </c>
       <c r="J105" s="252">
-        <f>Master!J130</f>
+        <f>Master!J131</f>
         <v>0</v>
       </c>
       <c r="L105" s="251" t="e">
@@ -14496,31 +14514,31 @@
         <v>314</v>
       </c>
       <c r="D106" s="252">
-        <f>Master!D133</f>
+        <f>Master!D134</f>
         <v>0</v>
       </c>
       <c r="E106" s="252">
-        <f>Master!E133</f>
+        <f>Master!E134</f>
         <v>0</v>
       </c>
       <c r="F106" s="252">
-        <f>Master!F133</f>
+        <f>Master!F134</f>
         <v>0</v>
       </c>
       <c r="G106" s="252">
-        <f>Master!G133</f>
+        <f>Master!G134</f>
         <v>0</v>
       </c>
       <c r="H106" s="252">
-        <f>Master!H133</f>
+        <f>Master!H134</f>
         <v>0</v>
       </c>
       <c r="I106" s="252">
-        <f>Master!I133</f>
+        <f>Master!I134</f>
         <v>0</v>
       </c>
       <c r="J106" s="252">
-        <f>Master!J133</f>
+        <f>Master!J134</f>
         <v>0</v>
       </c>
       <c r="L106" s="251" t="e">
@@ -14560,31 +14578,31 @@
         <v>215</v>
       </c>
       <c r="D107" s="252">
-        <f>Master!D131</f>
+        <f>Master!D132</f>
         <v>0</v>
       </c>
       <c r="E107" s="252">
-        <f>Master!E131</f>
+        <f>Master!E132</f>
         <v>0</v>
       </c>
       <c r="F107" s="252">
-        <f>Master!F131</f>
+        <f>Master!F132</f>
         <v>0</v>
       </c>
       <c r="G107" s="252">
-        <f>Master!G131</f>
+        <f>Master!G132</f>
         <v>0</v>
       </c>
       <c r="H107" s="252">
-        <f>Master!H131</f>
+        <f>Master!H132</f>
         <v>0</v>
       </c>
       <c r="I107" s="252">
-        <f>Master!I131</f>
+        <f>Master!I132</f>
         <v>0</v>
       </c>
       <c r="J107" s="252">
-        <f>Master!J131</f>
+        <f>Master!J132</f>
         <v>0</v>
       </c>
       <c r="L107" s="251" t="e">
@@ -14624,31 +14642,31 @@
         <v>216</v>
       </c>
       <c r="D108" s="252">
-        <f>Master!D134</f>
+        <f>Master!D135</f>
         <v>0</v>
       </c>
       <c r="E108" s="252">
-        <f>Master!E134</f>
+        <f>Master!E135</f>
         <v>0</v>
       </c>
       <c r="F108" s="252">
-        <f>Master!F134</f>
+        <f>Master!F135</f>
         <v>0</v>
       </c>
       <c r="G108" s="252">
-        <f>Master!G134</f>
+        <f>Master!G135</f>
         <v>0</v>
       </c>
       <c r="H108" s="252">
-        <f>Master!H134</f>
+        <f>Master!H135</f>
         <v>0</v>
       </c>
       <c r="I108" s="252">
-        <f>Master!I134</f>
+        <f>Master!I135</f>
         <v>0</v>
       </c>
       <c r="J108" s="252">
-        <f>Master!J134</f>
+        <f>Master!J135</f>
         <v>0</v>
       </c>
       <c r="L108" s="251" t="e">
@@ -14673,31 +14691,31 @@
         <v>315</v>
       </c>
       <c r="D109" s="252">
-        <f>Master!D136</f>
+        <f>Master!D137</f>
         <v>0</v>
       </c>
       <c r="E109" s="252">
-        <f>Master!E136</f>
+        <f>Master!E137</f>
         <v>0</v>
       </c>
       <c r="F109" s="252">
-        <f>Master!F136</f>
+        <f>Master!F137</f>
         <v>0</v>
       </c>
       <c r="G109" s="252">
-        <f>Master!G136</f>
+        <f>Master!G137</f>
         <v>0</v>
       </c>
       <c r="H109" s="252">
-        <f>Master!H136</f>
+        <f>Master!H137</f>
         <v>0</v>
       </c>
       <c r="I109" s="252">
-        <f>Master!I136</f>
+        <f>Master!I137</f>
         <v>0</v>
       </c>
       <c r="J109" s="252">
-        <f>Master!J136</f>
+        <f>Master!J137</f>
         <v>0</v>
       </c>
       <c r="L109" s="251" t="e">
@@ -14737,31 +14755,31 @@
         <v>316</v>
       </c>
       <c r="D110" s="252">
-        <f>Master!D139</f>
+        <f>Master!D140</f>
         <v>0</v>
       </c>
       <c r="E110" s="252">
-        <f>Master!E139</f>
+        <f>Master!E140</f>
         <v>0</v>
       </c>
       <c r="F110" s="252">
-        <f>Master!F139</f>
+        <f>Master!F140</f>
         <v>0</v>
       </c>
       <c r="G110" s="252">
-        <f>Master!G139</f>
+        <f>Master!G140</f>
         <v>0</v>
       </c>
       <c r="H110" s="252">
-        <f>Master!H139</f>
+        <f>Master!H140</f>
         <v>0</v>
       </c>
       <c r="I110" s="252">
-        <f>Master!I139</f>
+        <f>Master!I140</f>
         <v>0</v>
       </c>
       <c r="J110" s="252">
-        <f>Master!J139</f>
+        <f>Master!J140</f>
         <v>0</v>
       </c>
       <c r="L110" s="251" t="e">
@@ -14801,31 +14819,31 @@
         <v>219</v>
       </c>
       <c r="D111" s="252">
-        <f>Master!D137</f>
+        <f>Master!D138</f>
         <v>0</v>
       </c>
       <c r="E111" s="252">
-        <f>Master!E137</f>
+        <f>Master!E138</f>
         <v>0</v>
       </c>
       <c r="F111" s="252">
-        <f>Master!F137</f>
+        <f>Master!F138</f>
         <v>0</v>
       </c>
       <c r="G111" s="252">
-        <f>Master!G137</f>
+        <f>Master!G138</f>
         <v>0</v>
       </c>
       <c r="H111" s="252">
-        <f>Master!H137</f>
+        <f>Master!H138</f>
         <v>0</v>
       </c>
       <c r="I111" s="252">
-        <f>Master!I137</f>
+        <f>Master!I138</f>
         <v>0</v>
       </c>
       <c r="J111" s="252">
-        <f>Master!J137</f>
+        <f>Master!J138</f>
         <v>0</v>
       </c>
       <c r="L111" s="251" t="e">
@@ -14865,31 +14883,31 @@
         <v>220</v>
       </c>
       <c r="D112" s="252">
-        <f>Master!D140</f>
+        <f>Master!D141</f>
         <v>0</v>
       </c>
       <c r="E112" s="252">
-        <f>Master!E140</f>
+        <f>Master!E141</f>
         <v>0</v>
       </c>
       <c r="F112" s="252">
-        <f>Master!F140</f>
+        <f>Master!F141</f>
         <v>0</v>
       </c>
       <c r="G112" s="252">
-        <f>Master!G140</f>
+        <f>Master!G141</f>
         <v>0</v>
       </c>
       <c r="H112" s="252">
-        <f>Master!H140</f>
+        <f>Master!H141</f>
         <v>0</v>
       </c>
       <c r="I112" s="252">
-        <f>Master!I140</f>
+        <f>Master!I141</f>
         <v>0</v>
       </c>
       <c r="J112" s="252">
-        <f>Master!J140</f>
+        <f>Master!J141</f>
         <v>0</v>
       </c>
       <c r="L112" s="251" t="e">
@@ -14914,31 +14932,31 @@
         <v>317</v>
       </c>
       <c r="D113" s="252">
-        <f>Master!D142</f>
+        <f>Master!D143</f>
         <v>0</v>
       </c>
       <c r="E113" s="252">
-        <f>Master!E142</f>
+        <f>Master!E143</f>
         <v>0</v>
       </c>
       <c r="F113" s="252">
-        <f>Master!F142</f>
+        <f>Master!F143</f>
         <v>0</v>
       </c>
       <c r="G113" s="252">
-        <f>Master!G142</f>
+        <f>Master!G143</f>
         <v>0</v>
       </c>
       <c r="H113" s="252">
-        <f>Master!H142</f>
+        <f>Master!H143</f>
         <v>0</v>
       </c>
       <c r="I113" s="252">
-        <f>Master!I142</f>
+        <f>Master!I143</f>
         <v>0</v>
       </c>
       <c r="J113" s="252">
-        <f>Master!J142</f>
+        <f>Master!J143</f>
         <v>0</v>
       </c>
       <c r="L113" s="251" t="e">
@@ -14963,31 +14981,31 @@
         <v>318</v>
       </c>
       <c r="D114" s="252">
-        <f>Master!D145</f>
+        <f>Master!D146</f>
         <v>0</v>
       </c>
       <c r="E114" s="252">
-        <f>Master!E145</f>
+        <f>Master!E146</f>
         <v>0</v>
       </c>
       <c r="F114" s="252">
-        <f>Master!F145</f>
+        <f>Master!F146</f>
         <v>0</v>
       </c>
       <c r="G114" s="252">
-        <f>Master!G145</f>
+        <f>Master!G146</f>
         <v>0</v>
       </c>
       <c r="H114" s="252">
-        <f>Master!H145</f>
+        <f>Master!H146</f>
         <v>0</v>
       </c>
       <c r="I114" s="252">
-        <f>Master!I145</f>
+        <f>Master!I146</f>
         <v>0</v>
       </c>
       <c r="J114" s="252">
-        <f>Master!J145</f>
+        <f>Master!J146</f>
         <v>0</v>
       </c>
       <c r="L114" s="251" t="e">
@@ -15012,31 +15030,31 @@
         <v>223</v>
       </c>
       <c r="D115" s="252">
-        <f>Master!D143</f>
+        <f>Master!D144</f>
         <v>0</v>
       </c>
       <c r="E115" s="252">
-        <f>Master!E143</f>
+        <f>Master!E144</f>
         <v>0</v>
       </c>
       <c r="F115" s="252">
-        <f>Master!F143</f>
+        <f>Master!F144</f>
         <v>0</v>
       </c>
       <c r="G115" s="252">
-        <f>Master!G143</f>
+        <f>Master!G144</f>
         <v>0</v>
       </c>
       <c r="H115" s="252">
-        <f>Master!H143</f>
+        <f>Master!H144</f>
         <v>0</v>
       </c>
       <c r="I115" s="252">
-        <f>Master!I143</f>
+        <f>Master!I144</f>
         <v>0</v>
       </c>
       <c r="J115" s="252">
-        <f>Master!J143</f>
+        <f>Master!J144</f>
         <v>0</v>
       </c>
       <c r="L115" s="251" t="e">
@@ -15061,31 +15079,31 @@
         <v>224</v>
       </c>
       <c r="D116" s="252">
-        <f>Master!D146</f>
+        <f>Master!D147</f>
         <v>0</v>
       </c>
       <c r="E116" s="252">
-        <f>Master!E146</f>
+        <f>Master!E147</f>
         <v>0</v>
       </c>
       <c r="F116" s="252">
-        <f>Master!F146</f>
+        <f>Master!F147</f>
         <v>0</v>
       </c>
       <c r="G116" s="252">
-        <f>Master!G146</f>
+        <f>Master!G147</f>
         <v>0</v>
       </c>
       <c r="H116" s="252">
-        <f>Master!H146</f>
+        <f>Master!H147</f>
         <v>0</v>
       </c>
       <c r="I116" s="252">
-        <f>Master!I146</f>
+        <f>Master!I147</f>
         <v>0</v>
       </c>
       <c r="J116" s="252">
-        <f>Master!J146</f>
+        <f>Master!J147</f>
         <v>0</v>
       </c>
       <c r="L116" s="251" t="e">
@@ -15125,31 +15143,31 @@
         <v>313</v>
       </c>
       <c r="D118" s="252">
-        <f>Master!D151</f>
+        <f>Master!D152</f>
         <v>0</v>
       </c>
       <c r="E118" s="252">
-        <f>Master!E151</f>
+        <f>Master!E152</f>
         <v>0</v>
       </c>
       <c r="F118" s="252">
-        <f>Master!F151</f>
+        <f>Master!F152</f>
         <v>0</v>
       </c>
       <c r="G118" s="252">
-        <f>Master!G151</f>
+        <f>Master!G152</f>
         <v>0</v>
       </c>
       <c r="H118" s="252">
-        <f>Master!H151</f>
+        <f>Master!H152</f>
         <v>0</v>
       </c>
       <c r="I118" s="252">
-        <f>Master!I151</f>
+        <f>Master!I152</f>
         <v>0</v>
       </c>
       <c r="J118" s="252">
-        <f>Master!J151</f>
+        <f>Master!J152</f>
         <v>0</v>
       </c>
       <c r="L118" s="251" t="e">
@@ -15189,31 +15207,31 @@
         <v>314</v>
       </c>
       <c r="D119" s="252">
-        <f>Master!D154</f>
+        <f>Master!D155</f>
         <v>0</v>
       </c>
       <c r="E119" s="252">
-        <f>Master!E154</f>
+        <f>Master!E155</f>
         <v>0</v>
       </c>
       <c r="F119" s="252">
-        <f>Master!F154</f>
+        <f>Master!F155</f>
         <v>0</v>
       </c>
       <c r="G119" s="252">
-        <f>Master!G154</f>
+        <f>Master!G155</f>
         <v>0</v>
       </c>
       <c r="H119" s="252">
-        <f>Master!H154</f>
+        <f>Master!H155</f>
         <v>0</v>
       </c>
       <c r="I119" s="252">
-        <f>Master!I154</f>
+        <f>Master!I155</f>
         <v>0</v>
       </c>
       <c r="J119" s="252">
-        <f>Master!J154</f>
+        <f>Master!J155</f>
         <v>0</v>
       </c>
       <c r="L119" s="251" t="e">
@@ -15253,31 +15271,31 @@
         <v>215</v>
       </c>
       <c r="D120" s="252">
-        <f>Master!D152</f>
+        <f>Master!D153</f>
         <v>0</v>
       </c>
       <c r="E120" s="252">
-        <f>Master!E152</f>
+        <f>Master!E153</f>
         <v>0</v>
       </c>
       <c r="F120" s="252">
-        <f>Master!F152</f>
+        <f>Master!F153</f>
         <v>0</v>
       </c>
       <c r="G120" s="252">
-        <f>Master!G152</f>
+        <f>Master!G153</f>
         <v>0</v>
       </c>
       <c r="H120" s="252">
-        <f>Master!H152</f>
+        <f>Master!H153</f>
         <v>0</v>
       </c>
       <c r="I120" s="252">
-        <f>Master!I152</f>
+        <f>Master!I153</f>
         <v>0</v>
       </c>
       <c r="J120" s="252">
-        <f>Master!J152</f>
+        <f>Master!J153</f>
         <v>0</v>
       </c>
       <c r="L120" s="251" t="e">
@@ -15317,31 +15335,31 @@
         <v>216</v>
       </c>
       <c r="D121" s="252">
-        <f>Master!D155</f>
+        <f>Master!D156</f>
         <v>0</v>
       </c>
       <c r="E121" s="252">
-        <f>Master!E155</f>
+        <f>Master!E156</f>
         <v>0</v>
       </c>
       <c r="F121" s="252">
-        <f>Master!F155</f>
+        <f>Master!F156</f>
         <v>0</v>
       </c>
       <c r="G121" s="252">
-        <f>Master!G155</f>
+        <f>Master!G156</f>
         <v>0</v>
       </c>
       <c r="H121" s="252">
-        <f>Master!H155</f>
+        <f>Master!H156</f>
         <v>0</v>
       </c>
       <c r="I121" s="252">
-        <f>Master!I155</f>
+        <f>Master!I156</f>
         <v>0</v>
       </c>
       <c r="J121" s="252">
-        <f>Master!J155</f>
+        <f>Master!J156</f>
         <v>0</v>
       </c>
       <c r="L121" s="251" t="e">
@@ -15366,31 +15384,31 @@
         <v>315</v>
       </c>
       <c r="D122" s="252">
-        <f>Master!D157</f>
+        <f>Master!D158</f>
         <v>0</v>
       </c>
       <c r="E122" s="252">
-        <f>Master!E157</f>
+        <f>Master!E158</f>
         <v>0</v>
       </c>
       <c r="F122" s="252">
-        <f>Master!F157</f>
+        <f>Master!F158</f>
         <v>0</v>
       </c>
       <c r="G122" s="252">
-        <f>Master!G157</f>
+        <f>Master!G158</f>
         <v>0</v>
       </c>
       <c r="H122" s="252">
-        <f>Master!H157</f>
+        <f>Master!H158</f>
         <v>0</v>
       </c>
       <c r="I122" s="252">
-        <f>Master!I157</f>
+        <f>Master!I158</f>
         <v>0</v>
       </c>
       <c r="J122" s="252">
-        <f>Master!J157</f>
+        <f>Master!J158</f>
         <v>0</v>
       </c>
       <c r="L122" s="251" t="e">
@@ -15430,31 +15448,31 @@
         <v>316</v>
       </c>
       <c r="D123" s="252">
-        <f>Master!D160</f>
+        <f>Master!D161</f>
         <v>0</v>
       </c>
       <c r="E123" s="252">
-        <f>Master!E160</f>
+        <f>Master!E161</f>
         <v>0</v>
       </c>
       <c r="F123" s="252">
-        <f>Master!F160</f>
+        <f>Master!F161</f>
         <v>0</v>
       </c>
       <c r="G123" s="252">
-        <f>Master!G160</f>
+        <f>Master!G161</f>
         <v>0</v>
       </c>
       <c r="H123" s="252">
-        <f>Master!H160</f>
+        <f>Master!H161</f>
         <v>0</v>
       </c>
       <c r="I123" s="252">
-        <f>Master!I160</f>
+        <f>Master!I161</f>
         <v>0</v>
       </c>
       <c r="J123" s="252">
-        <f>Master!J160</f>
+        <f>Master!J161</f>
         <v>0</v>
       </c>
       <c r="L123" s="251" t="e">
@@ -15494,31 +15512,31 @@
         <v>219</v>
       </c>
       <c r="D124" s="252">
-        <f>Master!D158</f>
+        <f>Master!D159</f>
         <v>0</v>
       </c>
       <c r="E124" s="252">
-        <f>Master!E158</f>
+        <f>Master!E159</f>
         <v>0</v>
       </c>
       <c r="F124" s="252">
-        <f>Master!F158</f>
+        <f>Master!F159</f>
         <v>0</v>
       </c>
       <c r="G124" s="252">
-        <f>Master!G158</f>
+        <f>Master!G159</f>
         <v>0</v>
       </c>
       <c r="H124" s="252">
-        <f>Master!H158</f>
+        <f>Master!H159</f>
         <v>0</v>
       </c>
       <c r="I124" s="252">
-        <f>Master!I158</f>
+        <f>Master!I159</f>
         <v>0</v>
       </c>
       <c r="J124" s="252">
-        <f>Master!J158</f>
+        <f>Master!J159</f>
         <v>0</v>
       </c>
       <c r="L124" s="251" t="e">
@@ -15558,31 +15576,31 @@
         <v>220</v>
       </c>
       <c r="D125" s="252">
-        <f>Master!D161</f>
+        <f>Master!D162</f>
         <v>0</v>
       </c>
       <c r="E125" s="252">
-        <f>Master!E161</f>
+        <f>Master!E162</f>
         <v>0</v>
       </c>
       <c r="F125" s="252">
-        <f>Master!F161</f>
+        <f>Master!F162</f>
         <v>0</v>
       </c>
       <c r="G125" s="252">
-        <f>Master!G161</f>
+        <f>Master!G162</f>
         <v>0</v>
       </c>
       <c r="H125" s="252">
-        <f>Master!H161</f>
+        <f>Master!H162</f>
         <v>0</v>
       </c>
       <c r="I125" s="252">
-        <f>Master!I161</f>
+        <f>Master!I162</f>
         <v>0</v>
       </c>
       <c r="J125" s="252">
-        <f>Master!J161</f>
+        <f>Master!J162</f>
         <v>0</v>
       </c>
       <c r="L125" s="251" t="e">
@@ -15607,31 +15625,31 @@
         <v>317</v>
       </c>
       <c r="D126" s="252">
-        <f>Master!D163</f>
+        <f>Master!D164</f>
         <v>0</v>
       </c>
       <c r="E126" s="252">
-        <f>Master!E163</f>
+        <f>Master!E164</f>
         <v>0</v>
       </c>
       <c r="F126" s="252">
-        <f>Master!F163</f>
+        <f>Master!F164</f>
         <v>0</v>
       </c>
       <c r="G126" s="252">
-        <f>Master!G163</f>
+        <f>Master!G164</f>
         <v>0</v>
       </c>
       <c r="H126" s="252">
-        <f>Master!H163</f>
+        <f>Master!H164</f>
         <v>0</v>
       </c>
       <c r="I126" s="252">
-        <f>Master!I163</f>
+        <f>Master!I164</f>
         <v>0</v>
       </c>
       <c r="J126" s="252">
-        <f>Master!J163</f>
+        <f>Master!J164</f>
         <v>0</v>
       </c>
       <c r="L126" s="251" t="e">
@@ -15656,31 +15674,31 @@
         <v>318</v>
       </c>
       <c r="D127" s="252">
-        <f>Master!D166</f>
+        <f>Master!D167</f>
         <v>0</v>
       </c>
       <c r="E127" s="252">
-        <f>Master!E166</f>
+        <f>Master!E167</f>
         <v>0</v>
       </c>
       <c r="F127" s="252">
-        <f>Master!F166</f>
+        <f>Master!F167</f>
         <v>0</v>
       </c>
       <c r="G127" s="252">
-        <f>Master!G166</f>
+        <f>Master!G167</f>
         <v>0</v>
       </c>
       <c r="H127" s="252">
-        <f>Master!H166</f>
+        <f>Master!H167</f>
         <v>0</v>
       </c>
       <c r="I127" s="252">
-        <f>Master!I166</f>
+        <f>Master!I167</f>
         <v>0</v>
       </c>
       <c r="J127" s="252">
-        <f>Master!J166</f>
+        <f>Master!J167</f>
         <v>0</v>
       </c>
       <c r="L127" s="251" t="e">
@@ -15705,31 +15723,31 @@
         <v>223</v>
       </c>
       <c r="D128" s="252">
-        <f>Master!D164</f>
+        <f>Master!D165</f>
         <v>0</v>
       </c>
       <c r="E128" s="252">
-        <f>Master!E164</f>
+        <f>Master!E165</f>
         <v>0</v>
       </c>
       <c r="F128" s="252">
-        <f>Master!F164</f>
+        <f>Master!F165</f>
         <v>0</v>
       </c>
       <c r="G128" s="252">
-        <f>Master!G164</f>
+        <f>Master!G165</f>
         <v>0</v>
       </c>
       <c r="H128" s="252">
-        <f>Master!H164</f>
+        <f>Master!H165</f>
         <v>0</v>
       </c>
       <c r="I128" s="252">
-        <f>Master!I164</f>
+        <f>Master!I165</f>
         <v>0</v>
       </c>
       <c r="J128" s="252">
-        <f>Master!J164</f>
+        <f>Master!J165</f>
         <v>0</v>
       </c>
       <c r="L128" s="251" t="e">
@@ -15754,31 +15772,31 @@
         <v>224</v>
       </c>
       <c r="D129" s="252">
-        <f>Master!D167</f>
+        <f>Master!D168</f>
         <v>0</v>
       </c>
       <c r="E129" s="252">
-        <f>Master!E167</f>
+        <f>Master!E168</f>
         <v>0</v>
       </c>
       <c r="F129" s="252">
-        <f>Master!F167</f>
+        <f>Master!F168</f>
         <v>0</v>
       </c>
       <c r="G129" s="252">
-        <f>Master!G167</f>
+        <f>Master!G168</f>
         <v>0</v>
       </c>
       <c r="H129" s="252">
-        <f>Master!H167</f>
+        <f>Master!H168</f>
         <v>0</v>
       </c>
       <c r="I129" s="252">
-        <f>Master!I167</f>
+        <f>Master!I168</f>
         <v>0</v>
       </c>
       <c r="J129" s="252">
-        <f>Master!J167</f>
+        <f>Master!J168</f>
         <v>0</v>
       </c>
       <c r="L129" s="251" t="e">
@@ -15818,31 +15836,31 @@
         <v>313</v>
       </c>
       <c r="D131" s="252">
-        <f>Master!D172</f>
+        <f>Master!D173</f>
         <v>0</v>
       </c>
       <c r="E131" s="252">
-        <f>Master!E172</f>
+        <f>Master!E173</f>
         <v>0</v>
       </c>
       <c r="F131" s="252">
-        <f>Master!F172</f>
+        <f>Master!F173</f>
         <v>0</v>
       </c>
       <c r="G131" s="252">
-        <f>Master!G172</f>
+        <f>Master!G173</f>
         <v>0</v>
       </c>
       <c r="H131" s="252">
-        <f>Master!H172</f>
+        <f>Master!H173</f>
         <v>0</v>
       </c>
       <c r="I131" s="252">
-        <f>Master!I172</f>
+        <f>Master!I173</f>
         <v>0</v>
       </c>
       <c r="J131" s="252">
-        <f>Master!J172</f>
+        <f>Master!J173</f>
         <v>0</v>
       </c>
       <c r="L131" s="251" t="e">
@@ -15882,31 +15900,31 @@
         <v>314</v>
       </c>
       <c r="D132" s="252">
-        <f>Master!D175</f>
+        <f>Master!D176</f>
         <v>0</v>
       </c>
       <c r="E132" s="252">
-        <f>Master!E175</f>
+        <f>Master!E176</f>
         <v>0</v>
       </c>
       <c r="F132" s="252">
-        <f>Master!F175</f>
+        <f>Master!F176</f>
         <v>0</v>
       </c>
       <c r="G132" s="252">
-        <f>Master!G175</f>
+        <f>Master!G176</f>
         <v>0</v>
       </c>
       <c r="H132" s="252">
-        <f>Master!H175</f>
+        <f>Master!H176</f>
         <v>0</v>
       </c>
       <c r="I132" s="252">
-        <f>Master!I175</f>
+        <f>Master!I176</f>
         <v>0</v>
       </c>
       <c r="J132" s="252">
-        <f>Master!J175</f>
+        <f>Master!J176</f>
         <v>0</v>
       </c>
       <c r="L132" s="251" t="e">
@@ -15946,31 +15964,31 @@
         <v>215</v>
       </c>
       <c r="D133" s="252">
-        <f>Master!D173</f>
+        <f>Master!D174</f>
         <v>0</v>
       </c>
       <c r="E133" s="252">
-        <f>Master!E173</f>
+        <f>Master!E174</f>
         <v>0</v>
       </c>
       <c r="F133" s="252">
-        <f>Master!F173</f>
+        <f>Master!F174</f>
         <v>0</v>
       </c>
       <c r="G133" s="252">
-        <f>Master!G173</f>
+        <f>Master!G174</f>
         <v>0</v>
       </c>
       <c r="H133" s="252">
-        <f>Master!H173</f>
+        <f>Master!H174</f>
         <v>0</v>
       </c>
       <c r="I133" s="252">
-        <f>Master!I173</f>
+        <f>Master!I174</f>
         <v>0</v>
       </c>
       <c r="J133" s="252">
-        <f>Master!J173</f>
+        <f>Master!J174</f>
         <v>0</v>
       </c>
       <c r="L133" s="251" t="e">
@@ -16010,31 +16028,31 @@
         <v>216</v>
       </c>
       <c r="D134" s="252">
-        <f>Master!D176</f>
+        <f>Master!D177</f>
         <v>0</v>
       </c>
       <c r="E134" s="252">
-        <f>Master!E176</f>
+        <f>Master!E177</f>
         <v>0</v>
       </c>
       <c r="F134" s="252">
-        <f>Master!F176</f>
+        <f>Master!F177</f>
         <v>0</v>
       </c>
       <c r="G134" s="252">
-        <f>Master!G176</f>
+        <f>Master!G177</f>
         <v>0</v>
       </c>
       <c r="H134" s="252">
-        <f>Master!H176</f>
+        <f>Master!H177</f>
         <v>0</v>
       </c>
       <c r="I134" s="252">
-        <f>Master!I176</f>
+        <f>Master!I177</f>
         <v>0</v>
       </c>
       <c r="J134" s="252">
-        <f>Master!J176</f>
+        <f>Master!J177</f>
         <v>0</v>
       </c>
       <c r="L134" s="251" t="e">
@@ -16059,31 +16077,31 @@
         <v>315</v>
       </c>
       <c r="D135" s="252">
-        <f>Master!D178</f>
+        <f>Master!D179</f>
         <v>0</v>
       </c>
       <c r="E135" s="252">
-        <f>Master!E178</f>
+        <f>Master!E179</f>
         <v>0</v>
       </c>
       <c r="F135" s="252">
-        <f>Master!F178</f>
+        <f>Master!F179</f>
         <v>0</v>
       </c>
       <c r="G135" s="252">
-        <f>Master!G178</f>
+        <f>Master!G179</f>
         <v>0</v>
       </c>
       <c r="H135" s="252">
-        <f>Master!H178</f>
+        <f>Master!H179</f>
         <v>0</v>
       </c>
       <c r="I135" s="252">
-        <f>Master!I178</f>
+        <f>Master!I179</f>
         <v>0</v>
       </c>
       <c r="J135" s="252">
-        <f>Master!J178</f>
+        <f>Master!J179</f>
         <v>0</v>
       </c>
       <c r="L135" s="251" t="e">
@@ -16123,31 +16141,31 @@
         <v>316</v>
       </c>
       <c r="D136" s="252">
-        <f>Master!D181</f>
+        <f>Master!D182</f>
         <v>0</v>
       </c>
       <c r="E136" s="252">
-        <f>Master!E181</f>
+        <f>Master!E182</f>
         <v>0</v>
       </c>
       <c r="F136" s="252">
-        <f>Master!F181</f>
+        <f>Master!F182</f>
         <v>0</v>
       </c>
       <c r="G136" s="252">
-        <f>Master!G181</f>
+        <f>Master!G182</f>
         <v>0</v>
       </c>
       <c r="H136" s="252">
-        <f>Master!H181</f>
+        <f>Master!H182</f>
         <v>0</v>
       </c>
       <c r="I136" s="252">
-        <f>Master!I181</f>
+        <f>Master!I182</f>
         <v>0</v>
       </c>
       <c r="J136" s="252">
-        <f>Master!J181</f>
+        <f>Master!J182</f>
         <v>0</v>
       </c>
       <c r="L136" s="251" t="e">
@@ -16187,31 +16205,31 @@
         <v>219</v>
       </c>
       <c r="D137" s="252">
-        <f>Master!D179</f>
+        <f>Master!D180</f>
         <v>0</v>
       </c>
       <c r="E137" s="252">
-        <f>Master!E179</f>
+        <f>Master!E180</f>
         <v>0</v>
       </c>
       <c r="F137" s="252">
-        <f>Master!F179</f>
+        <f>Master!F180</f>
         <v>0</v>
       </c>
       <c r="G137" s="252">
-        <f>Master!G179</f>
+        <f>Master!G180</f>
         <v>0</v>
       </c>
       <c r="H137" s="252">
-        <f>Master!H179</f>
+        <f>Master!H180</f>
         <v>0</v>
       </c>
       <c r="I137" s="252">
-        <f>Master!I179</f>
+        <f>Master!I180</f>
         <v>0</v>
       </c>
       <c r="J137" s="252">
-        <f>Master!J179</f>
+        <f>Master!J180</f>
         <v>0</v>
       </c>
       <c r="L137" s="251" t="e">
@@ -16251,31 +16269,31 @@
         <v>220</v>
       </c>
       <c r="D138" s="252">
-        <f>Master!D182</f>
+        <f>Master!D183</f>
         <v>0</v>
       </c>
       <c r="E138" s="252">
-        <f>Master!E182</f>
+        <f>Master!E183</f>
         <v>0</v>
       </c>
       <c r="F138" s="252">
-        <f>Master!F182</f>
+        <f>Master!F183</f>
         <v>0</v>
       </c>
       <c r="G138" s="252">
-        <f>Master!G182</f>
+        <f>Master!G183</f>
         <v>0</v>
       </c>
       <c r="H138" s="252">
-        <f>Master!H182</f>
+        <f>Master!H183</f>
         <v>0</v>
       </c>
       <c r="I138" s="252">
-        <f>Master!I182</f>
+        <f>Master!I183</f>
         <v>0</v>
       </c>
       <c r="J138" s="252">
-        <f>Master!J182</f>
+        <f>Master!J183</f>
         <v>0</v>
       </c>
       <c r="L138" s="251" t="e">
@@ -16300,31 +16318,31 @@
         <v>317</v>
       </c>
       <c r="D139" s="252">
-        <f>Master!D184</f>
+        <f>Master!D185</f>
         <v>0</v>
       </c>
       <c r="E139" s="252">
-        <f>Master!E184</f>
+        <f>Master!E185</f>
         <v>0</v>
       </c>
       <c r="F139" s="252">
-        <f>Master!F184</f>
+        <f>Master!F185</f>
         <v>0</v>
       </c>
       <c r="G139" s="252">
-        <f>Master!G184</f>
+        <f>Master!G185</f>
         <v>0</v>
       </c>
       <c r="H139" s="252">
-        <f>Master!H184</f>
+        <f>Master!H185</f>
         <v>0</v>
       </c>
       <c r="I139" s="252">
-        <f>Master!I184</f>
+        <f>Master!I185</f>
         <v>0</v>
       </c>
       <c r="J139" s="252">
-        <f>Master!J184</f>
+        <f>Master!J185</f>
         <v>0</v>
       </c>
       <c r="L139" s="251" t="e">
@@ -16349,31 +16367,31 @@
         <v>318</v>
       </c>
       <c r="D140" s="252">
-        <f>Master!D187</f>
+        <f>Master!D188</f>
         <v>0</v>
       </c>
       <c r="E140" s="252">
-        <f>Master!E187</f>
+        <f>Master!E188</f>
         <v>0</v>
       </c>
       <c r="F140" s="252">
-        <f>Master!F187</f>
+        <f>Master!F188</f>
         <v>0</v>
       </c>
       <c r="G140" s="252">
-        <f>Master!G187</f>
+        <f>Master!G188</f>
         <v>0</v>
       </c>
       <c r="H140" s="252">
-        <f>Master!H187</f>
+        <f>Master!H188</f>
         <v>0</v>
       </c>
       <c r="I140" s="252">
-        <f>Master!I187</f>
+        <f>Master!I188</f>
         <v>0</v>
       </c>
       <c r="J140" s="252">
-        <f>Master!J187</f>
+        <f>Master!J188</f>
         <v>0</v>
       </c>
       <c r="L140" s="251" t="e">
@@ -16398,31 +16416,31 @@
         <v>223</v>
       </c>
       <c r="D141" s="252">
-        <f>Master!D185</f>
+        <f>Master!D186</f>
         <v>0</v>
       </c>
       <c r="E141" s="252">
-        <f>Master!E185</f>
+        <f>Master!E186</f>
         <v>0</v>
       </c>
       <c r="F141" s="252">
-        <f>Master!F185</f>
+        <f>Master!F186</f>
         <v>0</v>
       </c>
       <c r="G141" s="252">
-        <f>Master!G185</f>
+        <f>Master!G186</f>
         <v>0</v>
       </c>
       <c r="H141" s="252">
-        <f>Master!H185</f>
+        <f>Master!H186</f>
         <v>0</v>
       </c>
       <c r="I141" s="252">
-        <f>Master!I185</f>
+        <f>Master!I186</f>
         <v>0</v>
       </c>
       <c r="J141" s="252">
-        <f>Master!J185</f>
+        <f>Master!J186</f>
         <v>0</v>
       </c>
       <c r="L141" s="251" t="e">
@@ -16447,31 +16465,31 @@
         <v>224</v>
       </c>
       <c r="D142" s="252">
-        <f>Master!D188</f>
+        <f>Master!D189</f>
         <v>0</v>
       </c>
       <c r="E142" s="252">
-        <f>Master!E188</f>
+        <f>Master!E189</f>
         <v>0</v>
       </c>
       <c r="F142" s="252">
-        <f>Master!F188</f>
+        <f>Master!F189</f>
         <v>0</v>
       </c>
       <c r="G142" s="252">
-        <f>Master!G188</f>
+        <f>Master!G189</f>
         <v>0</v>
       </c>
       <c r="H142" s="252">
-        <f>Master!H188</f>
+        <f>Master!H189</f>
         <v>0</v>
       </c>
       <c r="I142" s="252">
-        <f>Master!I188</f>
+        <f>Master!I189</f>
         <v>0</v>
       </c>
       <c r="J142" s="252">
-        <f>Master!J188</f>
+        <f>Master!J189</f>
         <v>0</v>
       </c>
       <c r="L142" s="251" t="e">
@@ -16530,11 +16548,11 @@
         <v>135</v>
       </c>
       <c r="D1" s="117"/>
-      <c r="E1" s="260" t="s">
+      <c r="E1" s="261" t="s">
         <v>312</v>
       </c>
-      <c r="F1" s="261"/>
-      <c r="G1" s="261"/>
+      <c r="F1" s="262"/>
+      <c r="G1" s="262"/>
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="93" t="s">
@@ -16948,10 +16966,10 @@
       <c r="A24" s="138" t="s">
         <v>302</v>
       </c>
-      <c r="B24" s="262" t="s">
+      <c r="B24" s="259" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="262" t="s">
+      <c r="C24" s="259" t="s">
         <v>53</v>
       </c>
       <c r="D24" s="125"/>
